--- a/output/flights_non_direct_missing30.xlsx
+++ b/output/flights_non_direct_missing30.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ls2823_ic_ac_uk/Documents/0_Sustainable Transport/COP_flight_analysis/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_23F921EDAA7BCE21FD2D4C76DD09143E688B6DF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C85116E-7024-4C3F-A2E8-1BF9D6C32AF4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -505,8 +499,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,21 +563,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -621,7 +607,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -655,7 +641,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -690,10 +675,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -866,25 +850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -939,22 +912,22 @@
         <v>122</v>
       </c>
       <c r="E2">
-        <v>4349.2480386929692</v>
+        <v>4349.248038692969</v>
       </c>
       <c r="F2">
-        <v>13739.274554231089</v>
+        <v>13739.27455423109</v>
       </c>
       <c r="G2">
-        <v>91.839270338153668</v>
+        <v>91.83927033815367</v>
       </c>
       <c r="H2">
-        <v>0.88644830928120488</v>
+        <v>0.8864483092812049</v>
       </c>
       <c r="I2">
-        <v>8.6984960773859366E-2</v>
+        <v>0.08698496077385937</v>
       </c>
       <c r="J2">
-        <v>5349.5750875923513</v>
+        <v>5349.575087592351</v>
       </c>
       <c r="K2">
         <v>5.219097646431563</v>
@@ -966,7 +939,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -974,40 +947,40 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>0.61133436340000002</v>
+        <v>0.6113343634</v>
       </c>
       <c r="D3" t="s">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>1397.5286058725451</v>
+        <v>1397.528605872545</v>
       </c>
       <c r="F3">
-        <v>4414.7928659513682</v>
+        <v>4414.792865951368</v>
       </c>
       <c r="G3">
         <v>14.31152385322549</v>
       </c>
       <c r="H3">
-        <v>0.41231034237734432</v>
+        <v>0.4123103423773443</v>
       </c>
       <c r="I3">
-        <v>2.7950572117450889E-2</v>
+        <v>0.02795057211745089</v>
       </c>
       <c r="J3">
-        <v>1718.9601852232299</v>
+        <v>1718.96018522323</v>
       </c>
       <c r="K3">
         <v>1.677034327047054</v>
       </c>
       <c r="L3">
-        <v>3.4225190347899052E-2</v>
+        <v>0.03422519034789905</v>
       </c>
       <c r="M3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1015,25 +988,25 @@
         <v>70</v>
       </c>
       <c r="C4">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D4" t="s">
         <v>124</v>
       </c>
       <c r="E4">
-        <v>1577.4263783072649</v>
+        <v>1577.426378307265</v>
       </c>
       <c r="F4">
-        <v>4983.0899290726529</v>
+        <v>4983.089929072653</v>
       </c>
       <c r="G4">
-        <v>21.963572570652779</v>
+        <v>21.96357257065278</v>
       </c>
       <c r="H4">
-        <v>0.39904491738916331</v>
+        <v>0.3990449173891633</v>
       </c>
       <c r="I4">
-        <v>3.1548527566145297E-2</v>
+        <v>0.0315485275661453</v>
       </c>
       <c r="J4">
         <v>1940.234445317936</v>
@@ -1042,13 +1015,13 @@
         <v>1.892911653968719</v>
       </c>
       <c r="L4">
-        <v>3.8630850080994247E-2</v>
+        <v>0.03863085008099425</v>
       </c>
       <c r="M4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1056,40 +1029,40 @@
         <v>71</v>
       </c>
       <c r="C5">
-        <v>0.61396187499999999</v>
+        <v>0.613961875</v>
       </c>
       <c r="D5" t="s">
         <v>125</v>
       </c>
       <c r="E5">
-        <v>4823.4811588953889</v>
+        <v>4823.481158895389</v>
       </c>
       <c r="F5">
         <v>15237.37698095053</v>
       </c>
       <c r="G5">
-        <v>96.609532983537534</v>
+        <v>96.60953298353753</v>
       </c>
       <c r="H5">
-        <v>1.7858336436700211</v>
+        <v>1.785833643670021</v>
       </c>
       <c r="I5">
-        <v>9.6469623177907762E-2</v>
+        <v>0.09646962317790776</v>
       </c>
       <c r="J5">
-        <v>5932.8818254413281</v>
+        <v>5932.881825441328</v>
       </c>
       <c r="K5">
-        <v>5.7881773906744662</v>
+        <v>5.788177390674466</v>
       </c>
       <c r="L5">
-        <v>0.11812606919743809</v>
+        <v>0.1181260691974381</v>
       </c>
       <c r="M5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1097,40 +1070,40 @@
         <v>72</v>
       </c>
       <c r="C6">
-        <v>0.61483771219999994</v>
+        <v>0.6148377121999999</v>
       </c>
       <c r="D6" t="s">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>35.293637005062678</v>
+        <v>35.29363700506268</v>
       </c>
       <c r="F6">
         <v>111.492599298993</v>
       </c>
       <c r="G6">
-        <v>0.53434566425664898</v>
+        <v>0.534345664256649</v>
       </c>
       <c r="H6">
-        <v>1.8352691242632588E-2</v>
+        <v>0.01835269124263259</v>
       </c>
       <c r="I6">
-        <v>7.0587274010125358E-4</v>
+        <v>0.0007058727401012536</v>
       </c>
       <c r="J6">
         <v>43.41117351622708</v>
       </c>
       <c r="K6">
-        <v>4.2352364406075198E-2</v>
+        <v>0.0423523644060752</v>
       </c>
       <c r="L6">
-        <v>8.6433396747092239E-4</v>
+        <v>0.0008643339674709224</v>
       </c>
       <c r="M6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1138,7 +1111,7 @@
         <v>69</v>
       </c>
       <c r="C7">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D7" t="s">
         <v>127</v>
@@ -1150,19 +1123,19 @@
         <v>15997.29823943542</v>
       </c>
       <c r="G7">
-        <v>152.82518691984259</v>
+        <v>152.8251869198426</v>
       </c>
       <c r="H7">
         <v>2.379406920275061</v>
       </c>
       <c r="I7">
-        <v>0.10128077391222171</v>
+        <v>0.1012807739122217</v>
       </c>
       <c r="J7">
-        <v>6228.7675956016355</v>
+        <v>6228.767595601636</v>
       </c>
       <c r="K7">
-        <v>6.0768464347333033</v>
+        <v>6.076846434733303</v>
       </c>
       <c r="L7">
         <v>0.1240172741782307</v>
@@ -1171,7 +1144,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1179,40 +1152,40 @@
         <v>73</v>
       </c>
       <c r="C8">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D8" t="s">
         <v>122</v>
       </c>
       <c r="E8">
-        <v>16519.906580182829</v>
+        <v>16519.90658018283</v>
       </c>
       <c r="F8">
-        <v>52186.384886797547</v>
+        <v>52186.38488679755</v>
       </c>
       <c r="G8">
-        <v>255.80712482705869</v>
+        <v>255.8071248270587</v>
       </c>
       <c r="H8">
-        <v>1.9801840414126619</v>
+        <v>1.980184041412662</v>
       </c>
       <c r="I8">
-        <v>0.33039813160365661</v>
+        <v>0.3303981316036566</v>
       </c>
       <c r="J8">
         <v>20319.48509362488</v>
       </c>
       <c r="K8">
-        <v>19.823887896219389</v>
+        <v>19.82388789621939</v>
       </c>
       <c r="L8">
-        <v>0.40456914073917127</v>
+        <v>0.4045691407391713</v>
       </c>
       <c r="M8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1220,7 +1193,7 @@
         <v>74</v>
       </c>
       <c r="C9">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D9" t="s">
         <v>128</v>
@@ -1229,16 +1202,16 @@
         <v>13642.56712937946</v>
       </c>
       <c r="F9">
-        <v>43096.869561709711</v>
+        <v>43096.86956170971</v>
       </c>
       <c r="G9">
-        <v>329.31542315824652</v>
+        <v>329.3154231582465</v>
       </c>
       <c r="H9">
-        <v>8.6314556960900117E-3</v>
+        <v>0.008631455696090012</v>
       </c>
       <c r="I9">
-        <v>0.27285134258758909</v>
+        <v>0.2728513425875891</v>
       </c>
       <c r="J9">
         <v>16780.35756913674</v>
@@ -1247,13 +1220,13 @@
         <v>16.37108055525535</v>
       </c>
       <c r="L9">
-        <v>0.33410368480112962</v>
+        <v>0.3341036848011296</v>
       </c>
       <c r="M9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1234,7 @@
         <v>72</v>
       </c>
       <c r="C10">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D10" t="s">
         <v>129</v>
@@ -1270,31 +1243,31 @@
         <v>1217.996650526557</v>
       </c>
       <c r="F10">
-        <v>3847.6514190133921</v>
+        <v>3847.651419013392</v>
       </c>
       <c r="G10">
-        <v>12.766096539155679</v>
+        <v>12.76609653915568</v>
       </c>
       <c r="H10">
-        <v>6.0772030226975977E-2</v>
+        <v>0.06077203022697598</v>
       </c>
       <c r="I10">
-        <v>2.4359933010531128E-2</v>
+        <v>0.02435993301053113</v>
       </c>
       <c r="J10">
-        <v>1498.1358801476649</v>
+        <v>1498.135880147665</v>
       </c>
       <c r="K10">
-        <v>1.4615959806318679</v>
+        <v>1.461595980631868</v>
       </c>
       <c r="L10">
-        <v>2.982848940065037E-2</v>
+        <v>0.02982848940065037</v>
       </c>
       <c r="M10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1302,40 +1275,40 @@
         <v>69</v>
       </c>
       <c r="C11">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D11" t="s">
         <v>130</v>
       </c>
       <c r="E11">
-        <v>960.51771204502916</v>
+        <v>960.5177120450292</v>
       </c>
       <c r="F11">
-        <v>3034.2754523502472</v>
+        <v>3034.275452350247</v>
       </c>
       <c r="G11">
-        <v>11.243858571716521</v>
+        <v>11.24385857171652</v>
       </c>
       <c r="H11">
         <v>0.1910871935555381</v>
       </c>
       <c r="I11">
-        <v>1.921035424090058E-2</v>
+        <v>0.01921035424090058</v>
       </c>
       <c r="J11">
         <v>1181.436785815386</v>
       </c>
       <c r="K11">
-        <v>1.1526212544540351</v>
+        <v>1.152621254454035</v>
       </c>
       <c r="L11">
-        <v>2.3522882743959899E-2</v>
+        <v>0.0235228827439599</v>
       </c>
       <c r="M11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1343,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="C12">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D12" t="s">
         <v>125</v>
@@ -1352,31 +1325,31 @@
         <v>1906.881543318927</v>
       </c>
       <c r="F12">
-        <v>6023.8387953444908</v>
+        <v>6023.838795344491</v>
       </c>
       <c r="G12">
-        <v>29.738667567692801</v>
+        <v>29.7386675676928</v>
       </c>
       <c r="H12">
-        <v>0.78486928954290369</v>
+        <v>0.7848692895429037</v>
       </c>
       <c r="I12">
-        <v>3.8137630866378537E-2</v>
+        <v>0.03813763086637854</v>
       </c>
       <c r="J12">
-        <v>2345.4642982822811</v>
+        <v>2345.464298282281</v>
       </c>
       <c r="K12">
         <v>2.288257851982713</v>
       </c>
       <c r="L12">
-        <v>4.6699139836381888E-2</v>
+        <v>0.04669913983638189</v>
       </c>
       <c r="M12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1384,31 +1357,31 @@
         <v>72</v>
       </c>
       <c r="C13">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D13" t="s">
         <v>127</v>
       </c>
       <c r="E13">
-        <v>6929.9640721047408</v>
+        <v>6929.964072104741</v>
       </c>
       <c r="F13">
         <v>21891.75650377887</v>
       </c>
       <c r="G13">
-        <v>182.94798794066469</v>
+        <v>182.9479879406647</v>
       </c>
       <c r="H13">
-        <v>2.8671367892231538</v>
+        <v>2.867136789223154</v>
       </c>
       <c r="I13">
         <v>0.1385992814420948</v>
       </c>
       <c r="J13">
-        <v>8523.8558086888297</v>
+        <v>8523.85580868883</v>
       </c>
       <c r="K13">
-        <v>8.3159568865256865</v>
+        <v>8.315956886525687</v>
       </c>
       <c r="L13">
         <v>0.169713405847463</v>
@@ -1417,7 +1390,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1425,40 +1398,40 @@
         <v>69</v>
       </c>
       <c r="C14">
-        <v>0.60870685179999995</v>
+        <v>0.6087068517999999</v>
       </c>
       <c r="D14" t="s">
         <v>122</v>
       </c>
       <c r="E14">
-        <v>6765.4041305856681</v>
+        <v>6765.404130585668</v>
       </c>
       <c r="F14">
-        <v>21371.911648520119</v>
+        <v>21371.91164852012</v>
       </c>
       <c r="G14">
         <v>140.3410767401061</v>
       </c>
       <c r="H14">
-        <v>1.0602594057301531</v>
+        <v>1.060259405730153</v>
       </c>
       <c r="I14">
-        <v>0.13530808261171329</v>
+        <v>0.1353080826117133</v>
       </c>
       <c r="J14">
-        <v>8321.4470806203717</v>
+        <v>8321.447080620372</v>
       </c>
       <c r="K14">
         <v>8.118484956702801</v>
       </c>
       <c r="L14">
-        <v>0.16568336646332249</v>
+        <v>0.1656833664633225</v>
       </c>
       <c r="M14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1466,7 +1439,7 @@
         <v>69</v>
       </c>
       <c r="C15">
-        <v>0.60870685179999995</v>
+        <v>0.6087068517999999</v>
       </c>
       <c r="D15" t="s">
         <v>131</v>
@@ -1481,25 +1454,25 @@
         <v>42.71206403493111</v>
       </c>
       <c r="H15">
-        <v>0.46875304214016122</v>
+        <v>0.4687530421401612</v>
       </c>
       <c r="I15">
-        <v>6.9540063649423833E-2</v>
+        <v>0.06954006364942383</v>
       </c>
       <c r="J15">
-        <v>4276.7139144395633</v>
+        <v>4276.713914439563</v>
       </c>
       <c r="K15">
-        <v>4.1724038189654271</v>
+        <v>4.172403818965427</v>
       </c>
       <c r="L15">
-        <v>8.5151098346233231E-2</v>
+        <v>0.08515109834623323</v>
       </c>
       <c r="M15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1507,40 +1480,40 @@
         <v>75</v>
       </c>
       <c r="C16">
-        <v>0.60695517739999993</v>
+        <v>0.6069551773999999</v>
       </c>
       <c r="D16" t="s">
         <v>132</v>
       </c>
       <c r="E16">
-        <v>8072.9574528523954</v>
+        <v>8072.957452852395</v>
       </c>
       <c r="F16">
         <v>25502.47259356072</v>
       </c>
       <c r="G16">
-        <v>188.36023445055639</v>
+        <v>188.3602344505564</v>
       </c>
       <c r="H16">
-        <v>0.66721566811613875</v>
+        <v>0.6672156681161387</v>
       </c>
       <c r="I16">
-        <v>0.16145914905704789</v>
+        <v>0.1614591490570479</v>
       </c>
       <c r="J16">
-        <v>9929.7376670084468</v>
+        <v>9929.737667008447</v>
       </c>
       <c r="K16">
-        <v>9.6875489434228754</v>
+        <v>9.687548943422875</v>
       </c>
       <c r="L16">
-        <v>0.19770508047801791</v>
+        <v>0.1977050804780179</v>
       </c>
       <c r="M16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1548,16 +1521,16 @@
         <v>72</v>
       </c>
       <c r="C17">
-        <v>0.62150537635483871</v>
+        <v>0.6215053763548387</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
       </c>
       <c r="E17">
-        <v>5728.4723356932273</v>
+        <v>5728.472335693227</v>
       </c>
       <c r="F17">
-        <v>18096.244108454899</v>
+        <v>18096.2441084549</v>
       </c>
       <c r="G17">
         <v>105.4781276811603</v>
@@ -1569,19 +1542,19 @@
         <v>0.1145694467138645</v>
       </c>
       <c r="J17">
-        <v>7046.0209729026683</v>
+        <v>7046.020972902668</v>
       </c>
       <c r="K17">
-        <v>6.8741668028318701</v>
+        <v>6.87416680283187</v>
       </c>
       <c r="L17">
-        <v>0.14028911842514019</v>
+        <v>0.1402891184251402</v>
       </c>
       <c r="M17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1589,7 +1562,7 @@
         <v>76</v>
       </c>
       <c r="C18">
-        <v>0.60695517739999993</v>
+        <v>0.6069551773999999</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
@@ -1598,31 +1571,31 @@
         <v>458.8869786188049</v>
       </c>
       <c r="F18">
-        <v>1449.6239654568039</v>
+        <v>1449.623965456804</v>
       </c>
       <c r="G18">
         <v>6.947548856288706</v>
       </c>
       <c r="H18">
-        <v>0.23862122888177861</v>
+        <v>0.2386212288817786</v>
       </c>
       <c r="I18">
-        <v>9.1777395723760969E-3</v>
+        <v>0.009177739572376097</v>
       </c>
       <c r="J18">
         <v>564.43098370113</v>
       </c>
       <c r="K18">
-        <v>0.55066437434256588</v>
+        <v>0.5506643743425659</v>
       </c>
       <c r="L18">
-        <v>1.123804845597073E-2</v>
+        <v>0.01123804845597073</v>
       </c>
       <c r="M18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1630,31 +1603,31 @@
         <v>71</v>
       </c>
       <c r="C19">
-        <v>0.61913213983870963</v>
+        <v>0.6191321398387096</v>
       </c>
       <c r="D19" t="s">
         <v>134</v>
       </c>
       <c r="E19">
-        <v>21300.934756693208</v>
+        <v>21300.93475669321</v>
       </c>
       <c r="F19">
-        <v>67289.652896393862</v>
+        <v>67289.65289639386</v>
       </c>
       <c r="G19">
-        <v>322.49615221633519</v>
+        <v>322.4961522163352</v>
       </c>
       <c r="H19">
-        <v>11.076486073480471</v>
+        <v>11.07648607348047</v>
       </c>
       <c r="I19">
-        <v>0.42601869513386409</v>
+        <v>0.4260186951338641</v>
       </c>
       <c r="J19">
-        <v>26200.149750732649</v>
+        <v>26200.14975073265</v>
       </c>
       <c r="K19">
-        <v>25.561121708031859</v>
+        <v>25.56112170803186</v>
       </c>
       <c r="L19">
         <v>0.5216555450618745</v>
@@ -1663,7 +1636,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1671,7 +1644,7 @@
         <v>74</v>
       </c>
       <c r="C20">
-        <v>0.78966953699999998</v>
+        <v>0.789669537</v>
       </c>
       <c r="D20" t="s">
         <v>124</v>
@@ -1680,31 +1653,31 @@
         <v>5812.11048652724</v>
       </c>
       <c r="F20">
-        <v>18360.457026939552</v>
+        <v>18360.45702693955</v>
       </c>
       <c r="G20">
-        <v>69.073854214992622</v>
+        <v>69.07385421499262</v>
       </c>
       <c r="H20">
-        <v>0.66220315564688614</v>
+        <v>0.6622031556468861</v>
       </c>
       <c r="I20">
         <v>0.1162422097305448</v>
       </c>
       <c r="J20">
-        <v>7148.8958984285046</v>
+        <v>7148.895898428505</v>
       </c>
       <c r="K20">
         <v>6.974532583832687</v>
       </c>
       <c r="L20">
-        <v>0.14233739967005479</v>
+        <v>0.1423373996700548</v>
       </c>
       <c r="M20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1712,25 +1685,25 @@
         <v>77</v>
       </c>
       <c r="C21">
-        <v>0.62170314606451615</v>
+        <v>0.6217031460645162</v>
       </c>
       <c r="D21" t="s">
         <v>135</v>
       </c>
       <c r="E21">
-        <v>1058.0330771932749</v>
+        <v>1058.033077193275</v>
       </c>
       <c r="F21">
-        <v>3342.3264908535548</v>
+        <v>3342.326490853555</v>
       </c>
       <c r="G21">
-        <v>8.5957842741484622</v>
+        <v>8.595784274148462</v>
       </c>
       <c r="H21">
-        <v>0.27047082332121958</v>
+        <v>0.2704708233212196</v>
       </c>
       <c r="I21">
-        <v>2.1160661543865499E-2</v>
+        <v>0.0211606615438655</v>
       </c>
       <c r="J21">
         <v>1301.380684947728</v>
@@ -1739,13 +1712,13 @@
         <v>1.26963969263193</v>
       </c>
       <c r="L21">
-        <v>2.5911014135345509E-2</v>
+        <v>0.02591101413534551</v>
       </c>
       <c r="M21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1753,7 +1726,7 @@
         <v>78</v>
       </c>
       <c r="C22">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D22" t="s">
         <v>136</v>
@@ -1762,31 +1735,31 @@
         <v>298.859516483682</v>
       </c>
       <c r="F22">
-        <v>944.09721257195133</v>
+        <v>944.0972125719513</v>
       </c>
       <c r="G22">
         <v>4.524733079562945</v>
       </c>
       <c r="H22">
-        <v>0.15540694857151471</v>
+        <v>0.1554069485715147</v>
       </c>
       <c r="I22">
-        <v>5.9771903296736394E-3</v>
+        <v>0.005977190329673639</v>
       </c>
       <c r="J22">
-        <v>367.59720527492868</v>
+        <v>367.5972052749287</v>
       </c>
       <c r="K22">
-        <v>0.35863141978041829</v>
+        <v>0.3586314197804183</v>
       </c>
       <c r="L22">
-        <v>7.319008566947313E-3</v>
+        <v>0.007319008566947313</v>
       </c>
       <c r="M22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1794,31 +1767,31 @@
         <v>72</v>
       </c>
       <c r="C23">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D23" t="s">
         <v>128</v>
       </c>
       <c r="E23">
-        <v>5880.8875214130312</v>
+        <v>5880.887521413031</v>
       </c>
       <c r="F23">
-        <v>18577.723680143768</v>
+        <v>18577.72368014377</v>
       </c>
       <c r="G23">
         <v>106.4337130814273</v>
       </c>
       <c r="H23">
-        <v>0.50743712186880052</v>
+        <v>0.5074371218688005</v>
       </c>
       <c r="I23">
         <v>0.1176177504282606</v>
       </c>
       <c r="J23">
-        <v>7233.4916513380294</v>
+        <v>7233.491651338029</v>
       </c>
       <c r="K23">
-        <v>7.0570650256956382</v>
+        <v>7.057065025695638</v>
       </c>
       <c r="L23">
         <v>0.1440217352182783</v>
@@ -1827,7 +1800,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1835,13 +1808,13 @@
         <v>73</v>
       </c>
       <c r="C24">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D24" t="s">
         <v>137</v>
       </c>
       <c r="E24">
-        <v>4753.6805719119466</v>
+        <v>4753.680571911947</v>
       </c>
       <c r="F24">
         <v>15016.87692666984</v>
@@ -1850,25 +1823,25 @@
         <v>56.38102296907266</v>
       </c>
       <c r="H24">
-        <v>0.56114752872313967</v>
+        <v>0.5611475287231397</v>
       </c>
       <c r="I24">
-        <v>9.507361143823892E-2</v>
+        <v>0.09507361143823892</v>
       </c>
       <c r="J24">
-        <v>5847.0271034516936</v>
+        <v>5847.027103451694</v>
       </c>
       <c r="K24">
-        <v>5.7044166862943344</v>
+        <v>5.704416686294334</v>
       </c>
       <c r="L24">
-        <v>0.11641666706723131</v>
+        <v>0.1164166670672313</v>
       </c>
       <c r="M24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1876,40 +1849,40 @@
         <v>79</v>
       </c>
       <c r="C25">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D25" t="s">
         <v>123</v>
       </c>
       <c r="E25">
-        <v>2938.8368094932421</v>
+        <v>2938.836809493242</v>
       </c>
       <c r="F25">
-        <v>9283.7854811891502</v>
+        <v>9283.78548118915</v>
       </c>
       <c r="G25">
-        <v>33.082354108964509</v>
+        <v>33.08235410896451</v>
       </c>
       <c r="H25">
-        <v>0.98638470344935936</v>
+        <v>0.9863847034493594</v>
       </c>
       <c r="I25">
-        <v>5.8776736189864828E-2</v>
+        <v>0.05877673618986483</v>
       </c>
       <c r="J25">
-        <v>3614.7692756766869</v>
+        <v>3614.769275676687</v>
       </c>
       <c r="K25">
-        <v>3.5266041713918899</v>
+        <v>3.52660417139189</v>
       </c>
       <c r="L25">
-        <v>7.1971513701875309E-2</v>
+        <v>0.07197151370187531</v>
       </c>
       <c r="M25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1917,40 +1890,40 @@
         <v>80</v>
       </c>
       <c r="C26">
-        <v>0.65409440251612905</v>
+        <v>0.654094402516129</v>
       </c>
       <c r="D26" t="s">
         <v>122</v>
       </c>
       <c r="E26">
-        <v>16032.845976270621</v>
+        <v>16032.84597627062</v>
       </c>
       <c r="F26">
-        <v>50647.760439038902</v>
+        <v>50647.7604390389</v>
       </c>
       <c r="G26">
         <v>238.3978566226788</v>
       </c>
       <c r="H26">
-        <v>1.6548679586428821</v>
+        <v>1.654867958642882</v>
       </c>
       <c r="I26">
-        <v>0.32065691952541248</v>
+        <v>0.3206569195254125</v>
       </c>
       <c r="J26">
-        <v>19720.400550812868</v>
+        <v>19720.40055081287</v>
       </c>
       <c r="K26">
-        <v>19.239415171524751</v>
+        <v>19.23941517152475</v>
       </c>
       <c r="L26">
-        <v>0.39264112594948458</v>
+        <v>0.3926411259494846</v>
       </c>
       <c r="M26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1958,19 +1931,19 @@
         <v>73</v>
       </c>
       <c r="C27">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D27" t="s">
         <v>138</v>
       </c>
       <c r="E27">
-        <v>16023.698245099051</v>
+        <v>16023.69824509905</v>
       </c>
       <c r="F27">
         <v>50618.86275626791</v>
       </c>
       <c r="G27">
-        <v>225.71481711197609</v>
+        <v>225.7148171119761</v>
       </c>
       <c r="H27">
         <v>2.035355361169084</v>
@@ -1979,19 +1952,19 @@
         <v>0.3204739649019811</v>
       </c>
       <c r="J27">
-        <v>19709.148841471841</v>
+        <v>19709.14884147184</v>
       </c>
       <c r="K27">
-        <v>19.228437894118859</v>
+        <v>19.22843789411886</v>
       </c>
       <c r="L27">
-        <v>0.39241709987997681</v>
+        <v>0.3924170998799768</v>
       </c>
       <c r="M27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1999,7 +1972,7 @@
         <v>73</v>
       </c>
       <c r="C28">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D28" t="s">
         <v>139</v>
@@ -2011,28 +1984,28 @@
         <v>11870.2019985758</v>
       </c>
       <c r="G28">
-        <v>63.542975657339348</v>
+        <v>63.54297565733935</v>
       </c>
       <c r="H28">
-        <v>0.45472320894259788</v>
+        <v>0.4547232089425979</v>
       </c>
       <c r="I28">
-        <v>7.5151642915959466E-2</v>
+        <v>0.07515164291595947</v>
       </c>
       <c r="J28">
-        <v>4621.8260393315077</v>
+        <v>4621.826039331508</v>
       </c>
       <c r="K28">
-        <v>4.5090985749575676</v>
+        <v>4.509098574957568</v>
       </c>
       <c r="L28">
-        <v>9.2022419897093227E-2</v>
+        <v>0.09202241989709323</v>
       </c>
       <c r="M28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2040,40 +2013,40 @@
         <v>73</v>
       </c>
       <c r="C29">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D29" t="s">
         <v>140</v>
       </c>
       <c r="E29">
-        <v>1793.0857874206099</v>
+        <v>1793.08578742061</v>
       </c>
       <c r="F29">
-        <v>5664.3580024617077</v>
+        <v>5664.358002461708</v>
       </c>
       <c r="G29">
-        <v>24.603864530373318</v>
+        <v>24.60386453037332</v>
       </c>
       <c r="H29">
-        <v>0.40076856173384467</v>
+        <v>0.4007685617338447</v>
       </c>
       <c r="I29">
-        <v>3.586171574841221E-2</v>
+        <v>0.03586171574841221</v>
       </c>
       <c r="J29">
-        <v>2205.4955185273511</v>
+        <v>2205.495518527351</v>
       </c>
       <c r="K29">
         <v>2.151702944904732</v>
       </c>
       <c r="L29">
-        <v>4.3912304998055762E-2</v>
+        <v>0.04391230499805576</v>
       </c>
       <c r="M29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2081,13 +2054,13 @@
         <v>74</v>
       </c>
       <c r="C30">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D30" t="s">
         <v>124</v>
       </c>
       <c r="E30">
-        <v>3274.2881303452491</v>
+        <v>3274.288130345249</v>
       </c>
       <c r="F30">
         <v>10343.47620376064</v>
@@ -2096,10 +2069,10 @@
         <v>40.70305128716938</v>
       </c>
       <c r="H30">
-        <v>0.53820045598096988</v>
+        <v>0.5382004559809699</v>
       </c>
       <c r="I30">
-        <v>6.5485762606904988E-2</v>
+        <v>0.06548576260690499</v>
       </c>
       <c r="J30">
         <v>4027.374400324657</v>
@@ -2108,13 +2081,13 @@
         <v>3.929145756414298</v>
       </c>
       <c r="L30">
-        <v>8.0186648090087742E-2</v>
+        <v>0.08018664809008774</v>
       </c>
       <c r="M30" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2122,40 +2095,40 @@
         <v>73</v>
       </c>
       <c r="C31">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D31" t="s">
         <v>131</v>
       </c>
       <c r="E31">
-        <v>6289.5794738684854</v>
+        <v>6289.579473868485</v>
       </c>
       <c r="F31">
-        <v>19868.781557950551</v>
+        <v>19868.78155795055</v>
       </c>
       <c r="G31">
-        <v>75.746965211511551</v>
+        <v>75.74696521151155</v>
       </c>
       <c r="H31">
-        <v>0.76989597734576931</v>
+        <v>0.7698959773457693</v>
       </c>
       <c r="I31">
-        <v>0.12579158947736971</v>
+        <v>0.1257915894773697</v>
       </c>
       <c r="J31">
-        <v>7736.1827528582398</v>
+        <v>7736.18275285824</v>
       </c>
       <c r="K31">
-        <v>7.5474953686421813</v>
+        <v>7.547495368642181</v>
       </c>
       <c r="L31">
-        <v>0.15403051772739151</v>
+        <v>0.1540305177273915</v>
       </c>
       <c r="M31" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2163,7 +2136,7 @@
         <v>73</v>
       </c>
       <c r="C32">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D32" t="s">
         <v>131</v>
@@ -2172,22 +2145,22 @@
         <v>5446.620039232379</v>
       </c>
       <c r="F32">
-        <v>17205.872703935082</v>
+        <v>17205.87270393508</v>
       </c>
       <c r="G32">
-        <v>65.490565094279987</v>
+        <v>65.49056509427999</v>
       </c>
       <c r="H32">
-        <v>0.69385127280866565</v>
+        <v>0.6938512728086657</v>
       </c>
       <c r="I32">
         <v>0.1089324007846476</v>
       </c>
       <c r="J32">
-        <v>6699.3426482558252</v>
+        <v>6699.342648255825</v>
       </c>
       <c r="K32">
-        <v>6.5359440470788526</v>
+        <v>6.535944047078853</v>
       </c>
       <c r="L32">
         <v>0.1333866132056909</v>
@@ -2196,7 +2169,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2204,7 +2177,7 @@
         <v>81</v>
       </c>
       <c r="C33">
-        <v>0.69978361703333336</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="D33" t="s">
         <v>141</v>
@@ -2216,19 +2189,19 @@
         <v>19605.60856402287</v>
       </c>
       <c r="G33">
-        <v>64.950578598861213</v>
+        <v>64.95057859886121</v>
       </c>
       <c r="H33">
-        <v>0.25443939023466078</v>
+        <v>0.2544393902346608</v>
       </c>
       <c r="I33">
         <v>0.1241254103451907</v>
       </c>
       <c r="J33">
-        <v>7633.7127362292294</v>
+        <v>7633.712736229229</v>
       </c>
       <c r="K33">
-        <v>7.4475246207114427</v>
+        <v>7.447524620711443</v>
       </c>
       <c r="L33">
         <v>0.1519902983818662</v>
@@ -2237,7 +2210,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2245,25 +2218,25 @@
         <v>82</v>
       </c>
       <c r="C34">
-        <v>0.66130762266666665</v>
+        <v>0.6613076226666667</v>
       </c>
       <c r="D34" t="s">
         <v>142</v>
       </c>
       <c r="E34">
-        <v>3010.2454211488021</v>
+        <v>3010.245421148802</v>
       </c>
       <c r="F34">
-        <v>9509.3652854090633</v>
+        <v>9509.365285409063</v>
       </c>
       <c r="G34">
-        <v>44.994399005343602</v>
+        <v>44.9943990053436</v>
       </c>
       <c r="H34">
-        <v>0.16523218018084479</v>
+        <v>0.1652321801808448</v>
       </c>
       <c r="I34">
-        <v>6.0204908422976038E-2</v>
+        <v>0.06020490842297604</v>
       </c>
       <c r="J34">
         <v>3702.601868013026</v>
@@ -2272,13 +2245,13 @@
         <v>3.612294505378562</v>
       </c>
       <c r="L34">
-        <v>7.372029602813393E-2</v>
+        <v>0.07372029602813393</v>
       </c>
       <c r="M34" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2286,40 +2259,40 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D35" t="s">
         <v>139</v>
       </c>
       <c r="E35">
-        <v>7222.5279998419246</v>
+        <v>7222.527999841925</v>
       </c>
       <c r="F35">
-        <v>22815.965951500639</v>
+        <v>22815.96595150064</v>
       </c>
       <c r="G35">
         <v>119.9580321375346</v>
       </c>
       <c r="H35">
-        <v>0.68242689093521935</v>
+        <v>0.6824268909352194</v>
       </c>
       <c r="I35">
-        <v>0.14445055999683851</v>
+        <v>0.1444505599968385</v>
       </c>
       <c r="J35">
-        <v>8883.7094398055669</v>
+        <v>8883.709439805567</v>
       </c>
       <c r="K35">
-        <v>8.6670335998103099</v>
+        <v>8.66703359981031</v>
       </c>
       <c r="L35">
-        <v>0.17687823673082259</v>
+        <v>0.1768782367308226</v>
       </c>
       <c r="M35" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2327,40 +2300,40 @@
         <v>73</v>
       </c>
       <c r="C36">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D36" t="s">
         <v>143</v>
       </c>
       <c r="E36">
-        <v>1350.5221768320091</v>
+        <v>1350.522176832009</v>
       </c>
       <c r="F36">
-        <v>4266.2995566123172</v>
+        <v>4266.299556612317</v>
       </c>
       <c r="G36">
-        <v>15.990608017115431</v>
+        <v>15.99060801711543</v>
       </c>
       <c r="H36">
-        <v>0.47329054014327893</v>
+        <v>0.4732905401432789</v>
       </c>
       <c r="I36">
-        <v>2.70104435366402E-2</v>
+        <v>0.0270104435366402</v>
       </c>
       <c r="J36">
         <v>1661.142277503372</v>
       </c>
       <c r="K36">
-        <v>1.6206266121984121</v>
+        <v>1.620626612198412</v>
       </c>
       <c r="L36">
-        <v>3.3074012493845138E-2</v>
+        <v>0.03307401249384514</v>
       </c>
       <c r="M36" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2374,19 +2347,19 @@
         <v>144</v>
       </c>
       <c r="E37">
-        <v>1609.1022253199051</v>
+        <v>1609.102225319905</v>
       </c>
       <c r="F37">
-        <v>5083.1539297855797</v>
+        <v>5083.15392978558</v>
       </c>
       <c r="G37">
         <v>16.85972482336987</v>
       </c>
       <c r="H37">
-        <v>6.9714205714492175E-2</v>
+        <v>0.06971420571449218</v>
       </c>
       <c r="I37">
-        <v>3.218204450639809E-2</v>
+        <v>0.03218204450639809</v>
       </c>
       <c r="J37">
         <v>1979.195737143483</v>
@@ -2395,13 +2368,13 @@
         <v>1.930922670383886</v>
       </c>
       <c r="L37">
-        <v>3.9406585109875221E-2</v>
+        <v>0.03940658510987522</v>
       </c>
       <c r="M37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2409,7 +2382,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D38" t="s">
         <v>137</v>
@@ -2421,28 +2394,28 @@
         <v>11953.11237005626</v>
       </c>
       <c r="G38">
-        <v>46.174658307343137</v>
+        <v>46.17465830734314</v>
       </c>
       <c r="H38">
-        <v>0.52009131978605838</v>
+        <v>0.5200913197860584</v>
       </c>
       <c r="I38">
-        <v>7.5676558214981038E-2</v>
+        <v>0.07567655821498104</v>
       </c>
       <c r="J38">
-        <v>4654.1083302213337</v>
+        <v>4654.108330221334</v>
       </c>
       <c r="K38">
-        <v>4.5405934928988616</v>
+        <v>4.540593492898862</v>
       </c>
       <c r="L38">
-        <v>9.2665173324466582E-2</v>
+        <v>0.09266517332446658</v>
       </c>
       <c r="M38" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2450,19 +2423,19 @@
         <v>84</v>
       </c>
       <c r="C39">
-        <v>0.65055715000000003</v>
+        <v>0.65055715</v>
       </c>
       <c r="D39" t="s">
         <v>124</v>
       </c>
       <c r="E39">
-        <v>6333.5295859057951</v>
+        <v>6333.529585905795</v>
       </c>
       <c r="F39">
-        <v>20007.619961876411</v>
+        <v>20007.61996187641</v>
       </c>
       <c r="G39">
-        <v>82.139614300741911</v>
+        <v>82.13961430074191</v>
       </c>
       <c r="H39">
         <v>0.4172119632380501</v>
@@ -2471,10 +2444,10 @@
         <v>0.1266705917181159</v>
       </c>
       <c r="J39">
-        <v>7790.2413906641277</v>
+        <v>7790.241390664128</v>
       </c>
       <c r="K39">
-        <v>7.6002355030869548</v>
+        <v>7.600235503086955</v>
       </c>
       <c r="L39">
         <v>0.1551068470017746</v>
@@ -2483,7 +2456,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2491,40 +2464,40 @@
         <v>73</v>
       </c>
       <c r="C40">
-        <v>0.78853168466666668</v>
+        <v>0.7885316846666667</v>
       </c>
       <c r="D40" t="s">
         <v>137</v>
       </c>
       <c r="E40">
-        <v>6185.4316121565053</v>
+        <v>6185.431612156505</v>
       </c>
       <c r="F40">
-        <v>19539.778462802398</v>
+        <v>19539.7784628024</v>
       </c>
       <c r="G40">
-        <v>66.000656924303811</v>
+        <v>66.00065692430381</v>
       </c>
       <c r="H40">
-        <v>0.82557030171491241</v>
+        <v>0.8255703017149124</v>
       </c>
       <c r="I40">
         <v>0.1237086322431301</v>
       </c>
       <c r="J40">
-        <v>7608.0808829525013</v>
+        <v>7608.080882952501</v>
       </c>
       <c r="K40">
-        <v>7.4225179345878072</v>
+        <v>7.422517934587807</v>
       </c>
       <c r="L40">
-        <v>0.15147995784873081</v>
+        <v>0.1514799578487308</v>
       </c>
       <c r="M40" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2532,40 +2505,40 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D41" t="s">
         <v>124</v>
       </c>
       <c r="E41">
-        <v>1101.5573117624911</v>
+        <v>1101.557311762491</v>
       </c>
       <c r="F41">
-        <v>3479.8195478577072</v>
+        <v>3479.819547857707</v>
       </c>
       <c r="G41">
-        <v>15.883793333143791</v>
+        <v>15.88379333314379</v>
       </c>
       <c r="H41">
-        <v>0.26915307240177638</v>
+        <v>0.2691530724017764</v>
       </c>
       <c r="I41">
-        <v>2.2031146235249811E-2</v>
+        <v>0.02203114623524981</v>
       </c>
       <c r="J41">
-        <v>1354.9154934678641</v>
+        <v>1354.915493467864</v>
       </c>
       <c r="K41">
         <v>1.321868774114989</v>
       </c>
       <c r="L41">
-        <v>2.6976913757448751E-2</v>
+        <v>0.02697691375744875</v>
       </c>
       <c r="M41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2573,7 +2546,7 @@
         <v>73</v>
       </c>
       <c r="C42">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D42" t="s">
         <v>138</v>
@@ -2582,31 +2555,31 @@
         <v>10612.5307457616</v>
       </c>
       <c r="F42">
-        <v>33524.984625860903</v>
+        <v>33524.9846258609</v>
       </c>
       <c r="G42">
-        <v>150.12529349247879</v>
+        <v>150.1252934924788</v>
       </c>
       <c r="H42">
         <v>1.894319487710745</v>
       </c>
       <c r="I42">
-        <v>0.21225061491523201</v>
+        <v>0.212250614915232</v>
       </c>
       <c r="J42">
-        <v>13053.412817286769</v>
+        <v>13053.41281728677</v>
       </c>
       <c r="K42">
         <v>12.73503689491392</v>
       </c>
       <c r="L42">
-        <v>0.25989871214110039</v>
+        <v>0.2598987121411004</v>
       </c>
       <c r="M42" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2614,40 +2587,40 @@
         <v>73</v>
       </c>
       <c r="C43">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D43" t="s">
         <v>128</v>
       </c>
       <c r="E43">
-        <v>7518.9016341383158</v>
+        <v>7518.901634138316</v>
       </c>
       <c r="F43">
         <v>23752.21026224293</v>
       </c>
       <c r="G43">
-        <v>134.98591555534341</v>
+        <v>134.9859155553434</v>
       </c>
       <c r="H43">
-        <v>0.51758138075615312</v>
+        <v>0.5175813807561531</v>
       </c>
       <c r="I43">
-        <v>0.15037803268276631</v>
+        <v>0.1503780326827663</v>
       </c>
       <c r="J43">
-        <v>9248.2490099901279</v>
+        <v>9248.249009990128</v>
       </c>
       <c r="K43">
-        <v>9.0226819609659774</v>
+        <v>9.022681960965977</v>
       </c>
       <c r="L43">
-        <v>0.18413636655032611</v>
+        <v>0.1841363665503261</v>
       </c>
       <c r="M43" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2655,31 +2628,31 @@
         <v>73</v>
       </c>
       <c r="C44">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D44" t="s">
         <v>145</v>
       </c>
       <c r="E44">
-        <v>6074.8662824847715</v>
+        <v>6074.866282484772</v>
       </c>
       <c r="F44">
-        <v>19190.502586369399</v>
+        <v>19190.5025863694</v>
       </c>
       <c r="G44">
         <v>106.9668194713925</v>
       </c>
       <c r="H44">
-        <v>5.5838612229207332</v>
+        <v>5.583861222920733</v>
       </c>
       <c r="I44">
         <v>0.1214973256496954</v>
       </c>
       <c r="J44">
-        <v>7472.0855274562709</v>
+        <v>7472.085527456271</v>
       </c>
       <c r="K44">
-        <v>7.2898395389817274</v>
+        <v>7.289839538981727</v>
       </c>
       <c r="L44">
         <v>0.148772235489423</v>
@@ -2688,7 +2661,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2705,31 +2678,31 @@
         <v>1886.335729614525</v>
       </c>
       <c r="F45">
-        <v>5958.9345698522848</v>
+        <v>5958.934569852285</v>
       </c>
       <c r="G45">
-        <v>26.383330939359951</v>
+        <v>26.38333093935995</v>
       </c>
       <c r="H45">
-        <v>0.42305859231821602</v>
+        <v>0.423058592318216</v>
       </c>
       <c r="I45">
-        <v>3.7726714592290503E-2</v>
+        <v>0.0377267145922905</v>
       </c>
       <c r="J45">
-        <v>2320.1929474258659</v>
+        <v>2320.192947425866</v>
       </c>
       <c r="K45">
-        <v>2.2636028755374298</v>
+        <v>2.26360287553743</v>
       </c>
       <c r="L45">
-        <v>4.6195977051784291E-2</v>
+        <v>0.04619597705178429</v>
       </c>
       <c r="M45" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2737,40 +2710,40 @@
         <v>73</v>
       </c>
       <c r="C46">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
       </c>
       <c r="E46">
-        <v>6833.2080763356826</v>
+        <v>6833.208076335683</v>
       </c>
       <c r="F46">
         <v>21586.10431314442</v>
       </c>
       <c r="G46">
-        <v>80.580341856515446</v>
+        <v>80.58034185651545</v>
       </c>
       <c r="H46">
-        <v>0.81909912681895569</v>
+        <v>0.8190991268189557</v>
       </c>
       <c r="I46">
-        <v>0.13666416152671371</v>
+        <v>0.1366641615267137</v>
       </c>
       <c r="J46">
-        <v>8404.8459338928897</v>
+        <v>8404.84593389289</v>
       </c>
       <c r="K46">
-        <v>8.1998496916028198</v>
+        <v>8.19984969160282</v>
       </c>
       <c r="L46">
-        <v>0.16734387125720041</v>
+        <v>0.1673438712572004</v>
       </c>
       <c r="M46" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2778,40 +2751,40 @@
         <v>73</v>
       </c>
       <c r="C47">
-        <v>0.78853168466666668</v>
+        <v>0.7885316846666667</v>
       </c>
       <c r="D47" t="s">
         <v>139</v>
       </c>
       <c r="E47">
-        <v>6963.5663915720024</v>
+        <v>6963.566391572002</v>
       </c>
       <c r="F47">
         <v>21997.90623097595</v>
       </c>
       <c r="G47">
-        <v>112.93763007090961</v>
+        <v>112.9376300709096</v>
       </c>
       <c r="H47">
-        <v>0.65378487173147914</v>
+        <v>0.6537848717314791</v>
       </c>
       <c r="I47">
         <v>0.13927132783144</v>
       </c>
       <c r="J47">
-        <v>8565.1866616335628</v>
+        <v>8565.186661633563</v>
       </c>
       <c r="K47">
-        <v>8.3562796698864013</v>
+        <v>8.356279669886401</v>
       </c>
       <c r="L47">
-        <v>0.17053631979360001</v>
+        <v>0.1705363197936</v>
       </c>
       <c r="M47" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2819,13 +2792,13 @@
         <v>87</v>
       </c>
       <c r="C48">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D48" t="s">
         <v>146</v>
       </c>
       <c r="E48">
-        <v>1241.8125901559731</v>
+        <v>1241.812590155973</v>
       </c>
       <c r="F48">
         <v>3922.885972302719</v>
@@ -2834,25 +2807,25 @@
         <v>24.25144729519003</v>
       </c>
       <c r="H48">
-        <v>1.8753456411715792E-2</v>
+        <v>0.01875345641171579</v>
       </c>
       <c r="I48">
-        <v>2.483625180311946E-2</v>
+        <v>0.02483625180311946</v>
       </c>
       <c r="J48">
         <v>1527.429485891847</v>
       </c>
       <c r="K48">
-        <v>1.4901751081871679</v>
+        <v>1.490175108187168</v>
       </c>
       <c r="L48">
-        <v>3.0411736901778941E-2</v>
+        <v>0.03041173690177894</v>
       </c>
       <c r="M48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2860,40 +2833,40 @@
         <v>69</v>
       </c>
       <c r="C49">
-        <v>0.62130760664516127</v>
+        <v>0.6213076066451613</v>
       </c>
       <c r="D49" t="s">
         <v>147</v>
       </c>
       <c r="E49">
-        <v>3154.3756941989041</v>
+        <v>3154.375694198904</v>
       </c>
       <c r="F49">
         <v>9964.672817974335</v>
       </c>
       <c r="G49">
-        <v>86.713246794925439</v>
+        <v>86.71324679492544</v>
       </c>
       <c r="H49">
         <v>0.2401316066721233</v>
       </c>
       <c r="I49">
-        <v>6.3087513883978055E-2</v>
+        <v>0.06308751388397806</v>
       </c>
       <c r="J49">
-        <v>3879.8821038646511</v>
+        <v>3879.882103864651</v>
       </c>
       <c r="K49">
-        <v>3.7852508330386838</v>
+        <v>3.785250833038684</v>
       </c>
       <c r="L49">
-        <v>7.725001700078947E-2</v>
+        <v>0.07725001700078947</v>
       </c>
       <c r="M49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2901,31 +2874,31 @@
         <v>74</v>
       </c>
       <c r="C50">
-        <v>0.78966953699999998</v>
+        <v>0.789669537</v>
       </c>
       <c r="D50" t="s">
         <v>148</v>
       </c>
       <c r="E50">
-        <v>6107.5942667164836</v>
+        <v>6107.594266716484</v>
       </c>
       <c r="F50">
         <v>19293.89028855737</v>
       </c>
       <c r="G50">
-        <v>85.220303678677794</v>
+        <v>85.22030367867779</v>
       </c>
       <c r="H50">
-        <v>0.64168242382483465</v>
+        <v>0.6416824238248346</v>
       </c>
       <c r="I50">
         <v>0.1221518853343297</v>
       </c>
       <c r="J50">
-        <v>7512.3409480612754</v>
+        <v>7512.340948061275</v>
       </c>
       <c r="K50">
-        <v>7.3291131200597794</v>
+        <v>7.329113120059779</v>
       </c>
       <c r="L50">
         <v>0.1495737371440771</v>
@@ -2934,7 +2907,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2942,40 +2915,40 @@
         <v>88</v>
       </c>
       <c r="C51">
-        <v>0.71541905587096777</v>
+        <v>0.7154190558709678</v>
       </c>
       <c r="D51" t="s">
         <v>137</v>
       </c>
       <c r="E51">
-        <v>1408.5612338179899</v>
+        <v>1408.56123381799</v>
       </c>
       <c r="F51">
-        <v>4449.6449376310293</v>
+        <v>4449.644937631029</v>
       </c>
       <c r="G51">
-        <v>19.979464476846761</v>
+        <v>19.97946447684676</v>
       </c>
       <c r="H51">
-        <v>0.37507609641465978</v>
+        <v>0.3750760964146598</v>
       </c>
       <c r="I51">
-        <v>2.8171224676359789E-2</v>
+        <v>0.02817122467635979</v>
       </c>
       <c r="J51">
-        <v>1732.5303175961269</v>
+        <v>1732.530317596127</v>
       </c>
       <c r="K51">
-        <v>1.6902734805815871</v>
+        <v>1.690273480581587</v>
       </c>
       <c r="L51">
-        <v>3.4495377154726267E-2</v>
+        <v>0.03449537715472627</v>
       </c>
       <c r="M51" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2983,40 +2956,40 @@
         <v>72</v>
       </c>
       <c r="C52">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D52" t="s">
         <v>133</v>
       </c>
       <c r="E52">
-        <v>1203.1822575080539</v>
+        <v>1203.182257508054</v>
       </c>
       <c r="F52">
-        <v>3800.8527514679408</v>
+        <v>3800.852751467941</v>
       </c>
       <c r="G52">
-        <v>18.216179378671931</v>
+        <v>18.21617937867193</v>
       </c>
       <c r="H52">
-        <v>0.62565477390418789</v>
+        <v>0.6256547739041879</v>
       </c>
       <c r="I52">
-        <v>2.4063645150161069E-2</v>
+        <v>0.02406364515016107</v>
       </c>
       <c r="J52">
-        <v>1479.9141767349061</v>
+        <v>1479.914176734906</v>
       </c>
       <c r="K52">
-        <v>1.4438187090096639</v>
+        <v>1.443818709009664</v>
       </c>
       <c r="L52">
-        <v>2.9465687938972741E-2</v>
+        <v>0.02946568793897274</v>
       </c>
       <c r="M52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3024,7 +2997,7 @@
         <v>84</v>
       </c>
       <c r="C53">
-        <v>0.64594980483333342</v>
+        <v>0.6459498048333334</v>
       </c>
       <c r="D53" t="s">
         <v>149</v>
@@ -3033,19 +3006,19 @@
         <v>10175.81376963906</v>
       </c>
       <c r="F53">
-        <v>32145.395698289791</v>
+        <v>32145.39569828979</v>
       </c>
       <c r="G53">
         <v>107.0574510164775</v>
       </c>
       <c r="H53">
-        <v>1.4316304634727619</v>
+        <v>1.431630463472762</v>
       </c>
       <c r="I53">
-        <v>0.20351627539278119</v>
+        <v>0.2035162753927812</v>
       </c>
       <c r="J53">
-        <v>12516.250936656041</v>
+        <v>12516.25093665604</v>
       </c>
       <c r="K53">
         <v>12.21097652356687</v>
@@ -3057,7 +3030,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -3065,22 +3038,22 @@
         <v>73</v>
       </c>
       <c r="C54">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D54" t="s">
         <v>139</v>
       </c>
       <c r="E54">
-        <v>8134.2532665474846</v>
+        <v>8134.253266547485</v>
       </c>
       <c r="F54">
-        <v>25696.106069023499</v>
+        <v>25696.1060690235</v>
       </c>
       <c r="G54">
-        <v>131.66955533517211</v>
+        <v>131.6695553351721</v>
       </c>
       <c r="H54">
-        <v>0.77932047818128125</v>
+        <v>0.7793204781812813</v>
       </c>
       <c r="I54">
         <v>0.1626850653309497</v>
@@ -3098,7 +3071,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -3106,31 +3079,31 @@
         <v>73</v>
       </c>
       <c r="C55">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D55" t="s">
         <v>131</v>
       </c>
       <c r="E55">
-        <v>8861.7388680776876</v>
+        <v>8861.738868077688</v>
       </c>
       <c r="F55">
-        <v>27994.233084257408</v>
+        <v>27994.23308425741</v>
       </c>
       <c r="G55">
         <v>103.2576680978673</v>
       </c>
       <c r="H55">
-        <v>0.78090988487991697</v>
+        <v>0.780909884879917</v>
       </c>
       <c r="I55">
-        <v>0.17723477736155371</v>
+        <v>0.1772347773615537</v>
       </c>
       <c r="J55">
-        <v>10899.938807735551</v>
+        <v>10899.93880773555</v>
       </c>
       <c r="K55">
-        <v>10.634086641693219</v>
+        <v>10.63408664169322</v>
       </c>
       <c r="L55">
         <v>0.2170221763610862</v>
@@ -3139,7 +3112,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -3147,40 +3120,40 @@
         <v>73</v>
       </c>
       <c r="C56">
-        <v>0.78853168466666668</v>
+        <v>0.7885316846666667</v>
       </c>
       <c r="D56" t="s">
         <v>139</v>
       </c>
       <c r="E56">
-        <v>6477.7683820859274</v>
+        <v>6477.768382085927</v>
       </c>
       <c r="F56">
         <v>20463.27031900944</v>
       </c>
       <c r="G56">
-        <v>112.96598914996341</v>
+        <v>112.9659891499634</v>
       </c>
       <c r="H56">
-        <v>0.66789730705844663</v>
+        <v>0.6678973070584466</v>
       </c>
       <c r="I56">
-        <v>0.12955536764171849</v>
+        <v>0.1295553676417185</v>
       </c>
       <c r="J56">
-        <v>7967.6551099656899</v>
+        <v>7967.65510996569</v>
       </c>
       <c r="K56">
         <v>7.773322058503112</v>
       </c>
       <c r="L56">
-        <v>0.15863922568373701</v>
+        <v>0.158639225683737</v>
       </c>
       <c r="M56" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -3188,31 +3161,31 @@
         <v>73</v>
       </c>
       <c r="C57">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D57" t="s">
         <v>150</v>
       </c>
       <c r="E57">
-        <v>9939.7838272489371</v>
+        <v>9939.783827248937</v>
       </c>
       <c r="F57">
-        <v>31399.777110279389</v>
+        <v>31399.77711027939</v>
       </c>
       <c r="G57">
-        <v>103.43552795555109</v>
+        <v>103.4355279555511</v>
       </c>
       <c r="H57">
-        <v>1.0459726276722729</v>
+        <v>1.045972627672273</v>
       </c>
       <c r="I57">
-        <v>0.19879567654497871</v>
+        <v>0.1987956765449787</v>
       </c>
       <c r="J57">
         <v>12225.93410751619</v>
       </c>
       <c r="K57">
-        <v>11.927740592698729</v>
+        <v>11.92774059269873</v>
       </c>
       <c r="L57">
         <v>0.2434232774020148</v>
@@ -3221,7 +3194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -3229,40 +3202,40 @@
         <v>69</v>
       </c>
       <c r="C58">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D58" t="s">
         <v>127</v>
       </c>
       <c r="E58">
-        <v>54031.754569687022</v>
+        <v>54031.75456968702</v>
       </c>
       <c r="F58">
-        <v>170686.31268564129</v>
+        <v>170686.3126856413</v>
       </c>
       <c r="G58">
         <v>1138.533461392735</v>
       </c>
       <c r="H58">
-        <v>6.0556217356498703</v>
+        <v>6.05562173564987</v>
       </c>
       <c r="I58">
-        <v>1.0806350913937399</v>
+        <v>1.08063509139374</v>
       </c>
       <c r="J58">
-        <v>66459.058120715039</v>
+        <v>66459.05812071504</v>
       </c>
       <c r="K58">
-        <v>64.838105483624418</v>
+        <v>64.83810548362442</v>
       </c>
       <c r="L58">
-        <v>1.3232266425229471</v>
+        <v>1.323226642522947</v>
       </c>
       <c r="M58" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3270,40 +3243,40 @@
         <v>69</v>
       </c>
       <c r="C59">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D59" t="s">
         <v>127</v>
       </c>
       <c r="E59">
-        <v>54031.754569687022</v>
+        <v>54031.75456968702</v>
       </c>
       <c r="F59">
-        <v>170686.31268564129</v>
+        <v>170686.3126856413</v>
       </c>
       <c r="G59">
         <v>1138.533461392735</v>
       </c>
       <c r="H59">
-        <v>6.0556217356498703</v>
+        <v>6.05562173564987</v>
       </c>
       <c r="I59">
-        <v>1.0806350913937399</v>
+        <v>1.08063509139374</v>
       </c>
       <c r="J59">
-        <v>66459.058120715039</v>
+        <v>66459.05812071504</v>
       </c>
       <c r="K59">
-        <v>64.838105483624418</v>
+        <v>64.83810548362442</v>
       </c>
       <c r="L59">
-        <v>1.3232266425229471</v>
+        <v>1.323226642522947</v>
       </c>
       <c r="M59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3311,40 +3284,40 @@
         <v>69</v>
       </c>
       <c r="C60">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D60" t="s">
         <v>127</v>
       </c>
       <c r="E60">
-        <v>54031.754569687022</v>
+        <v>54031.75456968702</v>
       </c>
       <c r="F60">
-        <v>170686.31268564129</v>
+        <v>170686.3126856413</v>
       </c>
       <c r="G60">
         <v>1138.533461392735</v>
       </c>
       <c r="H60">
-        <v>6.0556217356498703</v>
+        <v>6.05562173564987</v>
       </c>
       <c r="I60">
-        <v>1.0806350913937399</v>
+        <v>1.08063509139374</v>
       </c>
       <c r="J60">
-        <v>66459.058120715039</v>
+        <v>66459.05812071504</v>
       </c>
       <c r="K60">
-        <v>64.838105483624418</v>
+        <v>64.83810548362442</v>
       </c>
       <c r="L60">
-        <v>1.3232266425229471</v>
+        <v>1.323226642522947</v>
       </c>
       <c r="M60" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -3352,40 +3325,40 @@
         <v>69</v>
       </c>
       <c r="C61">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D61" t="s">
         <v>127</v>
       </c>
       <c r="E61">
-        <v>54031.754569687022</v>
+        <v>54031.75456968702</v>
       </c>
       <c r="F61">
-        <v>170686.31268564129</v>
+        <v>170686.3126856413</v>
       </c>
       <c r="G61">
         <v>1138.533461392735</v>
       </c>
       <c r="H61">
-        <v>6.0556217356498703</v>
+        <v>6.05562173564987</v>
       </c>
       <c r="I61">
-        <v>1.0806350913937399</v>
+        <v>1.08063509139374</v>
       </c>
       <c r="J61">
-        <v>66459.058120715039</v>
+        <v>66459.05812071504</v>
       </c>
       <c r="K61">
-        <v>64.838105483624418</v>
+        <v>64.83810548362442</v>
       </c>
       <c r="L61">
-        <v>1.3232266425229471</v>
+        <v>1.323226642522947</v>
       </c>
       <c r="M61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -3393,40 +3366,40 @@
         <v>69</v>
       </c>
       <c r="C62">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D62" t="s">
         <v>127</v>
       </c>
       <c r="E62">
-        <v>54031.754569687022</v>
+        <v>54031.75456968702</v>
       </c>
       <c r="F62">
-        <v>170686.31268564129</v>
+        <v>170686.3126856413</v>
       </c>
       <c r="G62">
         <v>1138.533461392735</v>
       </c>
       <c r="H62">
-        <v>6.0556217356498703</v>
+        <v>6.05562173564987</v>
       </c>
       <c r="I62">
-        <v>1.0806350913937399</v>
+        <v>1.08063509139374</v>
       </c>
       <c r="J62">
-        <v>66459.058120715039</v>
+        <v>66459.05812071504</v>
       </c>
       <c r="K62">
-        <v>64.838105483624418</v>
+        <v>64.83810548362442</v>
       </c>
       <c r="L62">
-        <v>1.3232266425229471</v>
+        <v>1.323226642522947</v>
       </c>
       <c r="M62" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3434,40 +3407,40 @@
         <v>69</v>
       </c>
       <c r="C63">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D63" t="s">
         <v>127</v>
       </c>
       <c r="E63">
-        <v>54031.754569687022</v>
+        <v>54031.75456968702</v>
       </c>
       <c r="F63">
-        <v>170686.31268564129</v>
+        <v>170686.3126856413</v>
       </c>
       <c r="G63">
         <v>1138.533461392735</v>
       </c>
       <c r="H63">
-        <v>6.0556217356498703</v>
+        <v>6.05562173564987</v>
       </c>
       <c r="I63">
-        <v>1.0806350913937399</v>
+        <v>1.08063509139374</v>
       </c>
       <c r="J63">
-        <v>66459.058120715039</v>
+        <v>66459.05812071504</v>
       </c>
       <c r="K63">
-        <v>64.838105483624418</v>
+        <v>64.83810548362442</v>
       </c>
       <c r="L63">
-        <v>1.3232266425229471</v>
+        <v>1.323226642522947</v>
       </c>
       <c r="M63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3475,31 +3448,31 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D64" t="s">
         <v>127</v>
       </c>
       <c r="E64">
-        <v>49612.248018995662</v>
+        <v>49612.24801899566</v>
       </c>
       <c r="F64">
-        <v>156725.09149200731</v>
+        <v>156725.0914920073</v>
       </c>
       <c r="G64">
         <v>1012.500926715771</v>
       </c>
       <c r="H64">
-        <v>6.5664807021024387</v>
+        <v>6.566480702102439</v>
       </c>
       <c r="I64">
-        <v>0.99224496037991328</v>
+        <v>0.9922449603799133</v>
       </c>
       <c r="J64">
-        <v>61023.065063364673</v>
+        <v>61023.06506336467</v>
       </c>
       <c r="K64">
-        <v>59.534697622794788</v>
+        <v>59.53469762279479</v>
       </c>
       <c r="L64">
         <v>1.214993829036628</v>
@@ -3508,7 +3481,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -3516,31 +3489,31 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D65" t="s">
         <v>151</v>
       </c>
       <c r="E65">
-        <v>67492.099028240875</v>
+        <v>67492.09902824087</v>
       </c>
       <c r="F65">
-        <v>213207.54083021291</v>
+        <v>213207.5408302129</v>
       </c>
       <c r="G65">
-        <v>1064.1491702855251</v>
+        <v>1064.149170285525</v>
       </c>
       <c r="H65">
-        <v>2.9564570689639131</v>
+        <v>2.956457068963913</v>
       </c>
       <c r="I65">
         <v>1.349841980564817</v>
       </c>
       <c r="J65">
-        <v>83015.281804736267</v>
+        <v>83015.28180473627</v>
       </c>
       <c r="K65">
-        <v>80.990518833889041</v>
+        <v>80.99051883388904</v>
       </c>
       <c r="L65">
         <v>1.652867731303858</v>
@@ -3549,7 +3522,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -3563,34 +3536,34 @@
         <v>127</v>
       </c>
       <c r="E66">
-        <v>55414.029057547872</v>
+        <v>55414.02905754787</v>
       </c>
       <c r="F66">
-        <v>175052.91779279371</v>
+        <v>175052.9177927937</v>
       </c>
       <c r="G66">
-        <v>1150.4929130881981</v>
+        <v>1150.492913088198</v>
       </c>
       <c r="H66">
-        <v>6.8762036912274596</v>
+        <v>6.87620369122746</v>
       </c>
       <c r="I66">
-        <v>1.1082805811509571</v>
+        <v>1.108280581150957</v>
       </c>
       <c r="J66">
-        <v>68159.255740783876</v>
+        <v>68159.25574078388</v>
       </c>
       <c r="K66">
-        <v>66.496834869057437</v>
+        <v>66.49683486905744</v>
       </c>
       <c r="L66">
-        <v>1.3570782626338249</v>
+        <v>1.357078262633825</v>
       </c>
       <c r="M66" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -3604,34 +3577,34 @@
         <v>127</v>
       </c>
       <c r="E67">
-        <v>55414.029057547872</v>
+        <v>55414.02905754787</v>
       </c>
       <c r="F67">
-        <v>175052.91779279371</v>
+        <v>175052.9177927937</v>
       </c>
       <c r="G67">
-        <v>1150.4929130881981</v>
+        <v>1150.492913088198</v>
       </c>
       <c r="H67">
-        <v>6.8762036912274596</v>
+        <v>6.87620369122746</v>
       </c>
       <c r="I67">
-        <v>1.1082805811509571</v>
+        <v>1.108280581150957</v>
       </c>
       <c r="J67">
-        <v>68159.255740783876</v>
+        <v>68159.25574078388</v>
       </c>
       <c r="K67">
-        <v>66.496834869057437</v>
+        <v>66.49683486905744</v>
       </c>
       <c r="L67">
-        <v>1.3570782626338249</v>
+        <v>1.357078262633825</v>
       </c>
       <c r="M67" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -3639,31 +3612,31 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D68" t="s">
         <v>127</v>
       </c>
       <c r="E68">
-        <v>65141.195456496927</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F68">
         <v>205781.0364470738</v>
       </c>
       <c r="G68">
-        <v>1310.0052346494399</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H68">
-        <v>6.8465265181043424</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I68">
         <v>1.302823909129939</v>
       </c>
       <c r="J68">
-        <v>80123.670411491243</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K68">
-        <v>78.169434547796328</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L68">
         <v>1.595294582608088</v>
@@ -3672,7 +3645,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3680,31 +3653,31 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D69" t="s">
         <v>127</v>
       </c>
       <c r="E69">
-        <v>65141.195456496927</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F69">
         <v>205781.0364470738</v>
       </c>
       <c r="G69">
-        <v>1310.0052346494399</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H69">
-        <v>6.8465265181043424</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I69">
         <v>1.302823909129939</v>
       </c>
       <c r="J69">
-        <v>80123.670411491243</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K69">
-        <v>78.169434547796328</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L69">
         <v>1.595294582608088</v>
@@ -3713,7 +3686,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -3721,31 +3694,31 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D70" t="s">
         <v>127</v>
       </c>
       <c r="E70">
-        <v>65141.195456496927</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F70">
         <v>205781.0364470738</v>
       </c>
       <c r="G70">
-        <v>1310.0052346494399</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H70">
-        <v>6.8465265181043424</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I70">
         <v>1.302823909129939</v>
       </c>
       <c r="J70">
-        <v>80123.670411491243</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K70">
-        <v>78.169434547796328</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L70">
         <v>1.595294582608088</v>
@@ -3754,7 +3727,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -3762,31 +3735,31 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D71" t="s">
         <v>127</v>
       </c>
       <c r="E71">
-        <v>65141.195456496927</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F71">
         <v>205781.0364470738</v>
       </c>
       <c r="G71">
-        <v>1310.0052346494399</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H71">
-        <v>6.8465265181043424</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I71">
         <v>1.302823909129939</v>
       </c>
       <c r="J71">
-        <v>80123.670411491243</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K71">
-        <v>78.169434547796328</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L71">
         <v>1.595294582608088</v>
@@ -3795,7 +3768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -3803,31 +3776,31 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D72" t="s">
         <v>127</v>
       </c>
       <c r="E72">
-        <v>65141.195456496927</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F72">
         <v>205781.0364470738</v>
       </c>
       <c r="G72">
-        <v>1310.0052346494399</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H72">
-        <v>6.8465265181043424</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I72">
         <v>1.302823909129939</v>
       </c>
       <c r="J72">
-        <v>80123.670411491243</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K72">
-        <v>78.169434547796328</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L72">
         <v>1.595294582608088</v>
@@ -3836,7 +3809,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3844,31 +3817,31 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D73" t="s">
         <v>127</v>
       </c>
       <c r="E73">
-        <v>65141.195456496927</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F73">
         <v>205781.0364470738</v>
       </c>
       <c r="G73">
-        <v>1310.0052346494399</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H73">
-        <v>6.8465265181043424</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I73">
         <v>1.302823909129939</v>
       </c>
       <c r="J73">
-        <v>80123.670411491243</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K73">
-        <v>78.169434547796328</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L73">
         <v>1.595294582608088</v>
@@ -3877,7 +3850,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3885,31 +3858,31 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D74" t="s">
         <v>127</v>
       </c>
       <c r="E74">
-        <v>65141.195456496927</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F74">
         <v>205781.0364470738</v>
       </c>
       <c r="G74">
-        <v>1310.0052346494399</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H74">
-        <v>6.8465265181043424</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I74">
         <v>1.302823909129939</v>
       </c>
       <c r="J74">
-        <v>80123.670411491243</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K74">
-        <v>78.169434547796328</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L74">
         <v>1.595294582608088</v>
@@ -3918,7 +3891,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3926,7 +3899,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D75" t="s">
         <v>127</v>
@@ -3935,31 +3908,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F75">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G75">
         <v>2563.752966236701</v>
       </c>
       <c r="H75">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I75">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J75">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K75">
         <v>137.0630299488565</v>
       </c>
       <c r="L75">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M75" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -3967,7 +3940,7 @@
         <v>73</v>
       </c>
       <c r="C76">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D76" t="s">
         <v>127</v>
@@ -3976,31 +3949,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F76">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G76">
         <v>2563.752966236701</v>
       </c>
       <c r="H76">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I76">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J76">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K76">
         <v>137.0630299488565</v>
       </c>
       <c r="L76">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M76" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -4008,7 +3981,7 @@
         <v>73</v>
       </c>
       <c r="C77">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D77" t="s">
         <v>127</v>
@@ -4017,31 +3990,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F77">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G77">
         <v>2563.752966236701</v>
       </c>
       <c r="H77">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I77">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J77">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K77">
         <v>137.0630299488565</v>
       </c>
       <c r="L77">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M77" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -4049,7 +4022,7 @@
         <v>73</v>
       </c>
       <c r="C78">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D78" t="s">
         <v>127</v>
@@ -4058,31 +4031,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F78">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G78">
         <v>2563.752966236701</v>
       </c>
       <c r="H78">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I78">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J78">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K78">
         <v>137.0630299488565</v>
       </c>
       <c r="L78">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M78" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -4090,7 +4063,7 @@
         <v>73</v>
       </c>
       <c r="C79">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D79" t="s">
         <v>127</v>
@@ -4099,31 +4072,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F79">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G79">
         <v>2563.752966236701</v>
       </c>
       <c r="H79">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I79">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J79">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K79">
         <v>137.0630299488565</v>
       </c>
       <c r="L79">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M79" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -4131,7 +4104,7 @@
         <v>73</v>
       </c>
       <c r="C80">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D80" t="s">
         <v>127</v>
@@ -4140,31 +4113,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F80">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G80">
         <v>2563.752966236701</v>
       </c>
       <c r="H80">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I80">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J80">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K80">
         <v>137.0630299488565</v>
       </c>
       <c r="L80">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M80" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>73</v>
       </c>
@@ -4172,7 +4145,7 @@
         <v>73</v>
       </c>
       <c r="C81">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D81" t="s">
         <v>127</v>
@@ -4181,31 +4154,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F81">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G81">
         <v>2563.752966236701</v>
       </c>
       <c r="H81">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I81">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J81">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K81">
         <v>137.0630299488565</v>
       </c>
       <c r="L81">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M81" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -4213,7 +4186,7 @@
         <v>73</v>
       </c>
       <c r="C82">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D82" t="s">
         <v>127</v>
@@ -4222,31 +4195,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F82">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G82">
         <v>2563.752966236701</v>
       </c>
       <c r="H82">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I82">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J82">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K82">
         <v>137.0630299488565</v>
       </c>
       <c r="L82">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M82" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -4254,7 +4227,7 @@
         <v>73</v>
       </c>
       <c r="C83">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D83" t="s">
         <v>127</v>
@@ -4263,31 +4236,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F83">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G83">
         <v>2563.752966236701</v>
       </c>
       <c r="H83">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I83">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J83">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K83">
         <v>137.0630299488565</v>
       </c>
       <c r="L83">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -4295,7 +4268,7 @@
         <v>73</v>
       </c>
       <c r="C84">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D84" t="s">
         <v>127</v>
@@ -4304,31 +4277,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F84">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G84">
         <v>2563.752966236701</v>
       </c>
       <c r="H84">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I84">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J84">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K84">
         <v>137.0630299488565</v>
       </c>
       <c r="L84">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M84" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>73</v>
       </c>
@@ -4336,7 +4309,7 @@
         <v>73</v>
       </c>
       <c r="C85">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D85" t="s">
         <v>127</v>
@@ -4345,31 +4318,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F85">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G85">
         <v>2563.752966236701</v>
       </c>
       <c r="H85">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I85">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J85">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K85">
         <v>137.0630299488565</v>
       </c>
       <c r="L85">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M85" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>73</v>
       </c>
@@ -4377,7 +4350,7 @@
         <v>73</v>
       </c>
       <c r="C86">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D86" t="s">
         <v>127</v>
@@ -4386,31 +4359,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F86">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G86">
         <v>2563.752966236701</v>
       </c>
       <c r="H86">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I86">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J86">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K86">
         <v>137.0630299488565</v>
       </c>
       <c r="L86">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M86" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -4418,7 +4391,7 @@
         <v>73</v>
       </c>
       <c r="C87">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D87" t="s">
         <v>127</v>
@@ -4427,31 +4400,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F87">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G87">
         <v>2563.752966236701</v>
       </c>
       <c r="H87">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I87">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J87">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K87">
         <v>137.0630299488565</v>
       </c>
       <c r="L87">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M87" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -4459,7 +4432,7 @@
         <v>73</v>
       </c>
       <c r="C88">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D88" t="s">
         <v>127</v>
@@ -4468,31 +4441,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F88">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G88">
         <v>2563.752966236701</v>
       </c>
       <c r="H88">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I88">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J88">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K88">
         <v>137.0630299488565</v>
       </c>
       <c r="L88">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M88" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>73</v>
       </c>
@@ -4500,7 +4473,7 @@
         <v>73</v>
       </c>
       <c r="C89">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D89" t="s">
         <v>127</v>
@@ -4509,31 +4482,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F89">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G89">
         <v>2563.752966236701</v>
       </c>
       <c r="H89">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I89">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J89">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K89">
         <v>137.0630299488565</v>
       </c>
       <c r="L89">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M89" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>73</v>
       </c>
@@ -4541,7 +4514,7 @@
         <v>73</v>
       </c>
       <c r="C90">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D90" t="s">
         <v>127</v>
@@ -4550,31 +4523,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F90">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G90">
         <v>2563.752966236701</v>
       </c>
       <c r="H90">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I90">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J90">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K90">
         <v>137.0630299488565</v>
       </c>
       <c r="L90">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M90" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -4582,7 +4555,7 @@
         <v>73</v>
       </c>
       <c r="C91">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D91" t="s">
         <v>127</v>
@@ -4591,31 +4564,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F91">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G91">
         <v>2563.752966236701</v>
       </c>
       <c r="H91">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I91">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J91">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K91">
         <v>137.0630299488565</v>
       </c>
       <c r="L91">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M91" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -4623,7 +4596,7 @@
         <v>73</v>
       </c>
       <c r="C92">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D92" t="s">
         <v>127</v>
@@ -4632,31 +4605,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F92">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G92">
         <v>2563.752966236701</v>
       </c>
       <c r="H92">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I92">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J92">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K92">
         <v>137.0630299488565</v>
       </c>
       <c r="L92">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M92" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -4664,7 +4637,7 @@
         <v>73</v>
       </c>
       <c r="C93">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D93" t="s">
         <v>127</v>
@@ -4673,31 +4646,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F93">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G93">
         <v>2563.752966236701</v>
       </c>
       <c r="H93">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I93">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J93">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K93">
         <v>137.0630299488565</v>
       </c>
       <c r="L93">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M93" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -4705,7 +4678,7 @@
         <v>73</v>
       </c>
       <c r="C94">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D94" t="s">
         <v>127</v>
@@ -4714,31 +4687,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F94">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G94">
         <v>2563.752966236701</v>
       </c>
       <c r="H94">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I94">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J94">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K94">
         <v>137.0630299488565</v>
       </c>
       <c r="L94">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M94" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -4746,7 +4719,7 @@
         <v>74</v>
       </c>
       <c r="C95">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D95" t="s">
         <v>127</v>
@@ -4755,22 +4728,22 @@
         <v>117028.0017049689</v>
       </c>
       <c r="F95">
-        <v>369691.45738599682</v>
+        <v>369691.4573859968</v>
       </c>
       <c r="G95">
         <v>2653.651549870538</v>
       </c>
       <c r="H95">
-        <v>11.064843082519619</v>
+        <v>11.06484308251962</v>
       </c>
       <c r="I95">
         <v>2.340560034099378</v>
       </c>
       <c r="J95">
-        <v>143944.44209711181</v>
+        <v>143944.4420971118</v>
       </c>
       <c r="K95">
-        <v>140.43360204596269</v>
+        <v>140.4336020459627</v>
       </c>
       <c r="L95">
         <v>2.865991878489035</v>
@@ -4779,7 +4752,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -4787,7 +4760,7 @@
         <v>74</v>
       </c>
       <c r="C96">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D96" t="s">
         <v>127</v>
@@ -4796,22 +4769,22 @@
         <v>117028.0017049689</v>
       </c>
       <c r="F96">
-        <v>369691.45738599682</v>
+        <v>369691.4573859968</v>
       </c>
       <c r="G96">
         <v>2653.651549870538</v>
       </c>
       <c r="H96">
-        <v>11.064843082519619</v>
+        <v>11.06484308251962</v>
       </c>
       <c r="I96">
         <v>2.340560034099378</v>
       </c>
       <c r="J96">
-        <v>143944.44209711181</v>
+        <v>143944.4420971118</v>
       </c>
       <c r="K96">
-        <v>140.43360204596269</v>
+        <v>140.4336020459627</v>
       </c>
       <c r="L96">
         <v>2.865991878489035</v>
@@ -4820,7 +4793,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>74</v>
       </c>
@@ -4828,7 +4801,7 @@
         <v>74</v>
       </c>
       <c r="C97">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D97" t="s">
         <v>127</v>
@@ -4837,22 +4810,22 @@
         <v>117028.0017049689</v>
       </c>
       <c r="F97">
-        <v>369691.45738599682</v>
+        <v>369691.4573859968</v>
       </c>
       <c r="G97">
         <v>2653.651549870538</v>
       </c>
       <c r="H97">
-        <v>11.064843082519619</v>
+        <v>11.06484308251962</v>
       </c>
       <c r="I97">
         <v>2.340560034099378</v>
       </c>
       <c r="J97">
-        <v>143944.44209711181</v>
+        <v>143944.4420971118</v>
       </c>
       <c r="K97">
-        <v>140.43360204596269</v>
+        <v>140.4336020459627</v>
       </c>
       <c r="L97">
         <v>2.865991878489035</v>
@@ -4861,7 +4834,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -4869,7 +4842,7 @@
         <v>74</v>
       </c>
       <c r="C98">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D98" t="s">
         <v>127</v>
@@ -4878,22 +4851,22 @@
         <v>117028.0017049689</v>
       </c>
       <c r="F98">
-        <v>369691.45738599682</v>
+        <v>369691.4573859968</v>
       </c>
       <c r="G98">
         <v>2653.651549870538</v>
       </c>
       <c r="H98">
-        <v>11.064843082519619</v>
+        <v>11.06484308251962</v>
       </c>
       <c r="I98">
         <v>2.340560034099378</v>
       </c>
       <c r="J98">
-        <v>143944.44209711181</v>
+        <v>143944.4420971118</v>
       </c>
       <c r="K98">
-        <v>140.43360204596269</v>
+        <v>140.4336020459627</v>
       </c>
       <c r="L98">
         <v>2.865991878489035</v>
@@ -4902,7 +4875,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>75</v>
       </c>
@@ -4910,40 +4883,40 @@
         <v>75</v>
       </c>
       <c r="C99">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D99" t="s">
         <v>152</v>
       </c>
       <c r="E99">
-        <v>67405.569335327018</v>
+        <v>67405.56933532702</v>
       </c>
       <c r="F99">
         <v>212934.1935302981</v>
       </c>
       <c r="G99">
-        <v>1330.9005080397999</v>
+        <v>1330.9005080398</v>
       </c>
       <c r="H99">
-        <v>8.9027693516416022</v>
+        <v>8.902769351641602</v>
       </c>
       <c r="I99">
         <v>1.34811138670654</v>
       </c>
       <c r="J99">
-        <v>82908.850282452244</v>
+        <v>82908.85028245224</v>
       </c>
       <c r="K99">
-        <v>80.886683202392433</v>
+        <v>80.88668320239243</v>
       </c>
       <c r="L99">
-        <v>1.6507486367835189</v>
+        <v>1.650748636783519</v>
       </c>
       <c r="M99" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -4951,40 +4924,40 @@
         <v>76</v>
       </c>
       <c r="C100">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D100" t="s">
         <v>127</v>
       </c>
       <c r="E100">
-        <v>55958.110856390449</v>
+        <v>55958.11085639045</v>
       </c>
       <c r="F100">
-        <v>176771.67219533739</v>
+        <v>176771.6721953374</v>
       </c>
       <c r="G100">
-        <v>1166.4116791806421</v>
+        <v>1166.411679180642</v>
       </c>
       <c r="H100">
-        <v>6.2918496254745113</v>
+        <v>6.291849625474511</v>
       </c>
       <c r="I100">
-        <v>1.1191622171278091</v>
+        <v>1.119162217127809</v>
       </c>
       <c r="J100">
-        <v>68828.476353360253</v>
+        <v>68828.47635336025</v>
       </c>
       <c r="K100">
-        <v>67.149733027668532</v>
+        <v>67.14973302766853</v>
       </c>
       <c r="L100">
-        <v>1.3704027148503779</v>
+        <v>1.370402714850378</v>
       </c>
       <c r="M100" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -4992,40 +4965,40 @@
         <v>77</v>
       </c>
       <c r="C101">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D101" t="s">
         <v>127</v>
       </c>
       <c r="E101">
-        <v>34848.322848415963</v>
+        <v>34848.32284841596</v>
       </c>
       <c r="F101">
         <v>110085.851878146</v>
       </c>
       <c r="G101">
-        <v>700.74519885696623</v>
+        <v>700.7451988569662</v>
       </c>
       <c r="H101">
-        <v>5.2837758755165423</v>
+        <v>5.283775875516542</v>
       </c>
       <c r="I101">
-        <v>0.69696645696831894</v>
+        <v>0.6969664569683189</v>
       </c>
       <c r="J101">
-        <v>42863.437103551623</v>
+        <v>42863.43710355162</v>
       </c>
       <c r="K101">
-        <v>41.817987418099143</v>
+        <v>41.81798741809914</v>
       </c>
       <c r="L101">
-        <v>0.85342831465508473</v>
+        <v>0.8534283146550847</v>
       </c>
       <c r="M101" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>78</v>
       </c>
@@ -5033,40 +5006,40 @@
         <v>78</v>
       </c>
       <c r="C102">
-        <v>0.69978361703333336</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="D102" t="s">
         <v>139</v>
       </c>
       <c r="E102">
-        <v>11160.596414530681</v>
+        <v>11160.59641453068</v>
       </c>
       <c r="F102">
-        <v>35256.324073502423</v>
+        <v>35256.32407350242</v>
       </c>
       <c r="G102">
         <v>161.3367417997575</v>
       </c>
       <c r="H102">
-        <v>1.1487834180188889</v>
+        <v>1.148783418018889</v>
       </c>
       <c r="I102">
-        <v>0.22321192829061359</v>
+        <v>0.2232119282906136</v>
       </c>
       <c r="J102">
-        <v>13727.533589872741</v>
+        <v>13727.53358987274</v>
       </c>
       <c r="K102">
         <v>13.39271569743682</v>
       </c>
       <c r="L102">
-        <v>0.27332072851911871</v>
+        <v>0.2733207285191187</v>
       </c>
       <c r="M102" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>79</v>
       </c>
@@ -5074,7 +5047,7 @@
         <v>79</v>
       </c>
       <c r="C103">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D103" t="s">
         <v>153</v>
@@ -5086,28 +5059,28 @@
         <v>336409.0642759843</v>
       </c>
       <c r="G103">
-        <v>2116.8475395784199</v>
+        <v>2116.84753957842</v>
       </c>
       <c r="H103">
-        <v>8.5632436730312413</v>
+        <v>8.563243673031241</v>
       </c>
       <c r="I103">
-        <v>2.1298452945614712</v>
+        <v>2.129845294561471</v>
       </c>
       <c r="J103">
         <v>130985.4856155305</v>
       </c>
       <c r="K103">
-        <v>127.79071767368821</v>
+        <v>127.7907176736882</v>
       </c>
       <c r="L103">
-        <v>2.6079738300752702</v>
+        <v>2.60797383007527</v>
       </c>
       <c r="M103" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -5115,7 +5088,7 @@
         <v>80</v>
       </c>
       <c r="C104">
-        <v>0.63857805256666667</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D104" t="s">
         <v>127</v>
@@ -5124,31 +5097,31 @@
         <v>120788.2398253462</v>
       </c>
       <c r="F104">
-        <v>381570.04960826848</v>
+        <v>381570.0496082685</v>
       </c>
       <c r="G104">
         <v>2741.51609845646</v>
       </c>
       <c r="H104">
-        <v>7.8395371465650721</v>
+        <v>7.839537146565072</v>
       </c>
       <c r="I104">
-        <v>2.4157647965069242</v>
+        <v>2.415764796506924</v>
       </c>
       <c r="J104">
-        <v>148569.53498517579</v>
+        <v>148569.5349851758</v>
       </c>
       <c r="K104">
-        <v>144.94588779041541</v>
+        <v>144.9458877904154</v>
       </c>
       <c r="L104">
-        <v>2.9580793426615388</v>
+        <v>2.958079342661539</v>
       </c>
       <c r="M104" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>81</v>
       </c>
@@ -5156,40 +5129,40 @@
         <v>81</v>
       </c>
       <c r="C105">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D105" t="s">
         <v>127</v>
       </c>
       <c r="E105">
-        <v>48847.553237030537</v>
+        <v>48847.55323703054</v>
       </c>
       <c r="F105">
         <v>154309.4206757794</v>
       </c>
       <c r="G105">
-        <v>968.86658308020696</v>
+        <v>968.866583080207</v>
       </c>
       <c r="H105">
         <v>6.763730971281797</v>
       </c>
       <c r="I105">
-        <v>0.97695106474061055</v>
+        <v>0.9769510647406106</v>
       </c>
       <c r="J105">
         <v>60082.49048154756</v>
       </c>
       <c r="K105">
-        <v>58.617063884436639</v>
+        <v>58.61706388443664</v>
       </c>
       <c r="L105">
-        <v>1.1962666098864621</v>
+        <v>1.196266609886462</v>
       </c>
       <c r="M105" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>82</v>
       </c>
@@ -5197,7 +5170,7 @@
         <v>82</v>
       </c>
       <c r="C106">
-        <v>0.63765658353333332</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D106" t="s">
         <v>127</v>
@@ -5209,19 +5182,19 @@
         <v>155723.665412042</v>
       </c>
       <c r="G106">
-        <v>1046.9650133038431</v>
+        <v>1046.965013303843</v>
       </c>
       <c r="H106">
-        <v>6.3536900328093049</v>
+        <v>6.353690032809305</v>
       </c>
       <c r="I106">
-        <v>0.98590481425794207</v>
+        <v>0.9859048142579421</v>
       </c>
       <c r="J106">
-        <v>60633.146076863457</v>
+        <v>60633.14607686346</v>
       </c>
       <c r="K106">
-        <v>59.154288855476523</v>
+        <v>59.15428885547652</v>
       </c>
       <c r="L106">
         <v>1.207230384805644</v>
@@ -5230,7 +5203,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -5238,40 +5211,40 @@
         <v>83</v>
       </c>
       <c r="C107">
-        <v>0.65326210780645155</v>
+        <v>0.6532621078064516</v>
       </c>
       <c r="D107" t="s">
         <v>122</v>
       </c>
       <c r="E107">
-        <v>58951.096158751483</v>
+        <v>58951.09615875148</v>
       </c>
       <c r="F107">
-        <v>186226.51276549589</v>
+        <v>186226.5127654959</v>
       </c>
       <c r="G107">
-        <v>852.20382866081604</v>
+        <v>852.203828660816</v>
       </c>
       <c r="H107">
-        <v>2.9273044889330642</v>
+        <v>2.927304488933064</v>
       </c>
       <c r="I107">
         <v>1.179021923175029</v>
       </c>
       <c r="J107">
-        <v>72509.848275264318</v>
+        <v>72509.84827526432</v>
       </c>
       <c r="K107">
-        <v>70.741315390501768</v>
+        <v>70.74131539050177</v>
       </c>
       <c r="L107">
-        <v>1.4437003140918729</v>
+        <v>1.443700314091873</v>
       </c>
       <c r="M107" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -5279,7 +5252,7 @@
         <v>84</v>
       </c>
       <c r="C108">
-        <v>0.63765658353333332</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D108" t="s">
         <v>127</v>
@@ -5288,31 +5261,31 @@
         <v>111754.0296499184</v>
       </c>
       <c r="F108">
-        <v>353030.97966409218</v>
+        <v>353030.9796640922</v>
       </c>
       <c r="G108">
         <v>2513.793028524879</v>
       </c>
       <c r="H108">
-        <v>9.5758296901810152</v>
+        <v>9.575829690181015</v>
       </c>
       <c r="I108">
-        <v>2.2350805929983681</v>
+        <v>2.235080592998368</v>
       </c>
       <c r="J108">
-        <v>137457.45646939959</v>
+        <v>137457.4564693996</v>
       </c>
       <c r="K108">
-        <v>134.10483557990199</v>
+        <v>134.104835579902</v>
       </c>
       <c r="L108">
-        <v>2.7368333791816748</v>
+        <v>2.736833379181675</v>
       </c>
       <c r="M108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>84</v>
       </c>
@@ -5320,7 +5293,7 @@
         <v>84</v>
       </c>
       <c r="C109">
-        <v>0.63765658353333332</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D109" t="s">
         <v>127</v>
@@ -5329,31 +5302,31 @@
         <v>111754.0296499184</v>
       </c>
       <c r="F109">
-        <v>353030.97966409218</v>
+        <v>353030.9796640922</v>
       </c>
       <c r="G109">
         <v>2513.793028524879</v>
       </c>
       <c r="H109">
-        <v>9.5758296901810152</v>
+        <v>9.575829690181015</v>
       </c>
       <c r="I109">
-        <v>2.2350805929983681</v>
+        <v>2.235080592998368</v>
       </c>
       <c r="J109">
-        <v>137457.45646939959</v>
+        <v>137457.4564693996</v>
       </c>
       <c r="K109">
-        <v>134.10483557990199</v>
+        <v>134.104835579902</v>
       </c>
       <c r="L109">
-        <v>2.7368333791816748</v>
+        <v>2.736833379181675</v>
       </c>
       <c r="M109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -5361,7 +5334,7 @@
         <v>85</v>
       </c>
       <c r="C110">
-        <v>0.70685213839999994</v>
+        <v>0.7068521383999999</v>
       </c>
       <c r="D110" t="s">
         <v>147</v>
@@ -5370,31 +5343,31 @@
         <v>11652.84922805194</v>
       </c>
       <c r="F110">
-        <v>36811.350711416067</v>
+        <v>36811.35071141607</v>
       </c>
       <c r="G110">
-        <v>161.55718007953351</v>
+        <v>161.5571800795335</v>
       </c>
       <c r="H110">
-        <v>0.72830321825512756</v>
+        <v>0.7283032182551276</v>
       </c>
       <c r="I110">
-        <v>0.23305698456103879</v>
+        <v>0.2330569845610388</v>
       </c>
       <c r="J110">
-        <v>14333.004550503891</v>
+        <v>14333.00455050389</v>
       </c>
       <c r="K110">
-        <v>13.983419073662329</v>
+        <v>13.98341907366233</v>
       </c>
       <c r="L110">
-        <v>0.28537589946249647</v>
+        <v>0.2853758994624965</v>
       </c>
       <c r="M110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -5402,25 +5375,25 @@
         <v>86</v>
       </c>
       <c r="C111">
-        <v>0.65326210780645155</v>
+        <v>0.6532621078064516</v>
       </c>
       <c r="D111" t="s">
         <v>124</v>
       </c>
       <c r="E111">
-        <v>15801.508718843639</v>
+        <v>15801.50871884364</v>
       </c>
       <c r="F111">
-        <v>49916.966042827058</v>
+        <v>49916.96604282706</v>
       </c>
       <c r="G111">
-        <v>188.85729396064261</v>
+        <v>188.8572939606426</v>
       </c>
       <c r="H111">
-        <v>1.1608196487543261</v>
+        <v>1.160819648754326</v>
       </c>
       <c r="I111">
-        <v>0.31603017437687281</v>
+        <v>0.3160301743768728</v>
       </c>
       <c r="J111">
         <v>19435.85572417768</v>
@@ -5429,13 +5402,13 @@
         <v>18.96181046261237</v>
       </c>
       <c r="L111">
-        <v>0.38697572372678302</v>
+        <v>0.386975723726783</v>
       </c>
       <c r="M111" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -5443,7 +5416,7 @@
         <v>87</v>
       </c>
       <c r="C112">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D112" t="s">
         <v>146</v>
@@ -5452,31 +5425,31 @@
         <v>12562.64959455429</v>
       </c>
       <c r="F112">
-        <v>39685.410069196987</v>
+        <v>39685.41006919699</v>
       </c>
       <c r="G112">
-        <v>186.39035974309201</v>
+        <v>186.390359743092</v>
       </c>
       <c r="H112">
-        <v>4.7850459695856107E-2</v>
+        <v>0.04785045969585611</v>
       </c>
       <c r="I112">
-        <v>0.25125299189108569</v>
+        <v>0.2512529918910857</v>
       </c>
       <c r="J112">
         <v>15452.05900130177</v>
       </c>
       <c r="K112">
-        <v>15.075179513465139</v>
+        <v>15.07517951346514</v>
       </c>
       <c r="L112">
-        <v>0.30765672476459482</v>
+        <v>0.3076567247645948</v>
       </c>
       <c r="M112" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -5484,40 +5457,40 @@
         <v>88</v>
       </c>
       <c r="C113">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D113" t="s">
         <v>139</v>
       </c>
       <c r="E113">
-        <v>8439.8187096188158</v>
+        <v>8439.818709618816</v>
       </c>
       <c r="F113">
-        <v>26661.387303685831</v>
+        <v>26661.38730368583</v>
       </c>
       <c r="G113">
         <v>121.9031667200459</v>
       </c>
       <c r="H113">
-        <v>0.90140483999409526</v>
+        <v>0.9014048399940953</v>
       </c>
       <c r="I113">
-        <v>0.16879637419237631</v>
+        <v>0.1687963741923763</v>
       </c>
       <c r="J113">
-        <v>10380.977012831139</v>
+        <v>10380.97701283114</v>
       </c>
       <c r="K113">
-        <v>10.127782451542579</v>
+        <v>10.12778245154258</v>
       </c>
       <c r="L113">
-        <v>0.20668943778658319</v>
+        <v>0.2066894377865832</v>
       </c>
       <c r="M113" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -5525,40 +5498,40 @@
         <v>76</v>
       </c>
       <c r="C114">
-        <v>0.62593165066666667</v>
+        <v>0.6259316506666667</v>
       </c>
       <c r="D114" t="s">
         <v>123</v>
       </c>
       <c r="E114">
-        <v>2297.9463218356432</v>
+        <v>2297.946321835643</v>
       </c>
       <c r="F114">
-        <v>7259.2124306787937</v>
+        <v>7259.212430678794</v>
       </c>
       <c r="G114">
-        <v>24.013001737549281</v>
+        <v>24.01300173754928</v>
       </c>
       <c r="H114">
-        <v>0.71431088164083989</v>
+        <v>0.7143108816408399</v>
       </c>
       <c r="I114">
-        <v>4.5958926436712851E-2</v>
+        <v>0.04595892643671285</v>
       </c>
       <c r="J114">
-        <v>2826.4739758578398</v>
+        <v>2826.47397585784</v>
       </c>
       <c r="K114">
-        <v>2.7575355862027702</v>
+        <v>2.75753558620277</v>
       </c>
       <c r="L114">
-        <v>5.6276236453117773E-2</v>
+        <v>0.05627623645311777</v>
       </c>
       <c r="M114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -5566,40 +5539,40 @@
         <v>73</v>
       </c>
       <c r="C115">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D115" t="s">
         <v>128</v>
       </c>
       <c r="E115">
-        <v>38531.028624423852</v>
+        <v>38531.02862442385</v>
       </c>
       <c r="F115">
-        <v>121719.51942455491</v>
+        <v>121719.5194245549</v>
       </c>
       <c r="G115">
-        <v>548.10094957241267</v>
+        <v>548.1009495724127</v>
       </c>
       <c r="H115">
-        <v>1.7886929042720561</v>
+        <v>1.788692904272056</v>
       </c>
       <c r="I115">
-        <v>0.77062057248847693</v>
+        <v>0.7706205724884769</v>
       </c>
       <c r="J115">
-        <v>47393.165208041333</v>
+        <v>47393.16520804133</v>
       </c>
       <c r="K115">
-        <v>46.237234349308608</v>
+        <v>46.23723434930861</v>
       </c>
       <c r="L115">
-        <v>0.94361702753691046</v>
+        <v>0.9436170275369105</v>
       </c>
       <c r="M115" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -5607,7 +5580,7 @@
         <v>96</v>
       </c>
       <c r="C116">
-        <v>0.65700743399999995</v>
+        <v>0.6570074339999999</v>
       </c>
       <c r="D116" t="s">
         <v>131</v>
@@ -5616,31 +5589,31 @@
         <v>1721.639039382894</v>
       </c>
       <c r="F116">
-        <v>5438.6577254105632</v>
+        <v>5438.657725410563</v>
       </c>
       <c r="G116">
-        <v>25.297381370174278</v>
+        <v>25.29738137017428</v>
       </c>
       <c r="H116">
-        <v>0.42246844355213342</v>
+        <v>0.4224684435521334</v>
       </c>
       <c r="I116">
-        <v>3.443278078765788E-2</v>
+        <v>0.03443278078765788</v>
       </c>
       <c r="J116">
         <v>2117.61601844096</v>
       </c>
       <c r="K116">
-        <v>2.0659668472594732</v>
+        <v>2.065966847259473</v>
       </c>
       <c r="L116">
-        <v>4.2162588719581083E-2</v>
+        <v>0.04216258871958108</v>
       </c>
       <c r="M116" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>91</v>
       </c>
@@ -5648,13 +5621,13 @@
         <v>76</v>
       </c>
       <c r="C117">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D117" t="s">
         <v>154</v>
       </c>
       <c r="E117">
-        <v>971.30181747625306</v>
+        <v>971.3018174762531</v>
       </c>
       <c r="F117">
         <v>3068.342441407483</v>
@@ -5663,10 +5636,10 @@
         <v>10.50657922841989</v>
       </c>
       <c r="H117">
-        <v>7.0479078418426946E-2</v>
+        <v>0.07047907841842695</v>
       </c>
       <c r="I117">
-        <v>1.9426036349525059E-2</v>
+        <v>0.01942603634952506</v>
       </c>
       <c r="J117">
         <v>1194.701235495791</v>
@@ -5675,13 +5648,13 @@
         <v>1.165562180971504</v>
       </c>
       <c r="L117">
-        <v>2.3786983285132731E-2</v>
+        <v>0.02378698328513273</v>
       </c>
       <c r="M117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>92</v>
       </c>
@@ -5689,7 +5662,7 @@
         <v>84</v>
       </c>
       <c r="C118">
-        <v>0.63765658353333332</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D118" t="s">
         <v>138</v>
@@ -5698,31 +5671,31 @@
         <v>11828.23318816575</v>
       </c>
       <c r="F118">
-        <v>37365.388641415608</v>
+        <v>37365.38864141561</v>
       </c>
       <c r="G118">
-        <v>168.61571426041391</v>
+        <v>168.6157142604139</v>
       </c>
       <c r="H118">
-        <v>1.9101999257091691</v>
+        <v>1.910199925709169</v>
       </c>
       <c r="I118">
         <v>0.236564663763315</v>
       </c>
       <c r="J118">
-        <v>14548.726821443881</v>
+        <v>14548.72682144388</v>
       </c>
       <c r="K118">
         <v>14.1938798257989</v>
       </c>
       <c r="L118">
-        <v>0.28967101685303881</v>
+        <v>0.2896710168530388</v>
       </c>
       <c r="M118" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -5730,40 +5703,40 @@
         <v>79</v>
       </c>
       <c r="C119">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D119" t="s">
         <v>131</v>
       </c>
       <c r="E119">
-        <v>5601.5695571366723</v>
+        <v>5601.569557136672</v>
       </c>
       <c r="F119">
-        <v>17695.358230994749</v>
+        <v>17695.35823099475</v>
       </c>
       <c r="G119">
-        <v>64.589335810770706</v>
+        <v>64.58933581077071</v>
       </c>
       <c r="H119">
-        <v>0.70869601923236536</v>
+        <v>0.7086960192323654</v>
       </c>
       <c r="I119">
         <v>0.1120313911427334</v>
       </c>
       <c r="J119">
-        <v>6889.9305552781061</v>
+        <v>6889.930555278106</v>
       </c>
       <c r="K119">
-        <v>6.7218834685640054</v>
+        <v>6.721883468564005</v>
       </c>
       <c r="L119">
-        <v>0.13718129527681641</v>
+        <v>0.1371812952768164</v>
       </c>
       <c r="M119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>93</v>
       </c>
@@ -5771,7 +5744,7 @@
         <v>97</v>
       </c>
       <c r="C120">
-        <v>0.71190108223333326</v>
+        <v>0.7119010822333333</v>
       </c>
       <c r="D120" t="s">
         <v>155</v>
@@ -5780,16 +5753,16 @@
         <v>91.88115541551889</v>
       </c>
       <c r="F120">
-        <v>290.25256995762419</v>
+        <v>290.2525699576242</v>
       </c>
       <c r="G120">
         <v>1.391080692990956</v>
       </c>
       <c r="H120">
-        <v>4.7778200816069837E-2</v>
+        <v>0.04777820081606984</v>
       </c>
       <c r="I120">
-        <v>1.8376231083103781E-3</v>
+        <v>0.001837623108310378</v>
       </c>
       <c r="J120">
         <v>113.0138211610883</v>
@@ -5798,13 +5771,13 @@
         <v>0.1102573864986227</v>
       </c>
       <c r="L120">
-        <v>2.2501507448698509E-3</v>
+        <v>0.002250150744869851</v>
       </c>
       <c r="M120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>94</v>
       </c>
@@ -5812,40 +5785,40 @@
         <v>73</v>
       </c>
       <c r="C121">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D121" t="s">
         <v>137</v>
       </c>
       <c r="E121">
-        <v>10346.754325767781</v>
+        <v>10346.75432576778</v>
       </c>
       <c r="F121">
-        <v>32685.396915100409</v>
+        <v>32685.39691510041</v>
       </c>
       <c r="G121">
         <v>116.1451180066508</v>
       </c>
       <c r="H121">
-        <v>0.85203082852781031</v>
+        <v>0.8520308285278103</v>
       </c>
       <c r="I121">
         <v>0.2069350865153555</v>
       </c>
       <c r="J121">
-        <v>12726.507820694371</v>
+        <v>12726.50782069437</v>
       </c>
       <c r="K121">
         <v>12.41610519092133</v>
       </c>
       <c r="L121">
-        <v>0.25338990185553728</v>
+        <v>0.2533899018555373</v>
       </c>
       <c r="M121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>95</v>
       </c>
@@ -5853,40 +5826,40 @@
         <v>98</v>
       </c>
       <c r="C122">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D122" t="s">
         <v>133</v>
       </c>
       <c r="E122">
-        <v>607.36086807691379</v>
+        <v>607.3608680769138</v>
       </c>
       <c r="F122">
         <v>1918.652982254971</v>
       </c>
       <c r="G122">
-        <v>9.1954435426844761</v>
+        <v>9.195443542684476</v>
       </c>
       <c r="H122">
-        <v>0.31582765139999519</v>
+        <v>0.3158276513999952</v>
       </c>
       <c r="I122">
-        <v>1.214721736153828E-2</v>
+        <v>0.01214721736153828</v>
       </c>
       <c r="J122">
-        <v>747.05386773460395</v>
+        <v>747.053867734604</v>
       </c>
       <c r="K122">
-        <v>0.72883304169229657</v>
+        <v>0.7288330416922966</v>
       </c>
       <c r="L122">
-        <v>1.4874143708006051E-2</v>
+        <v>0.01487414370800605</v>
       </c>
       <c r="M122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>76</v>
       </c>
@@ -5894,40 +5867,40 @@
         <v>76</v>
       </c>
       <c r="C123">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D123" t="s">
         <v>127</v>
       </c>
       <c r="E123">
-        <v>55958.110856390449</v>
+        <v>55958.11085639045</v>
       </c>
       <c r="F123">
-        <v>176771.67219533739</v>
+        <v>176771.6721953374</v>
       </c>
       <c r="G123">
-        <v>1166.4116791806421</v>
+        <v>1166.411679180642</v>
       </c>
       <c r="H123">
-        <v>6.2918496254745113</v>
+        <v>6.291849625474511</v>
       </c>
       <c r="I123">
-        <v>1.1191622171278091</v>
+        <v>1.119162217127809</v>
       </c>
       <c r="J123">
-        <v>68828.476353360253</v>
+        <v>68828.47635336025</v>
       </c>
       <c r="K123">
-        <v>67.149733027668532</v>
+        <v>67.14973302766853</v>
       </c>
       <c r="L123">
-        <v>1.3704027148503779</v>
+        <v>1.370402714850378</v>
       </c>
       <c r="M123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>76</v>
       </c>
@@ -5935,40 +5908,40 @@
         <v>76</v>
       </c>
       <c r="C124">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D124" t="s">
         <v>127</v>
       </c>
       <c r="E124">
-        <v>55958.110856390449</v>
+        <v>55958.11085639045</v>
       </c>
       <c r="F124">
-        <v>176771.67219533739</v>
+        <v>176771.6721953374</v>
       </c>
       <c r="G124">
-        <v>1166.4116791806421</v>
+        <v>1166.411679180642</v>
       </c>
       <c r="H124">
-        <v>6.2918496254745113</v>
+        <v>6.291849625474511</v>
       </c>
       <c r="I124">
-        <v>1.1191622171278091</v>
+        <v>1.119162217127809</v>
       </c>
       <c r="J124">
-        <v>68828.476353360253</v>
+        <v>68828.47635336025</v>
       </c>
       <c r="K124">
-        <v>67.149733027668532</v>
+        <v>67.14973302766853</v>
       </c>
       <c r="L124">
-        <v>1.3704027148503779</v>
+        <v>1.370402714850378</v>
       </c>
       <c r="M124" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>73</v>
       </c>
@@ -5976,7 +5949,7 @@
         <v>73</v>
       </c>
       <c r="C125">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D125" t="s">
         <v>127</v>
@@ -5985,31 +5958,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F125">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G125">
         <v>2563.752966236701</v>
       </c>
       <c r="H125">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I125">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J125">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K125">
         <v>137.0630299488565</v>
       </c>
       <c r="L125">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M125" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -6017,7 +5990,7 @@
         <v>73</v>
       </c>
       <c r="C126">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D126" t="s">
         <v>127</v>
@@ -6026,31 +5999,31 @@
         <v>114219.1916240471</v>
       </c>
       <c r="F126">
-        <v>360818.42634036468</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G126">
         <v>2563.752966236701</v>
       </c>
       <c r="H126">
-        <v>9.6495493579761469</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I126">
-        <v>2.2843838324809411</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J126">
-        <v>140489.60569757791</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K126">
         <v>137.0630299488565</v>
       </c>
       <c r="L126">
-        <v>2.7972046928338048</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -6058,22 +6031,22 @@
         <v>96</v>
       </c>
       <c r="C127">
-        <v>0.63857805256666667</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D127" t="s">
         <v>131</v>
       </c>
       <c r="E127">
-        <v>9400.6688769382326</v>
+        <v>9400.668876938233</v>
       </c>
       <c r="F127">
-        <v>29696.712982247878</v>
+        <v>29696.71298224788</v>
       </c>
       <c r="G127">
         <v>104.1096280575871</v>
       </c>
       <c r="H127">
-        <v>0.83825167821513769</v>
+        <v>0.8382516782151377</v>
       </c>
       <c r="I127">
         <v>0.1880133775387646</v>
@@ -6091,7 +6064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>84</v>
       </c>
@@ -6099,7 +6072,7 @@
         <v>84</v>
       </c>
       <c r="C128">
-        <v>0.63765658353333332</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D128" t="s">
         <v>127</v>
@@ -6108,31 +6081,31 @@
         <v>111754.0296499184</v>
       </c>
       <c r="F128">
-        <v>353030.97966409218</v>
+        <v>353030.9796640922</v>
       </c>
       <c r="G128">
         <v>2513.793028524879</v>
       </c>
       <c r="H128">
-        <v>9.5758296901810152</v>
+        <v>9.575829690181015</v>
       </c>
       <c r="I128">
-        <v>2.2350805929983681</v>
+        <v>2.235080592998368</v>
       </c>
       <c r="J128">
-        <v>137457.45646939959</v>
+        <v>137457.4564693996</v>
       </c>
       <c r="K128">
-        <v>134.10483557990199</v>
+        <v>134.104835579902</v>
       </c>
       <c r="L128">
-        <v>2.7368333791816748</v>
+        <v>2.736833379181675</v>
       </c>
       <c r="M128" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -6140,7 +6113,7 @@
         <v>79</v>
       </c>
       <c r="C129">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D129" t="s">
         <v>153</v>
@@ -6152,28 +6125,28 @@
         <v>336409.0642759843</v>
       </c>
       <c r="G129">
-        <v>2116.8475395784199</v>
+        <v>2116.84753957842</v>
       </c>
       <c r="H129">
-        <v>8.5632436730312413</v>
+        <v>8.563243673031241</v>
       </c>
       <c r="I129">
-        <v>2.1298452945614712</v>
+        <v>2.129845294561471</v>
       </c>
       <c r="J129">
         <v>130985.4856155305</v>
       </c>
       <c r="K129">
-        <v>127.79071767368821</v>
+        <v>127.7907176736882</v>
       </c>
       <c r="L129">
-        <v>2.6079738300752702</v>
+        <v>2.60797383007527</v>
       </c>
       <c r="M129" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>97</v>
       </c>
@@ -6181,31 +6154,31 @@
         <v>97</v>
       </c>
       <c r="C130">
-        <v>0.69978361703333336</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="D130" t="s">
         <v>127</v>
       </c>
       <c r="E130">
-        <v>35300.299025853099</v>
+        <v>35300.2990258531</v>
       </c>
       <c r="F130">
         <v>111513.6446226699</v>
       </c>
       <c r="G130">
-        <v>710.60142388713439</v>
+        <v>710.6014238871344</v>
       </c>
       <c r="H130">
-        <v>5.8733627713704566</v>
+        <v>5.873362771370457</v>
       </c>
       <c r="I130">
-        <v>0.70600598051706176</v>
+        <v>0.7060059805170618</v>
       </c>
       <c r="J130">
-        <v>43419.367801799308</v>
+        <v>43419.36780179931</v>
       </c>
       <c r="K130">
-        <v>42.360358831023717</v>
+        <v>42.36035883102372</v>
       </c>
       <c r="L130">
         <v>0.8644971190004842</v>
@@ -6214,7 +6187,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>98</v>
       </c>
@@ -6222,22 +6195,22 @@
         <v>98</v>
       </c>
       <c r="C131">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D131" t="s">
         <v>139</v>
       </c>
       <c r="E131">
-        <v>8147.3570141231721</v>
+        <v>8147.357014123172</v>
       </c>
       <c r="F131">
-        <v>25737.500807615099</v>
+        <v>25737.5008076151</v>
       </c>
       <c r="G131">
-        <v>120.04247006993801</v>
+        <v>120.042470069938</v>
       </c>
       <c r="H131">
-        <v>0.86329573069021026</v>
+        <v>0.8632957306902103</v>
       </c>
       <c r="I131">
         <v>0.1629471402824634</v>
@@ -6246,16 +6219,16 @@
         <v>10021.2491273715</v>
       </c>
       <c r="K131">
-        <v>9.7768284169478044</v>
+        <v>9.776828416947804</v>
       </c>
       <c r="L131">
-        <v>0.19952711054995531</v>
+        <v>0.1995271105499553</v>
       </c>
       <c r="M131" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -6269,34 +6242,34 @@
         <v>148</v>
       </c>
       <c r="E132">
-        <v>8686.3989140263384</v>
+        <v>8686.398914026338</v>
       </c>
       <c r="F132">
-        <v>27440.334169409201</v>
+        <v>27440.3341694092</v>
       </c>
       <c r="G132">
-        <v>124.80093699550559</v>
+        <v>124.8009369955056</v>
       </c>
       <c r="H132">
-        <v>0.78548303315109602</v>
+        <v>0.785483033151096</v>
       </c>
       <c r="I132">
-        <v>0.17372797828052669</v>
+        <v>0.1737279782805267</v>
       </c>
       <c r="J132">
-        <v>10684.270664252401</v>
+        <v>10684.2706642524</v>
       </c>
       <c r="K132">
-        <v>10.423678696831599</v>
+        <v>10.4236786968316</v>
       </c>
       <c r="L132">
-        <v>0.21272813667003279</v>
+        <v>0.2127281366700328</v>
       </c>
       <c r="M132" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -6304,40 +6277,40 @@
         <v>14</v>
       </c>
       <c r="C133">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D133" t="s">
         <v>131</v>
       </c>
       <c r="E133">
-        <v>8150.4790988939376</v>
+        <v>8150.479098893938</v>
       </c>
       <c r="F133">
-        <v>25747.363473405949</v>
+        <v>25747.36347340595</v>
       </c>
       <c r="G133">
-        <v>92.449075544453692</v>
+        <v>92.44907554445369</v>
       </c>
       <c r="H133">
-        <v>0.78832225105597353</v>
+        <v>0.7883222510559735</v>
       </c>
       <c r="I133">
-        <v>0.16300958197787879</v>
+        <v>0.1630095819778788</v>
       </c>
       <c r="J133">
         <v>10025.08929163955</v>
       </c>
       <c r="K133">
-        <v>9.7805749186727251</v>
+        <v>9.780574918672725</v>
       </c>
       <c r="L133">
-        <v>0.19960356976883109</v>
+        <v>0.1996035697688311</v>
       </c>
       <c r="M133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -6345,7 +6318,7 @@
         <v>105</v>
       </c>
       <c r="C134">
-        <v>0.61483771219999994</v>
+        <v>0.6148377121999999</v>
       </c>
       <c r="D134" t="s">
         <v>125</v>
@@ -6354,31 +6327,31 @@
         <v>16113.64964432811</v>
       </c>
       <c r="F134">
-        <v>50903.019226432487</v>
+        <v>50903.01922643249</v>
       </c>
       <c r="G134">
-        <v>254.86549927336469</v>
+        <v>254.8654992733647</v>
       </c>
       <c r="H134">
-        <v>1.0661792343006939</v>
+        <v>1.066179234300694</v>
       </c>
       <c r="I134">
-        <v>0.32227299288656219</v>
+        <v>0.3222729928865622</v>
       </c>
       <c r="J134">
         <v>19819.78906252357</v>
       </c>
       <c r="K134">
-        <v>19.336379573193732</v>
+        <v>19.33637957319373</v>
       </c>
       <c r="L134">
-        <v>0.39461999128966802</v>
+        <v>0.394619991289668</v>
       </c>
       <c r="M134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>100</v>
       </c>
@@ -6386,7 +6359,7 @@
         <v>106</v>
       </c>
       <c r="C135">
-        <v>0.61308603779999993</v>
+        <v>0.6130860377999999</v>
       </c>
       <c r="D135" t="s">
         <v>123</v>
@@ -6398,13 +6371,13 @@
         <v>6400.401638872333</v>
       </c>
       <c r="G135">
-        <v>22.549276692336111</v>
+        <v>22.54927669233611</v>
       </c>
       <c r="H135">
         <v>0.7139707245949517</v>
       </c>
       <c r="I135">
-        <v>4.0521694453132848E-2</v>
+        <v>0.04052169445313285</v>
       </c>
       <c r="J135">
         <v>2492.08420886767</v>
@@ -6413,13 +6386,13 @@
         <v>2.431301667187971</v>
       </c>
       <c r="L135">
-        <v>4.9618401371183077E-2</v>
+        <v>0.04961840137118308</v>
       </c>
       <c r="M135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>35</v>
       </c>
@@ -6427,40 +6400,40 @@
         <v>79</v>
       </c>
       <c r="C136">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D136" t="s">
         <v>130</v>
       </c>
       <c r="E136">
-        <v>6515.6860448749758</v>
+        <v>6515.686044874976</v>
       </c>
       <c r="F136">
         <v>20583.05221576005</v>
       </c>
       <c r="G136">
-        <v>68.338250351472979</v>
+        <v>68.33825035147298</v>
       </c>
       <c r="H136">
-        <v>1.0066641948817769</v>
+        <v>1.006664194881777</v>
       </c>
       <c r="I136">
-        <v>0.13031372089749951</v>
+        <v>0.1303137208974995</v>
       </c>
       <c r="J136">
-        <v>8014.2938351962193</v>
+        <v>8014.293835196219</v>
       </c>
       <c r="K136">
-        <v>7.8188232538499696</v>
+        <v>7.81882325384997</v>
       </c>
       <c r="L136">
-        <v>0.15956782150714219</v>
+        <v>0.1595678215071422</v>
       </c>
       <c r="M136" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>101</v>
       </c>
@@ -6474,34 +6447,34 @@
         <v>131</v>
       </c>
       <c r="E137">
-        <v>7427.1262620473599</v>
+        <v>7427.12626204736</v>
       </c>
       <c r="F137">
         <v>23462.2918618076</v>
       </c>
       <c r="G137">
-        <v>84.149932445309503</v>
+        <v>84.1499324453095</v>
       </c>
       <c r="H137">
-        <v>0.69667850606845161</v>
+        <v>0.6966785060684516</v>
       </c>
       <c r="I137">
-        <v>0.14854252524094719</v>
+        <v>0.1485425252409472</v>
       </c>
       <c r="J137">
-        <v>9135.3653023182524</v>
+        <v>9135.365302318252</v>
       </c>
       <c r="K137">
-        <v>8.9125515144568297</v>
+        <v>8.91255151445683</v>
       </c>
       <c r="L137">
-        <v>0.18188880641748631</v>
+        <v>0.1818888064174863</v>
       </c>
       <c r="M137" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>102</v>
       </c>
@@ -6509,7 +6482,7 @@
         <v>107</v>
       </c>
       <c r="C138">
-        <v>0.64410686676666673</v>
+        <v>0.6441068667666667</v>
       </c>
       <c r="D138" t="s">
         <v>137</v>
@@ -6518,31 +6491,31 @@
         <v>1966.62536627345</v>
       </c>
       <c r="F138">
-        <v>6212.5695320578261</v>
+        <v>6212.569532057826</v>
       </c>
       <c r="G138">
-        <v>23.131738262198638</v>
+        <v>23.13173826219864</v>
       </c>
       <c r="H138">
-        <v>0.54425056511610648</v>
+        <v>0.5442505651161065</v>
       </c>
       <c r="I138">
-        <v>3.9332507325468981E-2</v>
+        <v>0.03933250732546898</v>
       </c>
       <c r="J138">
         <v>2418.949200516342</v>
       </c>
       <c r="K138">
-        <v>2.3599504395281392</v>
+        <v>2.359950439528139</v>
       </c>
       <c r="L138">
-        <v>4.8162253867921202E-2</v>
+        <v>0.0481622538679212</v>
       </c>
       <c r="M138" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>103</v>
       </c>
@@ -6550,7 +6523,7 @@
         <v>108</v>
       </c>
       <c r="C139">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D139" t="s">
         <v>148</v>
@@ -6562,28 +6535,28 @@
         <v>5635.031667783277</v>
       </c>
       <c r="G139">
-        <v>32.586962279411537</v>
+        <v>32.58696227941154</v>
       </c>
       <c r="H139">
-        <v>8.0897742929290542E-2</v>
+        <v>0.08089774292929054</v>
       </c>
       <c r="I139">
-        <v>3.567604727941296E-2</v>
+        <v>0.03567604727941296</v>
       </c>
       <c r="J139">
-        <v>2194.0769076838969</v>
+        <v>2194.076907683897</v>
       </c>
       <c r="K139">
         <v>2.140562836764778</v>
       </c>
       <c r="L139">
-        <v>4.3684955852342403E-2</v>
+        <v>0.0436849558523424</v>
       </c>
       <c r="M139" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>104</v>
       </c>
@@ -6591,40 +6564,40 @@
         <v>109</v>
       </c>
       <c r="C140">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D140" t="s">
         <v>156</v>
       </c>
       <c r="E140">
-        <v>519.35280336875735</v>
+        <v>519.3528033687573</v>
       </c>
       <c r="F140">
         <v>1640.635505841904</v>
       </c>
       <c r="G140">
-        <v>7.8630014430029851</v>
+        <v>7.863001443002985</v>
       </c>
       <c r="H140">
-        <v>0.27006345775175378</v>
+        <v>0.2700634577517538</v>
       </c>
       <c r="I140">
-        <v>1.0387056067375141E-2</v>
+        <v>0.01038705606737514</v>
       </c>
       <c r="J140">
-        <v>638.80394814357157</v>
+        <v>638.8039481435716</v>
       </c>
       <c r="K140">
-        <v>0.62322336404250878</v>
+        <v>0.6232233640425088</v>
       </c>
       <c r="L140">
-        <v>1.2718844164132831E-2</v>
+        <v>0.01271884416413283</v>
       </c>
       <c r="M140" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>72</v>
       </c>
@@ -6632,31 +6605,31 @@
         <v>72</v>
       </c>
       <c r="C141">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D141" t="s">
         <v>127</v>
       </c>
       <c r="E141">
-        <v>65141.195456496927</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F141">
         <v>205781.0364470738</v>
       </c>
       <c r="G141">
-        <v>1310.0052346494399</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H141">
-        <v>6.8465265181043424</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I141">
         <v>1.302823909129939</v>
       </c>
       <c r="J141">
-        <v>80123.670411491243</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K141">
-        <v>78.169434547796328</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L141">
         <v>1.595294582608088</v>
@@ -6665,7 +6638,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -6673,31 +6646,31 @@
         <v>14</v>
       </c>
       <c r="C142">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D142" t="s">
         <v>127</v>
       </c>
       <c r="E142">
-        <v>49612.248018995662</v>
+        <v>49612.24801899566</v>
       </c>
       <c r="F142">
-        <v>156725.09149200731</v>
+        <v>156725.0914920073</v>
       </c>
       <c r="G142">
         <v>1012.500926715771</v>
       </c>
       <c r="H142">
-        <v>6.5664807021024387</v>
+        <v>6.566480702102439</v>
       </c>
       <c r="I142">
-        <v>0.99224496037991328</v>
+        <v>0.9922449603799133</v>
       </c>
       <c r="J142">
-        <v>61023.065063364673</v>
+        <v>61023.06506336467</v>
       </c>
       <c r="K142">
-        <v>59.534697622794788</v>
+        <v>59.53469762279479</v>
       </c>
       <c r="L142">
         <v>1.214993829036628</v>
@@ -6706,7 +6679,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -6714,31 +6687,31 @@
         <v>14</v>
       </c>
       <c r="C143">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D143" t="s">
         <v>127</v>
       </c>
       <c r="E143">
-        <v>49612.248018995662</v>
+        <v>49612.24801899566</v>
       </c>
       <c r="F143">
-        <v>156725.09149200731</v>
+        <v>156725.0914920073</v>
       </c>
       <c r="G143">
         <v>1012.500926715771</v>
       </c>
       <c r="H143">
-        <v>6.5664807021024387</v>
+        <v>6.566480702102439</v>
       </c>
       <c r="I143">
-        <v>0.99224496037991328</v>
+        <v>0.9922449603799133</v>
       </c>
       <c r="J143">
-        <v>61023.065063364673</v>
+        <v>61023.06506336467</v>
       </c>
       <c r="K143">
-        <v>59.534697622794788</v>
+        <v>59.53469762279479</v>
       </c>
       <c r="L143">
         <v>1.214993829036628</v>
@@ -6747,7 +6720,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>105</v>
       </c>
@@ -6755,7 +6728,7 @@
         <v>105</v>
       </c>
       <c r="C144">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D144" t="s">
         <v>122</v>
@@ -6764,22 +6737,22 @@
         <v>26776.62289742479</v>
       </c>
       <c r="F144">
-        <v>84587.351732964918</v>
+        <v>84587.35173296492</v>
       </c>
       <c r="G144">
         <v>374.1524896696622</v>
       </c>
       <c r="H144">
-        <v>2.3586915489331912</v>
+        <v>2.358691548933191</v>
       </c>
       <c r="I144">
-        <v>0.53553245794849569</v>
+        <v>0.5355324579484957</v>
       </c>
       <c r="J144">
-        <v>32935.246163832497</v>
+        <v>32935.2461638325</v>
       </c>
       <c r="K144">
-        <v>32.131947476909751</v>
+        <v>32.13194747690975</v>
       </c>
       <c r="L144">
         <v>0.6557540301410153</v>
@@ -6788,7 +6761,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>106</v>
       </c>
@@ -6796,7 +6769,7 @@
         <v>106</v>
       </c>
       <c r="C145">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D145" t="s">
         <v>128</v>
@@ -6805,31 +6778,31 @@
         <v>20466.33671418775</v>
       </c>
       <c r="F145">
-        <v>64653.157680119082</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G145">
-        <v>292.75331603475303</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H145">
-        <v>1.0940931645813341</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I145">
-        <v>0.40932673428375488</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J145">
-        <v>25173.594158450931</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K145">
         <v>24.55960405702529</v>
       </c>
       <c r="L145">
-        <v>0.50121640932704681</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M145" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>79</v>
       </c>
@@ -6837,7 +6810,7 @@
         <v>79</v>
       </c>
       <c r="C146">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D146" t="s">
         <v>153</v>
@@ -6849,28 +6822,28 @@
         <v>336409.0642759843</v>
       </c>
       <c r="G146">
-        <v>2116.8475395784199</v>
+        <v>2116.84753957842</v>
       </c>
       <c r="H146">
-        <v>8.5632436730312413</v>
+        <v>8.563243673031241</v>
       </c>
       <c r="I146">
-        <v>2.1298452945614712</v>
+        <v>2.129845294561471</v>
       </c>
       <c r="J146">
         <v>130985.4856155305</v>
       </c>
       <c r="K146">
-        <v>127.79071767368821</v>
+        <v>127.7907176736882</v>
       </c>
       <c r="L146">
-        <v>2.6079738300752702</v>
+        <v>2.60797383007527</v>
       </c>
       <c r="M146" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
         <v>107</v>
       </c>
@@ -6878,40 +6851,40 @@
         <v>107</v>
       </c>
       <c r="C147">
-        <v>0.63765658353333332</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D147" t="s">
         <v>127</v>
       </c>
       <c r="E147">
-        <v>30129.005490174201</v>
+        <v>30129.0054901742</v>
       </c>
       <c r="F147">
-        <v>95177.528343460304</v>
+        <v>95177.5283434603</v>
       </c>
       <c r="G147">
-        <v>622.80682031464642</v>
+        <v>622.8068203146464</v>
       </c>
       <c r="H147">
-        <v>4.7174778240164077</v>
+        <v>4.717477824016408</v>
       </c>
       <c r="I147">
-        <v>0.60258010980348409</v>
+        <v>0.6025801098034841</v>
       </c>
       <c r="J147">
-        <v>37058.676752914267</v>
+        <v>37058.67675291427</v>
       </c>
       <c r="K147">
-        <v>36.154806588209041</v>
+        <v>36.15480658820904</v>
       </c>
       <c r="L147">
-        <v>0.73785319567773555</v>
+        <v>0.7378531956777356</v>
       </c>
       <c r="M147" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
         <v>108</v>
       </c>
@@ -6919,40 +6892,40 @@
         <v>108</v>
       </c>
       <c r="C148">
-        <v>0.71929534158064523</v>
+        <v>0.7192953415806452</v>
       </c>
       <c r="D148" t="s">
         <v>131</v>
       </c>
       <c r="E148">
-        <v>7456.3111311423418</v>
+        <v>7456.311131142342</v>
       </c>
       <c r="F148">
         <v>23554.48686327866</v>
       </c>
       <c r="G148">
-        <v>79.329963850067571</v>
+        <v>79.32996385006757</v>
       </c>
       <c r="H148">
-        <v>0.98530544217508109</v>
+        <v>0.9853054421750811</v>
       </c>
       <c r="I148">
-        <v>0.14912622262284689</v>
+        <v>0.1491262226228469</v>
       </c>
       <c r="J148">
-        <v>9171.2626913050808</v>
+        <v>9171.262691305081</v>
       </c>
       <c r="K148">
-        <v>8.9475733573708105</v>
+        <v>8.94757335737081</v>
       </c>
       <c r="L148">
-        <v>0.18260353790552669</v>
+        <v>0.1826035379055267</v>
       </c>
       <c r="M148" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>109</v>
       </c>
@@ -6960,22 +6933,22 @@
         <v>109</v>
       </c>
       <c r="C149">
-        <v>0.69877382826666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D149" t="s">
         <v>131</v>
       </c>
       <c r="E149">
-        <v>10900.733255890829</v>
+        <v>10900.73325589083</v>
       </c>
       <c r="F149">
-        <v>34435.416355359121</v>
+        <v>34435.41635535912</v>
       </c>
       <c r="G149">
-        <v>121.11445117305099</v>
+        <v>121.114451173051</v>
       </c>
       <c r="H149">
-        <v>1.0237417341576751</v>
+        <v>1.023741734157675</v>
       </c>
       <c r="I149">
         <v>0.2180146651178165</v>
@@ -6987,13 +6960,13 @@
         <v>13.08087990706899</v>
       </c>
       <c r="L149">
-        <v>0.26695673279732629</v>
+        <v>0.2669567327973263</v>
       </c>
       <c r="M149" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
         <v>110</v>
       </c>
@@ -7001,7 +6974,7 @@
         <v>106</v>
       </c>
       <c r="C150">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D150" t="s">
         <v>123</v>
@@ -7013,28 +6986,28 @@
         <v>10104.32505465342</v>
       </c>
       <c r="G150">
-        <v>35.724434132835142</v>
+        <v>35.72443413283514</v>
       </c>
       <c r="H150">
-        <v>0.59021871459070874</v>
+        <v>0.5902187145907087</v>
       </c>
       <c r="I150">
-        <v>6.3971668595463271E-2</v>
+        <v>0.06397166859546327</v>
       </c>
       <c r="J150">
-        <v>3934.2576186209922</v>
+        <v>3934.257618620992</v>
       </c>
       <c r="K150">
-        <v>3.8383001157277969</v>
+        <v>3.838300115727797</v>
       </c>
       <c r="L150">
-        <v>7.8332655423016248E-2</v>
+        <v>0.07833265542301625</v>
       </c>
       <c r="M150" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -7042,25 +7015,25 @@
         <v>111</v>
       </c>
       <c r="C151">
-        <v>0.81318515250000001</v>
+        <v>0.8131851525</v>
       </c>
       <c r="D151" t="s">
         <v>131</v>
       </c>
       <c r="E151">
-        <v>9645.7293692857747</v>
+        <v>9645.729369285775</v>
       </c>
       <c r="F151">
-        <v>30470.859077573761</v>
+        <v>30470.85907757376</v>
       </c>
       <c r="G151">
-        <v>111.33970107864459</v>
+        <v>111.3397010786446</v>
       </c>
       <c r="H151">
-        <v>0.80996538016017072</v>
+        <v>0.8099653801601707</v>
       </c>
       <c r="I151">
-        <v>0.19291458738571551</v>
+        <v>0.1929145873857155</v>
       </c>
       <c r="J151">
         <v>11864.2471242215</v>
@@ -7075,7 +7048,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
         <v>106</v>
       </c>
@@ -7083,7 +7056,7 @@
         <v>106</v>
       </c>
       <c r="C152">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D152" t="s">
         <v>128</v>
@@ -7092,31 +7065,31 @@
         <v>20466.33671418775</v>
       </c>
       <c r="F152">
-        <v>64653.157680119082</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G152">
-        <v>292.75331603475303</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H152">
-        <v>1.0940931645813341</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I152">
-        <v>0.40932673428375488</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J152">
-        <v>25173.594158450931</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K152">
         <v>24.55960405702529</v>
       </c>
       <c r="L152">
-        <v>0.50121640932704681</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M152" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>111</v>
       </c>
@@ -7124,40 +7097,40 @@
         <v>111</v>
       </c>
       <c r="C153">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D153" t="s">
         <v>152</v>
       </c>
       <c r="E153">
-        <v>145152.18210084879</v>
+        <v>145152.1821008488</v>
       </c>
       <c r="F153">
-        <v>458535.74325658119</v>
+        <v>458535.7432565812</v>
       </c>
       <c r="G153">
-        <v>2871.4521899726351</v>
+        <v>2871.452189972635</v>
       </c>
       <c r="H153">
-        <v>18.037676425320591</v>
+        <v>18.03767642532059</v>
       </c>
       <c r="I153">
         <v>2.903043642016975</v>
       </c>
       <c r="J153">
-        <v>178537.18398404401</v>
+        <v>178537.183984044</v>
       </c>
       <c r="K153">
         <v>174.1826185210185</v>
       </c>
       <c r="L153">
-        <v>3.5547473167554791</v>
+        <v>3.554747316755479</v>
       </c>
       <c r="M153" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -7165,28 +7138,28 @@
         <v>106</v>
       </c>
       <c r="C154">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D154" t="s">
         <v>131</v>
       </c>
       <c r="E154">
-        <v>4094.6651125027402</v>
+        <v>4094.66511250274</v>
       </c>
       <c r="F154">
         <v>12935.04709039616</v>
       </c>
       <c r="G154">
-        <v>47.544340881419707</v>
+        <v>47.54434088141971</v>
       </c>
       <c r="H154">
         <v>0.5820121121570897</v>
       </c>
       <c r="I154">
-        <v>8.1893302250054797E-2</v>
+        <v>0.0818933022500548</v>
       </c>
       <c r="J154">
-        <v>5036.4380883783706</v>
+        <v>5036.438088378371</v>
       </c>
       <c r="K154">
         <v>4.913598135003288</v>
@@ -7198,7 +7171,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
         <v>113</v>
       </c>
@@ -7206,40 +7179,40 @@
         <v>114</v>
       </c>
       <c r="C155">
-        <v>0.63857805256666667</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D155" t="s">
         <v>131</v>
       </c>
       <c r="E155">
-        <v>6848.2344733600476</v>
+        <v>6848.234473360048</v>
       </c>
       <c r="F155">
         <v>21633.57270134439</v>
       </c>
       <c r="G155">
-        <v>76.228979986761814</v>
+        <v>76.22897998676181</v>
       </c>
       <c r="H155">
-        <v>0.55463288147882484</v>
+        <v>0.5546328814788248</v>
       </c>
       <c r="I155">
-        <v>0.13696468946720089</v>
+        <v>0.1369646894672009</v>
       </c>
       <c r="J155">
-        <v>8423.3284022328589</v>
+        <v>8423.328402232859</v>
       </c>
       <c r="K155">
-        <v>8.2178813680320566</v>
+        <v>8.217881368032057</v>
       </c>
       <c r="L155">
-        <v>0.16771186465371549</v>
+        <v>0.1677118646537155</v>
       </c>
       <c r="M155" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
         <v>54</v>
       </c>
@@ -7247,28 +7220,28 @@
         <v>111</v>
       </c>
       <c r="C156">
-        <v>0.78739383233333338</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D156" t="s">
         <v>148</v>
       </c>
       <c r="E156">
-        <v>9454.0619249884185</v>
+        <v>9454.061924988418</v>
       </c>
       <c r="F156">
-        <v>29865.381621038421</v>
+        <v>29865.38162103842</v>
       </c>
       <c r="G156">
-        <v>146.64737704381909</v>
+        <v>146.6473770438191</v>
       </c>
       <c r="H156">
-        <v>0.31175001119401091</v>
+        <v>0.3117500111940109</v>
       </c>
       <c r="I156">
-        <v>0.18908123849976841</v>
+        <v>0.1890812384997684</v>
       </c>
       <c r="J156">
-        <v>11628.496167735761</v>
+        <v>11628.49616773576</v>
       </c>
       <c r="K156">
         <v>11.3448743099861</v>
@@ -7280,7 +7253,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>106</v>
       </c>
@@ -7288,7 +7261,7 @@
         <v>106</v>
       </c>
       <c r="C157">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D157" t="s">
         <v>128</v>
@@ -7297,31 +7270,31 @@
         <v>20466.33671418775</v>
       </c>
       <c r="F157">
-        <v>64653.157680119082</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G157">
-        <v>292.75331603475303</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H157">
-        <v>1.0940931645813341</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I157">
-        <v>0.40932673428375488</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J157">
-        <v>25173.594158450931</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K157">
         <v>24.55960405702529</v>
       </c>
       <c r="L157">
-        <v>0.50121640932704681</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M157" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
         <v>114</v>
       </c>
@@ -7329,16 +7302,16 @@
         <v>114</v>
       </c>
       <c r="C158">
-        <v>0.63765658353333332</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D158" t="s">
         <v>157</v>
       </c>
       <c r="E158">
-        <v>86828.490408721831</v>
+        <v>86828.49040872183</v>
       </c>
       <c r="F158">
-        <v>274291.20120115229</v>
+        <v>274291.2012011523</v>
       </c>
       <c r="G158">
         <v>1314.633026537286</v>
@@ -7356,13 +7329,13 @@
         <v>104.1941884904662</v>
       </c>
       <c r="L158">
-        <v>2.1264120100095139</v>
+        <v>2.126412010009514</v>
       </c>
       <c r="M158" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
         <v>111</v>
       </c>
@@ -7370,40 +7343,40 @@
         <v>111</v>
       </c>
       <c r="C159">
-        <v>0.75174210653333329</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D159" t="s">
         <v>152</v>
       </c>
       <c r="E159">
-        <v>145152.18210084879</v>
+        <v>145152.1821008488</v>
       </c>
       <c r="F159">
-        <v>458535.74325658119</v>
+        <v>458535.7432565812</v>
       </c>
       <c r="G159">
-        <v>2871.4521899726351</v>
+        <v>2871.452189972635</v>
       </c>
       <c r="H159">
-        <v>18.037676425320591</v>
+        <v>18.03767642532059</v>
       </c>
       <c r="I159">
         <v>2.903043642016975</v>
       </c>
       <c r="J159">
-        <v>178537.18398404401</v>
+        <v>178537.183984044</v>
       </c>
       <c r="K159">
         <v>174.1826185210185</v>
       </c>
       <c r="L159">
-        <v>3.5547473167554791</v>
+        <v>3.554747316755479</v>
       </c>
       <c r="M159" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -7411,40 +7384,40 @@
         <v>106</v>
       </c>
       <c r="C160">
-        <v>0.61045852619999996</v>
+        <v>0.6104585262</v>
       </c>
       <c r="D160" t="s">
         <v>123</v>
       </c>
       <c r="E160">
-        <v>4921.6249320578418</v>
+        <v>4921.624932057842</v>
       </c>
       <c r="F160">
-        <v>15547.413160370719</v>
+        <v>15547.41316037072</v>
       </c>
       <c r="G160">
-        <v>51.578770781575187</v>
+        <v>51.57877078157519</v>
       </c>
       <c r="H160">
-        <v>1.0236998058271141</v>
+        <v>1.023699805827114</v>
       </c>
       <c r="I160">
-        <v>9.8432498641156857E-2</v>
+        <v>0.09843249864115686</v>
       </c>
       <c r="J160">
-        <v>6053.5986664311467</v>
+        <v>6053.598666431147</v>
       </c>
       <c r="K160">
-        <v>5.9059499184694104</v>
+        <v>5.90594991846941</v>
       </c>
       <c r="L160">
-        <v>0.12052959017284511</v>
+        <v>0.1205295901728451</v>
       </c>
       <c r="M160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
         <v>106</v>
       </c>
@@ -7452,7 +7425,7 @@
         <v>106</v>
       </c>
       <c r="C161">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D161" t="s">
         <v>128</v>
@@ -7461,31 +7434,31 @@
         <v>20466.33671418775</v>
       </c>
       <c r="F161">
-        <v>64653.157680119082</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G161">
-        <v>292.75331603475303</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H161">
-        <v>1.0940931645813341</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I161">
-        <v>0.40932673428375488</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J161">
-        <v>25173.594158450931</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K161">
         <v>24.55960405702529</v>
       </c>
       <c r="L161">
-        <v>0.50121640932704681</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
         <v>116</v>
       </c>
@@ -7493,19 +7466,19 @@
         <v>118</v>
       </c>
       <c r="C162">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D162" t="s">
         <v>131</v>
       </c>
       <c r="E162">
-        <v>7395.4573621959189</v>
+        <v>7395.457362195919</v>
       </c>
       <c r="F162">
-        <v>23362.249807176911</v>
+        <v>23362.24980717691</v>
       </c>
       <c r="G162">
-        <v>84.826906994744377</v>
+        <v>84.82690699474438</v>
       </c>
       <c r="H162">
         <v>0.6903361436993305</v>
@@ -7514,19 +7487,19 @@
         <v>0.1479091472439184</v>
       </c>
       <c r="J162">
-        <v>9096.4125555009796</v>
+        <v>9096.41255550098</v>
       </c>
       <c r="K162">
-        <v>8.8745488346351031</v>
+        <v>8.874548834635103</v>
       </c>
       <c r="L162">
-        <v>0.18111324152316541</v>
+        <v>0.1811132415231654</v>
       </c>
       <c r="M162" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
         <v>117</v>
       </c>
@@ -7534,7 +7507,7 @@
         <v>106</v>
       </c>
       <c r="C163">
-        <v>0.61221020059999998</v>
+        <v>0.6122102006</v>
       </c>
       <c r="D163" t="s">
         <v>158</v>
@@ -7543,31 +7516,31 @@
         <v>27340.01065406952</v>
       </c>
       <c r="F163">
-        <v>86367.093656205616</v>
+        <v>86367.09365620562</v>
       </c>
       <c r="G163">
-        <v>360.65260795358989</v>
+        <v>360.6526079535899</v>
       </c>
       <c r="H163">
-        <v>4.4784098559518224</v>
+        <v>4.478409855951822</v>
       </c>
       <c r="I163">
-        <v>0.54680021308139026</v>
+        <v>0.5468002130813903</v>
       </c>
       <c r="J163">
-        <v>33628.213104505507</v>
+        <v>33628.21310450551</v>
       </c>
       <c r="K163">
-        <v>32.808012784883417</v>
+        <v>32.80801278488342</v>
       </c>
       <c r="L163">
-        <v>0.66955128132415154</v>
+        <v>0.6695512813241515</v>
       </c>
       <c r="M163" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
         <v>118</v>
       </c>
@@ -7575,7 +7548,7 @@
         <v>118</v>
       </c>
       <c r="C164">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D164" t="s">
         <v>127</v>
@@ -7584,31 +7557,31 @@
         <v>24058.50779562063</v>
       </c>
       <c r="F164">
-        <v>76000.826126365559</v>
+        <v>76000.82612636556</v>
       </c>
       <c r="G164">
-        <v>497.05751732137992</v>
+        <v>497.0575173213799</v>
       </c>
       <c r="H164">
-        <v>4.0412422023319596</v>
+        <v>4.04124220233196</v>
       </c>
       <c r="I164">
-        <v>0.48117015591241252</v>
+        <v>0.4811701559124125</v>
       </c>
       <c r="J164">
-        <v>29591.964588613369</v>
+        <v>29591.96458861337</v>
       </c>
       <c r="K164">
-        <v>28.870209354744759</v>
+        <v>28.87020935474476</v>
       </c>
       <c r="L164">
-        <v>0.58918794601519897</v>
+        <v>0.589187946015199</v>
       </c>
       <c r="M164" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
         <v>106</v>
       </c>
@@ -7616,7 +7589,7 @@
         <v>106</v>
       </c>
       <c r="C165">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D165" t="s">
         <v>128</v>
@@ -7625,31 +7598,31 @@
         <v>20466.33671418775</v>
       </c>
       <c r="F165">
-        <v>64653.157680119082</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G165">
-        <v>292.75331603475303</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H165">
-        <v>1.0940931645813341</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I165">
-        <v>0.40932673428375488</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J165">
-        <v>25173.594158450931</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K165">
         <v>24.55960405702529</v>
       </c>
       <c r="L165">
-        <v>0.50121640932704681</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M165" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
         <v>119</v>
       </c>
@@ -7657,7 +7630,7 @@
         <v>118</v>
       </c>
       <c r="C166">
-        <v>0.61045852619999996</v>
+        <v>0.6104585262</v>
       </c>
       <c r="D166" t="s">
         <v>132</v>
@@ -7666,31 +7639,31 @@
         <v>24238.95218202574</v>
       </c>
       <c r="F166">
-        <v>76570.849943019304</v>
+        <v>76570.8499430193</v>
       </c>
       <c r="G166">
-        <v>466.62198642272392</v>
+        <v>466.6219864227239</v>
       </c>
       <c r="H166">
-        <v>0.75091739944181013</v>
+        <v>0.7509173994418101</v>
       </c>
       <c r="I166">
-        <v>0.48477904364051461</v>
+        <v>0.4847790436405146</v>
       </c>
       <c r="J166">
-        <v>29813.911183891651</v>
+        <v>29813.91118389165</v>
       </c>
       <c r="K166">
-        <v>29.086742618430879</v>
+        <v>29.08674261843088</v>
       </c>
       <c r="L166">
-        <v>0.59360699221287505</v>
+        <v>0.5936069922128751</v>
       </c>
       <c r="M166" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
         <v>120</v>
       </c>
@@ -7698,31 +7671,31 @@
         <v>121</v>
       </c>
       <c r="C167">
-        <v>0.66161477899999999</v>
+        <v>0.661614779</v>
       </c>
       <c r="D167" t="s">
         <v>141</v>
       </c>
       <c r="E167">
-        <v>4220.1694470825369</v>
+        <v>4220.169447082537</v>
       </c>
       <c r="F167">
-        <v>13331.515283333731</v>
+        <v>13331.51528333373</v>
       </c>
       <c r="G167">
-        <v>48.940937962127151</v>
+        <v>48.94093796212715</v>
       </c>
       <c r="H167">
-        <v>0.15027416183007761</v>
+        <v>0.1502741618300776</v>
       </c>
       <c r="I167">
-        <v>8.4403388941650739E-2</v>
+        <v>0.08440338894165074</v>
       </c>
       <c r="J167">
-        <v>5190.8084199115192</v>
+        <v>5190.808419911519</v>
       </c>
       <c r="K167">
-        <v>5.0642033364990446</v>
+        <v>5.064203336499045</v>
       </c>
       <c r="L167">
         <v>0.1033510884999805</v>
@@ -7731,7 +7704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
         <v>118</v>
       </c>
@@ -7739,7 +7712,7 @@
         <v>118</v>
       </c>
       <c r="C168">
-        <v>0.60607934019999998</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D168" t="s">
         <v>127</v>
@@ -7748,31 +7721,31 @@
         <v>24058.50779562063</v>
       </c>
       <c r="F168">
-        <v>76000.826126365559</v>
+        <v>76000.82612636556</v>
       </c>
       <c r="G168">
-        <v>497.05751732137992</v>
+        <v>497.0575173213799</v>
       </c>
       <c r="H168">
-        <v>4.0412422023319596</v>
+        <v>4.04124220233196</v>
       </c>
       <c r="I168">
-        <v>0.48117015591241252</v>
+        <v>0.4811701559124125</v>
       </c>
       <c r="J168">
-        <v>29591.964588613369</v>
+        <v>29591.96458861337</v>
       </c>
       <c r="K168">
-        <v>28.870209354744759</v>
+        <v>28.87020935474476</v>
       </c>
       <c r="L168">
-        <v>0.58918794601519897</v>
+        <v>0.589187946015199</v>
       </c>
       <c r="M168" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
         <v>121</v>
       </c>
@@ -7780,31 +7753,31 @@
         <v>121</v>
       </c>
       <c r="C169">
-        <v>0.63857805256666667</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D169" t="s">
         <v>131</v>
       </c>
       <c r="E169">
-        <v>6852.0378404295834</v>
+        <v>6852.037840429583</v>
       </c>
       <c r="F169">
         <v>21645.58753791705</v>
       </c>
       <c r="G169">
-        <v>80.453477250191128</v>
+        <v>80.45347725019113</v>
       </c>
       <c r="H169">
-        <v>0.72681124632858729</v>
+        <v>0.7268112463285873</v>
       </c>
       <c r="I169">
-        <v>0.13704075680859171</v>
+        <v>0.1370407568085917</v>
       </c>
       <c r="J169">
-        <v>8428.0065437283884</v>
+        <v>8428.006543728388</v>
       </c>
       <c r="K169">
-        <v>8.2224454085154992</v>
+        <v>8.222445408515499</v>
       </c>
       <c r="L169">
         <v>0.167805008337051</v>

--- a/output/flights_non_direct_missing30.xlsx
+++ b/output/flights_non_direct_missing30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="157">
   <si>
     <t>origin_airport</t>
   </si>
@@ -67,9 +67,6 @@
     <t>FZAA</t>
   </si>
   <si>
-    <t>GOOY</t>
-  </si>
-  <si>
     <t>DIAP</t>
   </si>
   <si>
@@ -232,15 +229,15 @@
     <t>FNLU</t>
   </si>
   <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>SBGR</t>
+  </si>
+  <si>
     <t>GOBD</t>
   </si>
   <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>SBGR</t>
-  </si>
-  <si>
     <t>FIMP</t>
   </si>
   <si>
@@ -295,36 +292,33 @@
     <t>AYPY</t>
   </si>
   <si>
+    <t>SMJP</t>
+  </si>
+  <si>
+    <t>LUKK</t>
+  </si>
+  <si>
+    <t>UKOO</t>
+  </si>
+  <si>
+    <t>LROP</t>
+  </si>
+  <si>
+    <t>DBBB</t>
+  </si>
+  <si>
+    <t>HBBA</t>
+  </si>
+  <si>
+    <t>DRRN</t>
+  </si>
+  <si>
+    <t>VQPR</t>
+  </si>
+  <si>
     <t>LIPR</t>
   </si>
   <si>
-    <t>SMJP</t>
-  </si>
-  <si>
-    <t>LUKK</t>
-  </si>
-  <si>
-    <t>UKOO</t>
-  </si>
-  <si>
-    <t>LIPZ</t>
-  </si>
-  <si>
-    <t>LROP</t>
-  </si>
-  <si>
-    <t>DBBB</t>
-  </si>
-  <si>
-    <t>HBBA</t>
-  </si>
-  <si>
-    <t>DRRN</t>
-  </si>
-  <si>
-    <t>VQPR</t>
-  </si>
-  <si>
     <t>LCEN</t>
   </si>
   <si>
@@ -340,6 +334,9 @@
     <t>VECC</t>
   </si>
   <si>
+    <t>LIRF</t>
+  </si>
+  <si>
     <t>LTAI</t>
   </si>
   <si>
@@ -394,9 +391,6 @@
     <t>A333</t>
   </si>
   <si>
-    <t>B350</t>
-  </si>
-  <si>
     <t>B77W</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t>AT76</t>
   </si>
   <si>
-    <t>A124</t>
-  </si>
-  <si>
     <t>CRJ2</t>
   </si>
   <si>
@@ -481,7 +472,7 @@
     <t>E145</t>
   </si>
   <si>
-    <t>PC12</t>
+    <t>D228</t>
   </si>
   <si>
     <t>AT72</t>
@@ -851,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>0.6078310146</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2">
         <v>4349.248038692969</v>
@@ -936,7 +927,7 @@
         <v>0.1065121968659502</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -950,7 +941,7 @@
         <v>0.6113343634</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>1397.528605872545</v>
@@ -977,7 +968,7 @@
         <v>0.03422519034789905</v>
       </c>
       <c r="M3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -985,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>0.7517421065333333</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4">
         <v>1577.426378307265</v>
@@ -1018,7 +1009,7 @@
         <v>0.03863085008099425</v>
       </c>
       <c r="M4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1026,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>0.613961875</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5">
         <v>4823.481158895389</v>
@@ -1059,7 +1050,7 @@
         <v>0.1181260691974381</v>
       </c>
       <c r="M5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1067,40 +1058,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <v>0.6148377121999999</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6">
-        <v>35.29363700506268</v>
+        <v>5064.038695611086</v>
       </c>
       <c r="F6">
-        <v>111.492599298993</v>
+        <v>15997.29823943542</v>
       </c>
       <c r="G6">
-        <v>0.534345664256649</v>
+        <v>152.8251869198426</v>
       </c>
       <c r="H6">
-        <v>0.01835269124263259</v>
+        <v>2.379406920275061</v>
       </c>
       <c r="I6">
-        <v>0.0007058727401012536</v>
+        <v>0.1012807739122217</v>
       </c>
       <c r="J6">
-        <v>43.41117351622708</v>
+        <v>6228.767595601636</v>
       </c>
       <c r="K6">
-        <v>0.0423523644060752</v>
+        <v>6.076846434733303</v>
       </c>
       <c r="L6">
-        <v>0.0008643339674709224</v>
+        <v>0.1240172741782307</v>
       </c>
       <c r="M6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1108,40 +1099,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7">
-        <v>0.6060793402</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E7">
-        <v>5064.038695611086</v>
+        <v>16519.90658018283</v>
       </c>
       <c r="F7">
-        <v>15997.29823943542</v>
+        <v>52186.38488679755</v>
       </c>
       <c r="G7">
-        <v>152.8251869198426</v>
+        <v>255.8071248270587</v>
       </c>
       <c r="H7">
-        <v>2.379406920275061</v>
+        <v>1.980184041412662</v>
       </c>
       <c r="I7">
-        <v>0.1012807739122217</v>
+        <v>0.3303981316036566</v>
       </c>
       <c r="J7">
-        <v>6228.767595601636</v>
+        <v>20319.48509362488</v>
       </c>
       <c r="K7">
-        <v>6.076846434733303</v>
+        <v>19.82388789621939</v>
       </c>
       <c r="L7">
-        <v>0.1240172741782307</v>
+        <v>0.4045691407391713</v>
       </c>
       <c r="M7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1149,40 +1140,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>0.7873938323333334</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E8">
-        <v>16519.90658018283</v>
+        <v>13642.56712937946</v>
       </c>
       <c r="F8">
-        <v>52186.38488679755</v>
+        <v>43096.86956170971</v>
       </c>
       <c r="G8">
-        <v>255.8071248270587</v>
+        <v>329.3154231582465</v>
       </c>
       <c r="H8">
-        <v>1.980184041412662</v>
+        <v>0.008631455696090012</v>
       </c>
       <c r="I8">
-        <v>0.3303981316036566</v>
+        <v>0.2728513425875891</v>
       </c>
       <c r="J8">
-        <v>20319.48509362488</v>
+        <v>16780.35756913674</v>
       </c>
       <c r="K8">
-        <v>19.82388789621939</v>
+        <v>16.37108055525535</v>
       </c>
       <c r="L8">
-        <v>0.4045691407391713</v>
+        <v>0.3341036848011296</v>
       </c>
       <c r="M8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1190,40 +1181,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9">
-        <v>0.7873938323333334</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9">
-        <v>13642.56712937946</v>
+        <v>1217.996650526557</v>
       </c>
       <c r="F9">
-        <v>43096.86956170971</v>
+        <v>3847.651419013392</v>
       </c>
       <c r="G9">
-        <v>329.3154231582465</v>
+        <v>12.76609653915568</v>
       </c>
       <c r="H9">
-        <v>0.008631455696090012</v>
+        <v>0.06077203022697598</v>
       </c>
       <c r="I9">
-        <v>0.2728513425875891</v>
+        <v>0.02435993301053113</v>
       </c>
       <c r="J9">
-        <v>16780.35756913674</v>
+        <v>1498.135880147665</v>
       </c>
       <c r="K9">
-        <v>16.37108055525535</v>
+        <v>1.461595980631868</v>
       </c>
       <c r="L9">
-        <v>0.3341036848011296</v>
+        <v>0.02982848940065037</v>
       </c>
       <c r="M9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1231,40 +1222,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>0.6060793402</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10">
-        <v>1217.996650526557</v>
+        <v>960.5177120450292</v>
       </c>
       <c r="F10">
-        <v>3847.651419013392</v>
+        <v>3034.275452350247</v>
       </c>
       <c r="G10">
-        <v>12.76609653915568</v>
+        <v>11.24385857171652</v>
       </c>
       <c r="H10">
-        <v>0.06077203022697598</v>
+        <v>0.1910871935555381</v>
       </c>
       <c r="I10">
-        <v>0.02435993301053113</v>
+        <v>0.01921035424090058</v>
       </c>
       <c r="J10">
-        <v>1498.135880147665</v>
+        <v>1181.436785815386</v>
       </c>
       <c r="K10">
-        <v>1.461595980631868</v>
+        <v>1.152621254454035</v>
       </c>
       <c r="L10">
-        <v>0.02982848940065037</v>
+        <v>0.0235228827439599</v>
       </c>
       <c r="M10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1272,40 +1263,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>0.6060793402</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E11">
-        <v>960.5177120450292</v>
+        <v>1906.881543318927</v>
       </c>
       <c r="F11">
-        <v>3034.275452350247</v>
+        <v>6023.838795344491</v>
       </c>
       <c r="G11">
-        <v>11.24385857171652</v>
+        <v>29.7386675676928</v>
       </c>
       <c r="H11">
-        <v>0.1910871935555381</v>
+        <v>0.7848692895429037</v>
       </c>
       <c r="I11">
-        <v>0.01921035424090058</v>
+        <v>0.03813763086637854</v>
       </c>
       <c r="J11">
-        <v>1181.436785815386</v>
+        <v>2345.464298282281</v>
       </c>
       <c r="K11">
-        <v>1.152621254454035</v>
+        <v>2.288257851982713</v>
       </c>
       <c r="L11">
-        <v>0.0235228827439599</v>
+        <v>0.04669913983638189</v>
       </c>
       <c r="M11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1313,7 +1304,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>0.6060793402</v>
@@ -1322,31 +1313,31 @@
         <v>125</v>
       </c>
       <c r="E12">
-        <v>1906.881543318927</v>
+        <v>6929.964072104741</v>
       </c>
       <c r="F12">
-        <v>6023.838795344491</v>
+        <v>21891.75650377887</v>
       </c>
       <c r="G12">
-        <v>29.7386675676928</v>
+        <v>182.9479879406647</v>
       </c>
       <c r="H12">
-        <v>0.7848692895429037</v>
+        <v>2.867136789223154</v>
       </c>
       <c r="I12">
-        <v>0.03813763086637854</v>
+        <v>0.1385992814420948</v>
       </c>
       <c r="J12">
-        <v>2345.464298282281</v>
+        <v>8523.85580868883</v>
       </c>
       <c r="K12">
-        <v>2.288257851982713</v>
+        <v>8.315956886525687</v>
       </c>
       <c r="L12">
-        <v>0.04669913983638189</v>
+        <v>0.169713405847463</v>
       </c>
       <c r="M12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1354,40 +1345,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13">
-        <v>0.6060793402</v>
+        <v>0.6087068517999999</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E13">
-        <v>6929.964072104741</v>
+        <v>6765.404130585668</v>
       </c>
       <c r="F13">
-        <v>21891.75650377887</v>
+        <v>21371.91164852012</v>
       </c>
       <c r="G13">
-        <v>182.9479879406647</v>
+        <v>140.3410767401061</v>
       </c>
       <c r="H13">
-        <v>2.867136789223154</v>
+        <v>1.060259405730153</v>
       </c>
       <c r="I13">
-        <v>0.1385992814420948</v>
+        <v>0.1353080826117133</v>
       </c>
       <c r="J13">
-        <v>8523.85580868883</v>
+        <v>8321.447080620372</v>
       </c>
       <c r="K13">
-        <v>8.315956886525687</v>
+        <v>8.118484956702801</v>
       </c>
       <c r="L13">
-        <v>0.169713405847463</v>
+        <v>0.1656833664633225</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1395,40 +1386,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>0.6087068517999999</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E14">
-        <v>6765.404130585668</v>
+        <v>3477.00318247119</v>
       </c>
       <c r="F14">
-        <v>21371.91164852012</v>
+        <v>10983.85305342649</v>
       </c>
       <c r="G14">
-        <v>140.3410767401061</v>
+        <v>42.71206403493111</v>
       </c>
       <c r="H14">
-        <v>1.060259405730153</v>
+        <v>0.4687530421401612</v>
       </c>
       <c r="I14">
-        <v>0.1353080826117133</v>
+        <v>0.06954006364942383</v>
       </c>
       <c r="J14">
-        <v>8321.447080620372</v>
+        <v>4276.713914439563</v>
       </c>
       <c r="K14">
-        <v>8.118484956702801</v>
+        <v>4.172403818965427</v>
       </c>
       <c r="L14">
-        <v>0.1656833664633225</v>
+        <v>0.08515109834623323</v>
       </c>
       <c r="M14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1436,40 +1427,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C15">
-        <v>0.6087068517999999</v>
+        <v>0.6069551773999999</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15">
-        <v>3477.00318247119</v>
+        <v>8072.957452852395</v>
       </c>
       <c r="F15">
-        <v>10983.85305342649</v>
+        <v>25502.47259356072</v>
       </c>
       <c r="G15">
-        <v>42.71206403493111</v>
+        <v>188.3602344505564</v>
       </c>
       <c r="H15">
-        <v>0.4687530421401612</v>
+        <v>0.6672156681161387</v>
       </c>
       <c r="I15">
-        <v>0.06954006364942383</v>
+        <v>0.1614591490570479</v>
       </c>
       <c r="J15">
-        <v>4276.713914439563</v>
+        <v>9929.737667008447</v>
       </c>
       <c r="K15">
-        <v>4.172403818965427</v>
+        <v>9.687548943422875</v>
       </c>
       <c r="L15">
-        <v>0.08515109834623323</v>
+        <v>0.1977050804780179</v>
       </c>
       <c r="M15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1477,40 +1468,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16">
-        <v>0.6069551773999999</v>
+        <v>0.6215053763548387</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E16">
-        <v>8072.957452852395</v>
+        <v>5728.472335693227</v>
       </c>
       <c r="F16">
-        <v>25502.47259356072</v>
+        <v>18096.2441084549</v>
       </c>
       <c r="G16">
-        <v>188.3602344505564</v>
+        <v>105.4781276811603</v>
       </c>
       <c r="H16">
-        <v>0.6672156681161387</v>
+        <v>2.222080767355322</v>
       </c>
       <c r="I16">
-        <v>0.1614591490570479</v>
+        <v>0.1145694467138645</v>
       </c>
       <c r="J16">
-        <v>9929.737667008447</v>
+        <v>7046.020972902668</v>
       </c>
       <c r="K16">
-        <v>9.687548943422875</v>
+        <v>6.87416680283187</v>
       </c>
       <c r="L16">
-        <v>0.1977050804780179</v>
+        <v>0.1402891184251402</v>
       </c>
       <c r="M16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1518,40 +1509,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C17">
-        <v>0.6215053763548387</v>
+        <v>0.6069551773999999</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E17">
-        <v>5728.472335693227</v>
+        <v>458.8869786188049</v>
       </c>
       <c r="F17">
-        <v>18096.2441084549</v>
+        <v>1449.623965456804</v>
       </c>
       <c r="G17">
-        <v>105.4781276811603</v>
+        <v>6.947548856288706</v>
       </c>
       <c r="H17">
-        <v>2.222080767355322</v>
+        <v>0.2386212288817786</v>
       </c>
       <c r="I17">
-        <v>0.1145694467138645</v>
+        <v>0.009177739572376097</v>
       </c>
       <c r="J17">
-        <v>7046.020972902668</v>
+        <v>564.43098370113</v>
       </c>
       <c r="K17">
-        <v>6.87416680283187</v>
+        <v>0.5506643743425659</v>
       </c>
       <c r="L17">
-        <v>0.1402891184251402</v>
+        <v>0.01123804845597073</v>
       </c>
       <c r="M17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1559,40 +1550,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C18">
-        <v>0.6069551773999999</v>
+        <v>0.6193299095483871</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E18">
-        <v>458.8869786188049</v>
+        <v>8646.299472953118</v>
       </c>
       <c r="F18">
-        <v>1449.623965456804</v>
+        <v>27313.6600350589</v>
       </c>
       <c r="G18">
-        <v>6.947548856288706</v>
+        <v>144.4198633342289</v>
       </c>
       <c r="H18">
-        <v>0.2386212288817786</v>
+        <v>1.691548651808485</v>
       </c>
       <c r="I18">
-        <v>0.009177739572376097</v>
+        <v>0.1729259894590624</v>
       </c>
       <c r="J18">
-        <v>564.43098370113</v>
+        <v>10634.94835173234</v>
       </c>
       <c r="K18">
-        <v>0.5506643743425659</v>
+        <v>10.37555936754374</v>
       </c>
       <c r="L18">
-        <v>0.01123804845597073</v>
+        <v>0.2117461095417091</v>
       </c>
       <c r="M18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1600,40 +1591,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19">
-        <v>0.6191321398387096</v>
+        <v>0.789669537</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E19">
-        <v>21300.93475669321</v>
+        <v>5812.11048652724</v>
       </c>
       <c r="F19">
-        <v>67289.65289639386</v>
+        <v>18360.45702693955</v>
       </c>
       <c r="G19">
-        <v>322.4961522163352</v>
+        <v>69.07385421499262</v>
       </c>
       <c r="H19">
-        <v>11.07648607348047</v>
+        <v>0.6622031556468861</v>
       </c>
       <c r="I19">
-        <v>0.4260186951338641</v>
+        <v>0.1162422097305448</v>
       </c>
       <c r="J19">
-        <v>26200.14975073265</v>
+        <v>7148.895898428505</v>
       </c>
       <c r="K19">
-        <v>25.56112170803186</v>
+        <v>6.974532583832687</v>
       </c>
       <c r="L19">
-        <v>0.5216555450618745</v>
+        <v>0.1423373996700548</v>
       </c>
       <c r="M19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1641,40 +1632,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20">
-        <v>0.789669537</v>
+        <v>0.6217031460645162</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E20">
-        <v>5812.11048652724</v>
+        <v>1058.033077193275</v>
       </c>
       <c r="F20">
-        <v>18360.45702693955</v>
+        <v>3342.326490853555</v>
       </c>
       <c r="G20">
-        <v>69.07385421499262</v>
+        <v>8.595784274148462</v>
       </c>
       <c r="H20">
-        <v>0.6622031556468861</v>
+        <v>0.2704708233212196</v>
       </c>
       <c r="I20">
-        <v>0.1162422097305448</v>
+        <v>0.0211606615438655</v>
       </c>
       <c r="J20">
-        <v>7148.895898428505</v>
+        <v>1301.380684947728</v>
       </c>
       <c r="K20">
-        <v>6.974532583832687</v>
+        <v>1.26963969263193</v>
       </c>
       <c r="L20">
-        <v>0.1423373996700548</v>
+        <v>0.02591101413534551</v>
       </c>
       <c r="M20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1685,37 +1676,37 @@
         <v>77</v>
       </c>
       <c r="C21">
-        <v>0.6217031460645162</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E21">
-        <v>1058.033077193275</v>
+        <v>298.859516483682</v>
       </c>
       <c r="F21">
-        <v>3342.326490853555</v>
+        <v>944.0972125719513</v>
       </c>
       <c r="G21">
-        <v>8.595784274148462</v>
+        <v>4.524733079562945</v>
       </c>
       <c r="H21">
-        <v>0.2704708233212196</v>
+        <v>0.1554069485715147</v>
       </c>
       <c r="I21">
-        <v>0.0211606615438655</v>
+        <v>0.005977190329673639</v>
       </c>
       <c r="J21">
-        <v>1301.380684947728</v>
+        <v>367.5972052749287</v>
       </c>
       <c r="K21">
-        <v>1.26963969263193</v>
+        <v>0.3586314197804183</v>
       </c>
       <c r="L21">
-        <v>0.02591101413534551</v>
+        <v>0.007319008566947313</v>
       </c>
       <c r="M21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1723,40 +1714,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22">
-        <v>0.6987738282666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E22">
-        <v>298.859516483682</v>
+        <v>5880.887521413031</v>
       </c>
       <c r="F22">
-        <v>944.0972125719513</v>
+        <v>18577.72368014377</v>
       </c>
       <c r="G22">
-        <v>4.524733079562945</v>
+        <v>106.4337130814273</v>
       </c>
       <c r="H22">
-        <v>0.1554069485715147</v>
+        <v>0.5074371218688005</v>
       </c>
       <c r="I22">
-        <v>0.005977190329673639</v>
+        <v>0.1176177504282606</v>
       </c>
       <c r="J22">
-        <v>367.5972052749287</v>
+        <v>7233.491651338029</v>
       </c>
       <c r="K22">
-        <v>0.3586314197804183</v>
+        <v>7.057065025695638</v>
       </c>
       <c r="L22">
-        <v>0.007319008566947313</v>
+        <v>0.1440217352182783</v>
       </c>
       <c r="M22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1764,40 +1755,40 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23">
-        <v>0.6060793402</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E23">
-        <v>5880.887521413031</v>
+        <v>4753.680571911947</v>
       </c>
       <c r="F23">
-        <v>18577.72368014377</v>
+        <v>15016.87692666984</v>
       </c>
       <c r="G23">
-        <v>106.4337130814273</v>
+        <v>56.38102296907266</v>
       </c>
       <c r="H23">
-        <v>0.5074371218688005</v>
+        <v>0.5611475287231397</v>
       </c>
       <c r="I23">
-        <v>0.1176177504282606</v>
+        <v>0.09507361143823892</v>
       </c>
       <c r="J23">
-        <v>7233.491651338029</v>
+        <v>5847.027103451694</v>
       </c>
       <c r="K23">
-        <v>7.057065025695638</v>
+        <v>5.704416686294334</v>
       </c>
       <c r="L23">
-        <v>0.1440217352182783</v>
+        <v>0.1164166670672313</v>
       </c>
       <c r="M23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1805,40 +1796,40 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>0.7873938323333334</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E24">
-        <v>4753.680571911947</v>
+        <v>2938.836809493242</v>
       </c>
       <c r="F24">
-        <v>15016.87692666984</v>
+        <v>9283.78548118915</v>
       </c>
       <c r="G24">
-        <v>56.38102296907266</v>
+        <v>33.08235410896451</v>
       </c>
       <c r="H24">
-        <v>0.5611475287231397</v>
+        <v>0.9863847034493594</v>
       </c>
       <c r="I24">
-        <v>0.09507361143823892</v>
+        <v>0.05877673618986483</v>
       </c>
       <c r="J24">
-        <v>5847.027103451694</v>
+        <v>3614.769275676687</v>
       </c>
       <c r="K24">
-        <v>5.704416686294334</v>
+        <v>3.52660417139189</v>
       </c>
       <c r="L24">
-        <v>0.1164166670672313</v>
+        <v>0.07197151370187531</v>
       </c>
       <c r="M24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1849,37 +1840,37 @@
         <v>79</v>
       </c>
       <c r="C25">
-        <v>0.7873938323333334</v>
+        <v>0.654094402516129</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25">
-        <v>2938.836809493242</v>
+        <v>16032.84597627062</v>
       </c>
       <c r="F25">
-        <v>9283.78548118915</v>
+        <v>50647.7604390389</v>
       </c>
       <c r="G25">
-        <v>33.08235410896451</v>
+        <v>238.3978566226788</v>
       </c>
       <c r="H25">
-        <v>0.9863847034493594</v>
+        <v>1.654867958642882</v>
       </c>
       <c r="I25">
-        <v>0.05877673618986483</v>
+        <v>0.3206569195254125</v>
       </c>
       <c r="J25">
-        <v>3614.769275676687</v>
+        <v>19720.40055081287</v>
       </c>
       <c r="K25">
-        <v>3.52660417139189</v>
+        <v>19.23941517152475</v>
       </c>
       <c r="L25">
-        <v>0.07197151370187531</v>
+        <v>0.3926411259494846</v>
       </c>
       <c r="M25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1887,40 +1878,40 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C26">
-        <v>0.654094402516129</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E26">
-        <v>16032.84597627062</v>
+        <v>16023.69824509905</v>
       </c>
       <c r="F26">
-        <v>50647.7604390389</v>
+        <v>50618.86275626791</v>
       </c>
       <c r="G26">
-        <v>238.3978566226788</v>
+        <v>225.7148171119761</v>
       </c>
       <c r="H26">
-        <v>1.654867958642882</v>
+        <v>2.035355361169084</v>
       </c>
       <c r="I26">
-        <v>0.3206569195254125</v>
+        <v>0.3204739649019811</v>
       </c>
       <c r="J26">
-        <v>19720.40055081287</v>
+        <v>19709.14884147184</v>
       </c>
       <c r="K26">
-        <v>19.23941517152475</v>
+        <v>19.22843789411886</v>
       </c>
       <c r="L26">
-        <v>0.3926411259494846</v>
+        <v>0.3924170998799768</v>
       </c>
       <c r="M26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1928,40 +1919,40 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>0.7873938323333334</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E27">
-        <v>16023.69824509905</v>
+        <v>3757.582145797975</v>
       </c>
       <c r="F27">
-        <v>50618.86275626791</v>
+        <v>11870.2019985758</v>
       </c>
       <c r="G27">
-        <v>225.7148171119761</v>
+        <v>63.54297565733935</v>
       </c>
       <c r="H27">
-        <v>2.035355361169084</v>
+        <v>0.4547232089425979</v>
       </c>
       <c r="I27">
-        <v>0.3204739649019811</v>
+        <v>0.07515164291595947</v>
       </c>
       <c r="J27">
-        <v>19709.14884147184</v>
+        <v>4621.826039331508</v>
       </c>
       <c r="K27">
-        <v>19.22843789411886</v>
+        <v>4.509098574957568</v>
       </c>
       <c r="L27">
-        <v>0.3924170998799768</v>
+        <v>0.09202241989709323</v>
       </c>
       <c r="M27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1969,40 +1960,40 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>0.7873938323333334</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E28">
-        <v>3757.582145797975</v>
+        <v>1793.08578742061</v>
       </c>
       <c r="F28">
-        <v>11870.2019985758</v>
+        <v>5664.358002461708</v>
       </c>
       <c r="G28">
-        <v>63.54297565733935</v>
+        <v>24.60386453037332</v>
       </c>
       <c r="H28">
-        <v>0.4547232089425979</v>
+        <v>0.4007685617338447</v>
       </c>
       <c r="I28">
-        <v>0.07515164291595947</v>
+        <v>0.03586171574841221</v>
       </c>
       <c r="J28">
-        <v>4621.826039331508</v>
+        <v>2205.495518527351</v>
       </c>
       <c r="K28">
-        <v>4.509098574957568</v>
+        <v>2.151702944904732</v>
       </c>
       <c r="L28">
-        <v>0.09202241989709323</v>
+        <v>0.04391230499805576</v>
       </c>
       <c r="M28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2010,40 +2001,40 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>0.7873938323333334</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E29">
-        <v>1793.08578742061</v>
+        <v>3274.288130345249</v>
       </c>
       <c r="F29">
-        <v>5664.358002461708</v>
+        <v>10343.47620376064</v>
       </c>
       <c r="G29">
-        <v>24.60386453037332</v>
+        <v>40.70305128716938</v>
       </c>
       <c r="H29">
-        <v>0.4007685617338447</v>
+        <v>0.5382004559809699</v>
       </c>
       <c r="I29">
-        <v>0.03586171574841221</v>
+        <v>0.06548576260690499</v>
       </c>
       <c r="J29">
-        <v>2205.495518527351</v>
+        <v>4027.374400324657</v>
       </c>
       <c r="K29">
-        <v>2.151702944904732</v>
+        <v>3.929145756414298</v>
       </c>
       <c r="L29">
-        <v>0.04391230499805576</v>
+        <v>0.08018664809008774</v>
       </c>
       <c r="M29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2051,40 +2042,40 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>0.7873938323333334</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E30">
-        <v>3274.288130345249</v>
+        <v>6289.579473868485</v>
       </c>
       <c r="F30">
-        <v>10343.47620376064</v>
+        <v>19868.78155795055</v>
       </c>
       <c r="G30">
-        <v>40.70305128716938</v>
+        <v>75.74696521151155</v>
       </c>
       <c r="H30">
-        <v>0.5382004559809699</v>
+        <v>0.7698959773457693</v>
       </c>
       <c r="I30">
-        <v>0.06548576260690499</v>
+        <v>0.1257915894773697</v>
       </c>
       <c r="J30">
-        <v>4027.374400324657</v>
+        <v>7736.18275285824</v>
       </c>
       <c r="K30">
-        <v>3.929145756414298</v>
+        <v>7.547495368642181</v>
       </c>
       <c r="L30">
-        <v>0.08018664809008774</v>
+        <v>0.1540305177273915</v>
       </c>
       <c r="M30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2092,40 +2083,40 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>0.7873938323333334</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E31">
-        <v>6289.579473868485</v>
+        <v>5446.620039232379</v>
       </c>
       <c r="F31">
-        <v>19868.78155795055</v>
+        <v>17205.87270393508</v>
       </c>
       <c r="G31">
-        <v>75.74696521151155</v>
+        <v>65.49056509427999</v>
       </c>
       <c r="H31">
-        <v>0.7698959773457693</v>
+        <v>0.6938512728086657</v>
       </c>
       <c r="I31">
-        <v>0.1257915894773697</v>
+        <v>0.1089324007846476</v>
       </c>
       <c r="J31">
-        <v>7736.18275285824</v>
+        <v>6699.342648255825</v>
       </c>
       <c r="K31">
-        <v>7.547495368642181</v>
+        <v>6.535944047078853</v>
       </c>
       <c r="L31">
-        <v>0.1540305177273915</v>
+        <v>0.1333866132056909</v>
       </c>
       <c r="M31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2133,40 +2124,40 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32">
-        <v>0.7873938323333334</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E32">
-        <v>5446.620039232379</v>
+        <v>6206.270517259537</v>
       </c>
       <c r="F32">
-        <v>17205.87270393508</v>
+        <v>19605.60856402287</v>
       </c>
       <c r="G32">
-        <v>65.49056509427999</v>
+        <v>64.95057859886121</v>
       </c>
       <c r="H32">
-        <v>0.6938512728086657</v>
+        <v>0.2544393902346608</v>
       </c>
       <c r="I32">
-        <v>0.1089324007846476</v>
+        <v>0.1241254103451907</v>
       </c>
       <c r="J32">
-        <v>6699.342648255825</v>
+        <v>7633.712736229229</v>
       </c>
       <c r="K32">
-        <v>6.535944047078853</v>
+        <v>7.447524620711443</v>
       </c>
       <c r="L32">
-        <v>0.1333866132056909</v>
+        <v>0.1519902983818662</v>
       </c>
       <c r="M32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2177,37 +2168,37 @@
         <v>81</v>
       </c>
       <c r="C33">
-        <v>0.6997836170333334</v>
+        <v>0.6613076226666667</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E33">
-        <v>6206.270517259537</v>
+        <v>3010.245421148802</v>
       </c>
       <c r="F33">
-        <v>19605.60856402287</v>
+        <v>9509.365285409063</v>
       </c>
       <c r="G33">
-        <v>64.95057859886121</v>
+        <v>44.9943990053436</v>
       </c>
       <c r="H33">
-        <v>0.2544393902346608</v>
+        <v>0.1652321801808448</v>
       </c>
       <c r="I33">
-        <v>0.1241254103451907</v>
+        <v>0.06020490842297604</v>
       </c>
       <c r="J33">
-        <v>7633.712736229229</v>
+        <v>3702.601868013026</v>
       </c>
       <c r="K33">
-        <v>7.447524620711443</v>
+        <v>3.612294505378562</v>
       </c>
       <c r="L33">
-        <v>0.1519902983818662</v>
+        <v>0.07372029602813393</v>
       </c>
       <c r="M33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2215,40 +2206,40 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C34">
-        <v>0.6613076226666667</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E34">
-        <v>3010.245421148802</v>
+        <v>7222.527999841925</v>
       </c>
       <c r="F34">
-        <v>9509.365285409063</v>
+        <v>22815.96595150064</v>
       </c>
       <c r="G34">
-        <v>44.9943990053436</v>
+        <v>119.9580321375346</v>
       </c>
       <c r="H34">
-        <v>0.1652321801808448</v>
+        <v>0.6824268909352194</v>
       </c>
       <c r="I34">
-        <v>0.06020490842297604</v>
+        <v>0.1444505599968385</v>
       </c>
       <c r="J34">
-        <v>3702.601868013026</v>
+        <v>8883.709439805567</v>
       </c>
       <c r="K34">
-        <v>3.612294505378562</v>
+        <v>8.66703359981031</v>
       </c>
       <c r="L34">
-        <v>0.07372029602813393</v>
+        <v>0.1768782367308226</v>
       </c>
       <c r="M34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2256,40 +2247,40 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>0.7873938323333334</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E35">
-        <v>7222.527999841925</v>
+        <v>1350.522176832009</v>
       </c>
       <c r="F35">
-        <v>22815.96595150064</v>
+        <v>4266.299556612317</v>
       </c>
       <c r="G35">
-        <v>119.9580321375346</v>
+        <v>15.99060801711543</v>
       </c>
       <c r="H35">
-        <v>0.6824268909352194</v>
+        <v>0.4732905401432789</v>
       </c>
       <c r="I35">
-        <v>0.1444505599968385</v>
+        <v>0.0270104435366402</v>
       </c>
       <c r="J35">
-        <v>8883.709439805567</v>
+        <v>1661.142277503372</v>
       </c>
       <c r="K35">
-        <v>8.66703359981031</v>
+        <v>1.620626612198412</v>
       </c>
       <c r="L35">
-        <v>0.1768782367308226</v>
+        <v>0.03307401249384514</v>
       </c>
       <c r="M35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2297,40 +2288,40 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C36">
-        <v>0.7873938323333334</v>
+        <v>0.6413424596666667</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E36">
-        <v>1350.522176832009</v>
+        <v>1609.102225319905</v>
       </c>
       <c r="F36">
-        <v>4266.299556612317</v>
+        <v>5083.15392978558</v>
       </c>
       <c r="G36">
-        <v>15.99060801711543</v>
+        <v>16.85972482336987</v>
       </c>
       <c r="H36">
-        <v>0.4732905401432789</v>
+        <v>0.06971420571449218</v>
       </c>
       <c r="I36">
-        <v>0.0270104435366402</v>
+        <v>0.03218204450639809</v>
       </c>
       <c r="J36">
-        <v>1661.142277503372</v>
+        <v>1979.195737143483</v>
       </c>
       <c r="K36">
-        <v>1.620626612198412</v>
+        <v>1.930922670383886</v>
       </c>
       <c r="L36">
-        <v>0.03307401249384514</v>
+        <v>0.03940658510987522</v>
       </c>
       <c r="M36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2338,40 +2329,40 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>0.6413424596666667</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E37">
-        <v>1609.102225319905</v>
+        <v>3783.827910749053</v>
       </c>
       <c r="F37">
-        <v>5083.15392978558</v>
+        <v>11953.11237005626</v>
       </c>
       <c r="G37">
-        <v>16.85972482336987</v>
+        <v>46.17465830734314</v>
       </c>
       <c r="H37">
-        <v>0.06971420571449218</v>
+        <v>0.5200913197860584</v>
       </c>
       <c r="I37">
-        <v>0.03218204450639809</v>
+        <v>0.07567655821498104</v>
       </c>
       <c r="J37">
-        <v>1979.195737143483</v>
+        <v>4654.108330221334</v>
       </c>
       <c r="K37">
-        <v>1.930922670383886</v>
+        <v>4.540593492898862</v>
       </c>
       <c r="L37">
-        <v>0.03940658510987522</v>
+        <v>0.09266517332446658</v>
       </c>
       <c r="M37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2379,40 +2370,40 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C38">
-        <v>0.7873938323333334</v>
+        <v>0.65055715</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E38">
-        <v>3783.827910749053</v>
+        <v>6333.529585905795</v>
       </c>
       <c r="F38">
-        <v>11953.11237005626</v>
+        <v>20007.61996187641</v>
       </c>
       <c r="G38">
-        <v>46.17465830734314</v>
+        <v>82.13961430074191</v>
       </c>
       <c r="H38">
-        <v>0.5200913197860584</v>
+        <v>0.4172119632380501</v>
       </c>
       <c r="I38">
-        <v>0.07567655821498104</v>
+        <v>0.1266705917181159</v>
       </c>
       <c r="J38">
-        <v>4654.108330221334</v>
+        <v>7790.241390664128</v>
       </c>
       <c r="K38">
-        <v>4.540593492898862</v>
+        <v>7.600235503086955</v>
       </c>
       <c r="L38">
-        <v>0.09266517332446658</v>
+        <v>0.1551068470017746</v>
       </c>
       <c r="M38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2420,40 +2411,40 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C39">
-        <v>0.65055715</v>
+        <v>0.7885316846666667</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E39">
-        <v>6333.529585905795</v>
+        <v>6185.431612156505</v>
       </c>
       <c r="F39">
-        <v>20007.61996187641</v>
+        <v>19539.7784628024</v>
       </c>
       <c r="G39">
-        <v>82.13961430074191</v>
+        <v>66.00065692430381</v>
       </c>
       <c r="H39">
-        <v>0.4172119632380501</v>
+        <v>0.8255703017149124</v>
       </c>
       <c r="I39">
-        <v>0.1266705917181159</v>
+        <v>0.1237086322431301</v>
       </c>
       <c r="J39">
-        <v>7790.241390664128</v>
+        <v>7608.080882952501</v>
       </c>
       <c r="K39">
-        <v>7.600235503086955</v>
+        <v>7.422517934587807</v>
       </c>
       <c r="L39">
-        <v>0.1551068470017746</v>
+        <v>0.1514799578487308</v>
       </c>
       <c r="M39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2461,40 +2452,40 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C40">
-        <v>0.7885316846666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E40">
-        <v>6185.431612156505</v>
+        <v>1101.557311762491</v>
       </c>
       <c r="F40">
-        <v>19539.7784628024</v>
+        <v>3479.819547857707</v>
       </c>
       <c r="G40">
-        <v>66.00065692430381</v>
+        <v>15.88379333314379</v>
       </c>
       <c r="H40">
-        <v>0.8255703017149124</v>
+        <v>0.2691530724017764</v>
       </c>
       <c r="I40">
-        <v>0.1237086322431301</v>
+        <v>0.02203114623524981</v>
       </c>
       <c r="J40">
-        <v>7608.080882952501</v>
+        <v>1354.915493467864</v>
       </c>
       <c r="K40">
-        <v>7.422517934587807</v>
+        <v>1.321868774114989</v>
       </c>
       <c r="L40">
-        <v>0.1514799578487308</v>
+        <v>0.02697691375744875</v>
       </c>
       <c r="M40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2502,40 +2493,40 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C41">
-        <v>0.6987738282666667</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E41">
-        <v>1101.557311762491</v>
+        <v>10612.5307457616</v>
       </c>
       <c r="F41">
-        <v>3479.819547857707</v>
+        <v>33524.9846258609</v>
       </c>
       <c r="G41">
-        <v>15.88379333314379</v>
+        <v>150.1252934924788</v>
       </c>
       <c r="H41">
-        <v>0.2691530724017764</v>
+        <v>1.894319487710745</v>
       </c>
       <c r="I41">
-        <v>0.02203114623524981</v>
+        <v>0.212250614915232</v>
       </c>
       <c r="J41">
-        <v>1354.915493467864</v>
+        <v>13053.41281728677</v>
       </c>
       <c r="K41">
-        <v>1.321868774114989</v>
+        <v>12.73503689491392</v>
       </c>
       <c r="L41">
-        <v>0.02697691375744875</v>
+        <v>0.2598987121411004</v>
       </c>
       <c r="M41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2543,40 +2534,40 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42">
         <v>0.7873938323333334</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E42">
-        <v>10612.5307457616</v>
+        <v>7518.901634138316</v>
       </c>
       <c r="F42">
-        <v>33524.9846258609</v>
+        <v>23752.21026224293</v>
       </c>
       <c r="G42">
-        <v>150.1252934924788</v>
+        <v>134.9859155553434</v>
       </c>
       <c r="H42">
-        <v>1.894319487710745</v>
+        <v>0.5175813807561531</v>
       </c>
       <c r="I42">
-        <v>0.212250614915232</v>
+        <v>0.1503780326827663</v>
       </c>
       <c r="J42">
-        <v>13053.41281728677</v>
+        <v>9248.249009990128</v>
       </c>
       <c r="K42">
-        <v>12.73503689491392</v>
+        <v>9.022681960965977</v>
       </c>
       <c r="L42">
-        <v>0.2598987121411004</v>
+        <v>0.1841363665503261</v>
       </c>
       <c r="M42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2584,40 +2575,40 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43">
         <v>0.7873938323333334</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E43">
-        <v>7518.901634138316</v>
+        <v>6074.866282484772</v>
       </c>
       <c r="F43">
-        <v>23752.21026224293</v>
+        <v>19190.5025863694</v>
       </c>
       <c r="G43">
-        <v>134.9859155553434</v>
+        <v>106.9668194713925</v>
       </c>
       <c r="H43">
-        <v>0.5175813807561531</v>
+        <v>5.583861222920733</v>
       </c>
       <c r="I43">
-        <v>0.1503780326827663</v>
+        <v>0.1214973256496954</v>
       </c>
       <c r="J43">
-        <v>9248.249009990128</v>
+        <v>7472.085527456271</v>
       </c>
       <c r="K43">
-        <v>9.022681960965977</v>
+        <v>7.289839538981727</v>
       </c>
       <c r="L43">
-        <v>0.1841363665503261</v>
+        <v>0.148772235489423</v>
       </c>
       <c r="M43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2625,40 +2616,40 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C44">
-        <v>0.7873938323333334</v>
+        <v>0.6477927429</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E44">
-        <v>6074.866282484772</v>
+        <v>1886.335729614525</v>
       </c>
       <c r="F44">
-        <v>19190.5025863694</v>
+        <v>5958.934569852285</v>
       </c>
       <c r="G44">
-        <v>106.9668194713925</v>
+        <v>26.38333093935995</v>
       </c>
       <c r="H44">
-        <v>5.583861222920733</v>
+        <v>0.423058592318216</v>
       </c>
       <c r="I44">
-        <v>0.1214973256496954</v>
+        <v>0.0377267145922905</v>
       </c>
       <c r="J44">
-        <v>7472.085527456271</v>
+        <v>2320.192947425866</v>
       </c>
       <c r="K44">
-        <v>7.289839538981727</v>
+        <v>2.26360287553743</v>
       </c>
       <c r="L44">
-        <v>0.148772235489423</v>
+        <v>0.04619597705178429</v>
       </c>
       <c r="M44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2666,40 +2657,40 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C45">
-        <v>0.6477927429</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E45">
-        <v>1886.335729614525</v>
+        <v>6833.208076335683</v>
       </c>
       <c r="F45">
-        <v>5958.934569852285</v>
+        <v>21586.10431314442</v>
       </c>
       <c r="G45">
-        <v>26.38333093935995</v>
+        <v>80.58034185651545</v>
       </c>
       <c r="H45">
-        <v>0.423058592318216</v>
+        <v>0.8190991268189557</v>
       </c>
       <c r="I45">
-        <v>0.0377267145922905</v>
+        <v>0.1366641615267137</v>
       </c>
       <c r="J45">
-        <v>2320.192947425866</v>
+        <v>8404.84593389289</v>
       </c>
       <c r="K45">
-        <v>2.26360287553743</v>
+        <v>8.19984969160282</v>
       </c>
       <c r="L45">
-        <v>0.04619597705178429</v>
+        <v>0.1673438712572004</v>
       </c>
       <c r="M45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2707,40 +2698,40 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C46">
-        <v>0.7873938323333334</v>
+        <v>0.7885316846666667</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E46">
-        <v>6833.208076335683</v>
+        <v>6963.566391572002</v>
       </c>
       <c r="F46">
-        <v>21586.10431314442</v>
+        <v>21997.90623097595</v>
       </c>
       <c r="G46">
-        <v>80.58034185651545</v>
+        <v>112.9376300709096</v>
       </c>
       <c r="H46">
-        <v>0.8190991268189557</v>
+        <v>0.6537848717314791</v>
       </c>
       <c r="I46">
-        <v>0.1366641615267137</v>
+        <v>0.13927132783144</v>
       </c>
       <c r="J46">
-        <v>8404.84593389289</v>
+        <v>8565.186661633563</v>
       </c>
       <c r="K46">
-        <v>8.19984969160282</v>
+        <v>8.356279669886401</v>
       </c>
       <c r="L46">
-        <v>0.1673438712572004</v>
+        <v>0.1705363197936</v>
       </c>
       <c r="M46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2748,40 +2739,40 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C47">
-        <v>0.7885316846666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E47">
-        <v>6963.566391572002</v>
+        <v>1241.812590155973</v>
       </c>
       <c r="F47">
-        <v>21997.90623097595</v>
+        <v>3922.885972302719</v>
       </c>
       <c r="G47">
-        <v>112.9376300709096</v>
+        <v>24.25144729519003</v>
       </c>
       <c r="H47">
-        <v>0.6537848717314791</v>
+        <v>0.01875345641171579</v>
       </c>
       <c r="I47">
-        <v>0.13927132783144</v>
+        <v>0.02483625180311946</v>
       </c>
       <c r="J47">
-        <v>8565.186661633563</v>
+        <v>1527.429485891847</v>
       </c>
       <c r="K47">
-        <v>8.356279669886401</v>
+        <v>1.490175108187168</v>
       </c>
       <c r="L47">
-        <v>0.1705363197936</v>
+        <v>0.03041173690177894</v>
       </c>
       <c r="M47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2789,40 +2780,40 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C48">
-        <v>0.6987738282666667</v>
+        <v>0.6213076066451613</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E48">
-        <v>1241.812590155973</v>
+        <v>3154.375694198904</v>
       </c>
       <c r="F48">
-        <v>3922.885972302719</v>
+        <v>9964.672817974335</v>
       </c>
       <c r="G48">
-        <v>24.25144729519003</v>
+        <v>86.71324679492544</v>
       </c>
       <c r="H48">
-        <v>0.01875345641171579</v>
+        <v>0.2401316066721233</v>
       </c>
       <c r="I48">
-        <v>0.02483625180311946</v>
+        <v>0.06308751388397806</v>
       </c>
       <c r="J48">
-        <v>1527.429485891847</v>
+        <v>3879.882103864651</v>
       </c>
       <c r="K48">
-        <v>1.490175108187168</v>
+        <v>3.785250833038684</v>
       </c>
       <c r="L48">
-        <v>0.03041173690177894</v>
+        <v>0.07725001700078947</v>
       </c>
       <c r="M48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2830,40 +2821,40 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C49">
-        <v>0.6213076066451613</v>
+        <v>0.789669537</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E49">
-        <v>3154.375694198904</v>
+        <v>6107.594266716484</v>
       </c>
       <c r="F49">
-        <v>9964.672817974335</v>
+        <v>19293.89028855737</v>
       </c>
       <c r="G49">
-        <v>86.71324679492544</v>
+        <v>85.22030367867779</v>
       </c>
       <c r="H49">
-        <v>0.2401316066721233</v>
+        <v>0.6416824238248346</v>
       </c>
       <c r="I49">
-        <v>0.06308751388397806</v>
+        <v>0.1221518853343297</v>
       </c>
       <c r="J49">
-        <v>3879.882103864651</v>
+        <v>7512.340948061275</v>
       </c>
       <c r="K49">
-        <v>3.785250833038684</v>
+        <v>7.329113120059779</v>
       </c>
       <c r="L49">
-        <v>0.07725001700078947</v>
+        <v>0.1495737371440771</v>
       </c>
       <c r="M49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2871,40 +2862,40 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C50">
-        <v>0.789669537</v>
+        <v>0.7154190558709678</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E50">
-        <v>6107.594266716484</v>
+        <v>1408.56123381799</v>
       </c>
       <c r="F50">
-        <v>19293.89028855737</v>
+        <v>4449.644937631029</v>
       </c>
       <c r="G50">
-        <v>85.22030367867779</v>
+        <v>19.97946447684676</v>
       </c>
       <c r="H50">
-        <v>0.6416824238248346</v>
+        <v>0.3750760964146598</v>
       </c>
       <c r="I50">
-        <v>0.1221518853343297</v>
+        <v>0.02817122467635979</v>
       </c>
       <c r="J50">
-        <v>7512.340948061275</v>
+        <v>1732.530317596127</v>
       </c>
       <c r="K50">
-        <v>7.329113120059779</v>
+        <v>1.690273480581587</v>
       </c>
       <c r="L50">
-        <v>0.1495737371440771</v>
+        <v>0.03449537715472627</v>
       </c>
       <c r="M50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2912,40 +2903,40 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C51">
-        <v>0.7154190558709678</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E51">
-        <v>1408.56123381799</v>
+        <v>1203.182257508054</v>
       </c>
       <c r="F51">
-        <v>4449.644937631029</v>
+        <v>3800.852751467941</v>
       </c>
       <c r="G51">
-        <v>19.97946447684676</v>
+        <v>18.21617937867193</v>
       </c>
       <c r="H51">
-        <v>0.3750760964146598</v>
+        <v>0.6256547739041879</v>
       </c>
       <c r="I51">
-        <v>0.02817122467635979</v>
+        <v>0.02406364515016107</v>
       </c>
       <c r="J51">
-        <v>1732.530317596127</v>
+        <v>1479.914176734906</v>
       </c>
       <c r="K51">
-        <v>1.690273480581587</v>
+        <v>1.443818709009664</v>
       </c>
       <c r="L51">
-        <v>0.03449537715472627</v>
+        <v>0.02946568793897274</v>
       </c>
       <c r="M51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2953,40 +2944,40 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C52">
-        <v>0.6060793402</v>
+        <v>0.6459498048333334</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E52">
-        <v>1203.182257508054</v>
+        <v>10175.81376963906</v>
       </c>
       <c r="F52">
-        <v>3800.852751467941</v>
+        <v>32145.39569828979</v>
       </c>
       <c r="G52">
-        <v>18.21617937867193</v>
+        <v>107.0574510164775</v>
       </c>
       <c r="H52">
-        <v>0.6256547739041879</v>
+        <v>1.431630463472762</v>
       </c>
       <c r="I52">
-        <v>0.02406364515016107</v>
+        <v>0.2035162753927812</v>
       </c>
       <c r="J52">
-        <v>1479.914176734906</v>
+        <v>12516.25093665604</v>
       </c>
       <c r="K52">
-        <v>1.443818709009664</v>
+        <v>12.21097652356687</v>
       </c>
       <c r="L52">
-        <v>0.02946568793897274</v>
+        <v>0.2492036025217729</v>
       </c>
       <c r="M52" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2994,40 +2985,40 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C53">
-        <v>0.6459498048333334</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E53">
-        <v>10175.81376963906</v>
+        <v>8134.253266547485</v>
       </c>
       <c r="F53">
-        <v>32145.39569828979</v>
+        <v>25696.1060690235</v>
       </c>
       <c r="G53">
-        <v>107.0574510164775</v>
+        <v>131.6695553351721</v>
       </c>
       <c r="H53">
-        <v>1.431630463472762</v>
+        <v>0.7793204781812813</v>
       </c>
       <c r="I53">
-        <v>0.2035162753927812</v>
+        <v>0.1626850653309497</v>
       </c>
       <c r="J53">
-        <v>12516.25093665604</v>
+        <v>10005.13151785341</v>
       </c>
       <c r="K53">
-        <v>12.21097652356687</v>
+        <v>9.761103919856982</v>
       </c>
       <c r="L53">
-        <v>0.2492036025217729</v>
+        <v>0.1992062024460608</v>
       </c>
       <c r="M53" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3035,40 +3026,40 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>0.7873938323333334</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E54">
-        <v>8134.253266547485</v>
+        <v>8861.738868077688</v>
       </c>
       <c r="F54">
-        <v>25696.1060690235</v>
+        <v>27994.23308425741</v>
       </c>
       <c r="G54">
-        <v>131.6695553351721</v>
+        <v>103.2576680978673</v>
       </c>
       <c r="H54">
-        <v>0.7793204781812813</v>
+        <v>0.780909884879917</v>
       </c>
       <c r="I54">
-        <v>0.1626850653309497</v>
+        <v>0.1772347773615537</v>
       </c>
       <c r="J54">
-        <v>10005.13151785341</v>
+        <v>10899.93880773555</v>
       </c>
       <c r="K54">
-        <v>9.761103919856982</v>
+        <v>10.63408664169322</v>
       </c>
       <c r="L54">
-        <v>0.1992062024460608</v>
+        <v>0.2170221763610862</v>
       </c>
       <c r="M54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3076,40 +3067,40 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55">
-        <v>0.7873938323333334</v>
+        <v>0.7885316846666667</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E55">
-        <v>8861.738868077688</v>
+        <v>6477.768382085927</v>
       </c>
       <c r="F55">
-        <v>27994.23308425741</v>
+        <v>20463.27031900944</v>
       </c>
       <c r="G55">
-        <v>103.2576680978673</v>
+        <v>112.9659891499634</v>
       </c>
       <c r="H55">
-        <v>0.780909884879917</v>
+        <v>0.6678973070584466</v>
       </c>
       <c r="I55">
-        <v>0.1772347773615537</v>
+        <v>0.1295553676417185</v>
       </c>
       <c r="J55">
-        <v>10899.93880773555</v>
+        <v>7967.65510996569</v>
       </c>
       <c r="K55">
-        <v>10.63408664169322</v>
+        <v>7.773322058503112</v>
       </c>
       <c r="L55">
-        <v>0.2170221763610862</v>
+        <v>0.158639225683737</v>
       </c>
       <c r="M55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3117,40 +3108,40 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56">
-        <v>0.7885316846666667</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E56">
-        <v>6477.768382085927</v>
+        <v>9939.783827248937</v>
       </c>
       <c r="F56">
-        <v>20463.27031900944</v>
+        <v>31399.77711027939</v>
       </c>
       <c r="G56">
-        <v>112.9659891499634</v>
+        <v>103.4355279555511</v>
       </c>
       <c r="H56">
-        <v>0.6678973070584466</v>
+        <v>1.045972627672273</v>
       </c>
       <c r="I56">
-        <v>0.1295553676417185</v>
+        <v>0.1987956765449787</v>
       </c>
       <c r="J56">
-        <v>7967.65510996569</v>
+        <v>12225.93410751619</v>
       </c>
       <c r="K56">
-        <v>7.773322058503112</v>
+        <v>11.92774059269873</v>
       </c>
       <c r="L56">
-        <v>0.158639225683737</v>
+        <v>0.2434232774020148</v>
       </c>
       <c r="M56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3158,54 +3149,54 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C57">
-        <v>0.7873938323333334</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E57">
-        <v>9939.783827248937</v>
+        <v>54031.75456968702</v>
       </c>
       <c r="F57">
-        <v>31399.77711027939</v>
+        <v>170686.3126856413</v>
       </c>
       <c r="G57">
-        <v>103.4355279555511</v>
+        <v>1138.533461392735</v>
       </c>
       <c r="H57">
-        <v>1.045972627672273</v>
+        <v>6.05562173564987</v>
       </c>
       <c r="I57">
-        <v>0.1987956765449787</v>
+        <v>1.08063509139374</v>
       </c>
       <c r="J57">
-        <v>12225.93410751619</v>
+        <v>66459.05812071504</v>
       </c>
       <c r="K57">
-        <v>11.92774059269873</v>
+        <v>64.83810548362442</v>
       </c>
       <c r="L57">
-        <v>0.2434232774020148</v>
+        <v>1.323226642522947</v>
       </c>
       <c r="M57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>0.6060793402</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E58">
         <v>54031.75456968702</v>
@@ -3232,21 +3223,21 @@
         <v>1.323226642522947</v>
       </c>
       <c r="M58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59">
         <v>0.6060793402</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E59">
         <v>54031.75456968702</v>
@@ -3273,21 +3264,21 @@
         <v>1.323226642522947</v>
       </c>
       <c r="M59" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>0.6060793402</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E60">
         <v>54031.75456968702</v>
@@ -3314,21 +3305,21 @@
         <v>1.323226642522947</v>
       </c>
       <c r="M60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>0.6060793402</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61">
         <v>54031.75456968702</v>
@@ -3355,21 +3346,21 @@
         <v>1.323226642522947</v>
       </c>
       <c r="M61" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>0.6060793402</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E62">
         <v>54031.75456968702</v>
@@ -3396,89 +3387,89 @@
         <v>1.323226642522947</v>
       </c>
       <c r="M62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C63">
         <v>0.6060793402</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E63">
-        <v>54031.75456968702</v>
+        <v>49612.24801899566</v>
       </c>
       <c r="F63">
-        <v>170686.3126856413</v>
+        <v>156725.0914920073</v>
       </c>
       <c r="G63">
-        <v>1138.533461392735</v>
+        <v>1012.500926715771</v>
       </c>
       <c r="H63">
-        <v>6.05562173564987</v>
+        <v>6.566480702102439</v>
       </c>
       <c r="I63">
-        <v>1.08063509139374</v>
+        <v>0.9922449603799133</v>
       </c>
       <c r="J63">
-        <v>66459.05812071504</v>
+        <v>61023.06506336467</v>
       </c>
       <c r="K63">
-        <v>64.83810548362442</v>
+        <v>59.53469762279479</v>
       </c>
       <c r="L63">
-        <v>1.323226642522947</v>
+        <v>1.214993829036628</v>
       </c>
       <c r="M63" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E64">
-        <v>49612.24801899566</v>
+        <v>67492.09902824087</v>
       </c>
       <c r="F64">
-        <v>156725.0914920073</v>
+        <v>213207.5408302129</v>
       </c>
       <c r="G64">
-        <v>1012.500926715771</v>
+        <v>1064.149170285525</v>
       </c>
       <c r="H64">
-        <v>6.566480702102439</v>
+        <v>2.956457068963913</v>
       </c>
       <c r="I64">
-        <v>0.9922449603799133</v>
+        <v>1.349841980564817</v>
       </c>
       <c r="J64">
-        <v>61023.06506336467</v>
+        <v>83015.28180473627</v>
       </c>
       <c r="K64">
-        <v>59.53469762279479</v>
+        <v>80.99051883388904</v>
       </c>
       <c r="L64">
-        <v>1.214993829036628</v>
+        <v>1.652867731303858</v>
       </c>
       <c r="M64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3489,51 +3480,51 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>0.7517421065333333</v>
+        <v>0.6078310146</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E65">
-        <v>67492.09902824087</v>
+        <v>55414.02905754787</v>
       </c>
       <c r="F65">
-        <v>213207.5408302129</v>
+        <v>175052.9177927937</v>
       </c>
       <c r="G65">
-        <v>1064.149170285525</v>
+        <v>1150.492913088198</v>
       </c>
       <c r="H65">
-        <v>2.956457068963913</v>
+        <v>6.87620369122746</v>
       </c>
       <c r="I65">
-        <v>1.349841980564817</v>
+        <v>1.108280581150957</v>
       </c>
       <c r="J65">
-        <v>83015.28180473627</v>
+        <v>68159.25574078388</v>
       </c>
       <c r="K65">
-        <v>80.99051883388904</v>
+        <v>66.49683486905744</v>
       </c>
       <c r="L65">
-        <v>1.652867731303858</v>
+        <v>1.357078262633825</v>
       </c>
       <c r="M65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66">
         <v>0.6078310146</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E66">
         <v>55414.02905754787</v>
@@ -3560,7 +3551,7 @@
         <v>1.357078262633825</v>
       </c>
       <c r="M66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3571,338 +3562,338 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>0.6078310146</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E67">
-        <v>55414.02905754787</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F67">
-        <v>175052.9177927937</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G67">
-        <v>1150.492913088198</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H67">
-        <v>6.87620369122746</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I67">
-        <v>1.108280581150957</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J67">
-        <v>68159.25574078388</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K67">
-        <v>66.49683486905744</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L67">
-        <v>1.357078262633825</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E68">
-        <v>65141.19545649693</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F68">
-        <v>205781.0364470738</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G68">
-        <v>1310.00523464944</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H68">
-        <v>6.846526518104342</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I68">
-        <v>1.302823909129939</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J68">
-        <v>80123.67041149124</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K68">
-        <v>78.16943454779633</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L68">
-        <v>1.595294582608088</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E69">
-        <v>65141.19545649693</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F69">
-        <v>205781.0364470738</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G69">
-        <v>1310.00523464944</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H69">
-        <v>6.846526518104342</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I69">
-        <v>1.302823909129939</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J69">
-        <v>80123.67041149124</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K69">
-        <v>78.16943454779633</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L69">
-        <v>1.595294582608088</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E70">
-        <v>65141.19545649693</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F70">
-        <v>205781.0364470738</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G70">
-        <v>1310.00523464944</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H70">
-        <v>6.846526518104342</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I70">
-        <v>1.302823909129939</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J70">
-        <v>80123.67041149124</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K70">
-        <v>78.16943454779633</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L70">
-        <v>1.595294582608088</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M70" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E71">
-        <v>65141.19545649693</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F71">
-        <v>205781.0364470738</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G71">
-        <v>1310.00523464944</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H71">
-        <v>6.846526518104342</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I71">
-        <v>1.302823909129939</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J71">
-        <v>80123.67041149124</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K71">
-        <v>78.16943454779633</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L71">
-        <v>1.595294582608088</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M71" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E72">
-        <v>65141.19545649693</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F72">
-        <v>205781.0364470738</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G72">
-        <v>1310.00523464944</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H72">
-        <v>6.846526518104342</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I72">
-        <v>1.302823909129939</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J72">
-        <v>80123.67041149124</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K72">
-        <v>78.16943454779633</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L72">
-        <v>1.595294582608088</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M72" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E73">
-        <v>65141.19545649693</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F73">
-        <v>205781.0364470738</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G73">
-        <v>1310.00523464944</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H73">
-        <v>6.846526518104342</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I73">
-        <v>1.302823909129939</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J73">
-        <v>80123.67041149124</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K73">
-        <v>78.16943454779633</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L73">
-        <v>1.595294582608088</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M73" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E74">
-        <v>65141.19545649693</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F74">
-        <v>205781.0364470738</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G74">
-        <v>1310.00523464944</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H74">
-        <v>6.846526518104342</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I74">
-        <v>1.302823909129939</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J74">
-        <v>80123.67041149124</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K74">
-        <v>78.16943454779633</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L74">
-        <v>1.595294582608088</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M74" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75">
         <v>0.7517421065333333</v>
       </c>
       <c r="D75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E75">
         <v>114219.1916240471</v>
@@ -3929,21 +3920,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M75" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76">
         <v>0.7517421065333333</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E76">
         <v>114219.1916240471</v>
@@ -3970,21 +3961,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77">
         <v>0.7517421065333333</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E77">
         <v>114219.1916240471</v>
@@ -4011,21 +4002,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78">
         <v>0.7517421065333333</v>
       </c>
       <c r="D78" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E78">
         <v>114219.1916240471</v>
@@ -4052,21 +4043,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M78" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C79">
         <v>0.7517421065333333</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E79">
         <v>114219.1916240471</v>
@@ -4093,21 +4084,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C80">
         <v>0.7517421065333333</v>
       </c>
       <c r="D80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E80">
         <v>114219.1916240471</v>
@@ -4134,21 +4125,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81">
         <v>0.7517421065333333</v>
       </c>
       <c r="D81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E81">
         <v>114219.1916240471</v>
@@ -4175,21 +4166,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C82">
         <v>0.7517421065333333</v>
       </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E82">
         <v>114219.1916240471</v>
@@ -4216,21 +4207,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C83">
         <v>0.7517421065333333</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E83">
         <v>114219.1916240471</v>
@@ -4257,21 +4248,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C84">
         <v>0.7517421065333333</v>
       </c>
       <c r="D84" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E84">
         <v>114219.1916240471</v>
@@ -4298,21 +4289,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C85">
         <v>0.7517421065333333</v>
       </c>
       <c r="D85" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E85">
         <v>114219.1916240471</v>
@@ -4339,21 +4330,21 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M85" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C86">
         <v>0.7517421065333333</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E86">
         <v>114219.1916240471</v>
@@ -4380,171 +4371,171 @@
         <v>2.797204692833805</v>
       </c>
       <c r="M86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87">
-        <v>0.7517421065333333</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E87">
-        <v>114219.1916240471</v>
+        <v>117028.0017049689</v>
       </c>
       <c r="F87">
-        <v>360818.4263403647</v>
+        <v>369691.4573859968</v>
       </c>
       <c r="G87">
-        <v>2563.752966236701</v>
+        <v>2653.651549870538</v>
       </c>
       <c r="H87">
-        <v>9.649549357976147</v>
+        <v>11.06484308251962</v>
       </c>
       <c r="I87">
-        <v>2.284383832480941</v>
+        <v>2.340560034099378</v>
       </c>
       <c r="J87">
-        <v>140489.6056975779</v>
+        <v>143944.4420971118</v>
       </c>
       <c r="K87">
-        <v>137.0630299488565</v>
+        <v>140.4336020459627</v>
       </c>
       <c r="L87">
-        <v>2.797204692833805</v>
+        <v>2.865991878489035</v>
       </c>
       <c r="M87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88">
-        <v>0.7517421065333333</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E88">
-        <v>114219.1916240471</v>
+        <v>117028.0017049689</v>
       </c>
       <c r="F88">
-        <v>360818.4263403647</v>
+        <v>369691.4573859968</v>
       </c>
       <c r="G88">
-        <v>2563.752966236701</v>
+        <v>2653.651549870538</v>
       </c>
       <c r="H88">
-        <v>9.649549357976147</v>
+        <v>11.06484308251962</v>
       </c>
       <c r="I88">
-        <v>2.284383832480941</v>
+        <v>2.340560034099378</v>
       </c>
       <c r="J88">
-        <v>140489.6056975779</v>
+        <v>143944.4420971118</v>
       </c>
       <c r="K88">
-        <v>137.0630299488565</v>
+        <v>140.4336020459627</v>
       </c>
       <c r="L88">
-        <v>2.797204692833805</v>
+        <v>2.865991878489035</v>
       </c>
       <c r="M88" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>0.7517421065333333</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E89">
-        <v>114219.1916240471</v>
+        <v>117028.0017049689</v>
       </c>
       <c r="F89">
-        <v>360818.4263403647</v>
+        <v>369691.4573859968</v>
       </c>
       <c r="G89">
-        <v>2563.752966236701</v>
+        <v>2653.651549870538</v>
       </c>
       <c r="H89">
-        <v>9.649549357976147</v>
+        <v>11.06484308251962</v>
       </c>
       <c r="I89">
-        <v>2.284383832480941</v>
+        <v>2.340560034099378</v>
       </c>
       <c r="J89">
-        <v>140489.6056975779</v>
+        <v>143944.4420971118</v>
       </c>
       <c r="K89">
-        <v>137.0630299488565</v>
+        <v>140.4336020459627</v>
       </c>
       <c r="L89">
-        <v>2.797204692833805</v>
+        <v>2.865991878489035</v>
       </c>
       <c r="M89" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90">
-        <v>0.7517421065333333</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E90">
-        <v>114219.1916240471</v>
+        <v>117028.0017049689</v>
       </c>
       <c r="F90">
-        <v>360818.4263403647</v>
+        <v>369691.4573859968</v>
       </c>
       <c r="G90">
-        <v>2563.752966236701</v>
+        <v>2653.651549870538</v>
       </c>
       <c r="H90">
-        <v>9.649549357976147</v>
+        <v>11.06484308251962</v>
       </c>
       <c r="I90">
-        <v>2.284383832480941</v>
+        <v>2.340560034099378</v>
       </c>
       <c r="J90">
-        <v>140489.6056975779</v>
+        <v>143944.4420971118</v>
       </c>
       <c r="K90">
-        <v>137.0630299488565</v>
+        <v>140.4336020459627</v>
       </c>
       <c r="L90">
-        <v>2.797204692833805</v>
+        <v>2.865991878489035</v>
       </c>
       <c r="M90" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4555,37 +4546,37 @@
         <v>73</v>
       </c>
       <c r="C91">
-        <v>0.7517421065333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E91">
-        <v>114219.1916240471</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F91">
-        <v>360818.4263403647</v>
+        <v>205781.0364470738</v>
       </c>
       <c r="G91">
-        <v>2563.752966236701</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H91">
-        <v>9.649549357976147</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I91">
-        <v>2.284383832480941</v>
+        <v>1.302823909129939</v>
       </c>
       <c r="J91">
-        <v>140489.6056975779</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K91">
-        <v>137.0630299488565</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L91">
-        <v>2.797204692833805</v>
+        <v>1.595294582608088</v>
       </c>
       <c r="M91" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4596,37 +4587,37 @@
         <v>73</v>
       </c>
       <c r="C92">
-        <v>0.7517421065333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E92">
-        <v>114219.1916240471</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F92">
-        <v>360818.4263403647</v>
+        <v>205781.0364470738</v>
       </c>
       <c r="G92">
-        <v>2563.752966236701</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H92">
-        <v>9.649549357976147</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I92">
-        <v>2.284383832480941</v>
+        <v>1.302823909129939</v>
       </c>
       <c r="J92">
-        <v>140489.6056975779</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K92">
-        <v>137.0630299488565</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L92">
-        <v>2.797204692833805</v>
+        <v>1.595294582608088</v>
       </c>
       <c r="M92" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4637,37 +4628,37 @@
         <v>73</v>
       </c>
       <c r="C93">
-        <v>0.7517421065333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E93">
-        <v>114219.1916240471</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F93">
-        <v>360818.4263403647</v>
+        <v>205781.0364470738</v>
       </c>
       <c r="G93">
-        <v>2563.752966236701</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H93">
-        <v>9.649549357976147</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I93">
-        <v>2.284383832480941</v>
+        <v>1.302823909129939</v>
       </c>
       <c r="J93">
-        <v>140489.6056975779</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K93">
-        <v>137.0630299488565</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L93">
-        <v>2.797204692833805</v>
+        <v>1.595294582608088</v>
       </c>
       <c r="M93" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4678,119 +4669,119 @@
         <v>73</v>
       </c>
       <c r="C94">
-        <v>0.7517421065333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E94">
-        <v>114219.1916240471</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F94">
-        <v>360818.4263403647</v>
+        <v>205781.0364470738</v>
       </c>
       <c r="G94">
-        <v>2563.752966236701</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H94">
-        <v>9.649549357976147</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I94">
-        <v>2.284383832480941</v>
+        <v>1.302823909129939</v>
       </c>
       <c r="J94">
-        <v>140489.6056975779</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K94">
-        <v>137.0630299488565</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L94">
-        <v>2.797204692833805</v>
+        <v>1.595294582608088</v>
       </c>
       <c r="M94" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C95">
-        <v>0.7873938323333334</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E95">
-        <v>117028.0017049689</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F95">
-        <v>369691.4573859968</v>
+        <v>205781.0364470738</v>
       </c>
       <c r="G95">
-        <v>2653.651549870538</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H95">
-        <v>11.06484308251962</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I95">
-        <v>2.340560034099378</v>
+        <v>1.302823909129939</v>
       </c>
       <c r="J95">
-        <v>143944.4420971118</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K95">
-        <v>140.4336020459627</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L95">
-        <v>2.865991878489035</v>
+        <v>1.595294582608088</v>
       </c>
       <c r="M95" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96">
-        <v>0.7873938323333334</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E96">
-        <v>117028.0017049689</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F96">
-        <v>369691.4573859968</v>
+        <v>205781.0364470738</v>
       </c>
       <c r="G96">
-        <v>2653.651549870538</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H96">
-        <v>11.06484308251962</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I96">
-        <v>2.340560034099378</v>
+        <v>1.302823909129939</v>
       </c>
       <c r="J96">
-        <v>143944.4420971118</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K96">
-        <v>140.4336020459627</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L96">
-        <v>2.865991878489035</v>
+        <v>1.595294582608088</v>
       </c>
       <c r="M96" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4801,406 +4792,406 @@
         <v>74</v>
       </c>
       <c r="C97">
-        <v>0.7873938323333334</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D97" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E97">
-        <v>117028.0017049689</v>
+        <v>67405.56933532702</v>
       </c>
       <c r="F97">
-        <v>369691.4573859968</v>
+        <v>212934.1935302981</v>
       </c>
       <c r="G97">
-        <v>2653.651549870538</v>
+        <v>1330.9005080398</v>
       </c>
       <c r="H97">
-        <v>11.06484308251962</v>
+        <v>8.902769351641602</v>
       </c>
       <c r="I97">
-        <v>2.340560034099378</v>
+        <v>1.34811138670654</v>
       </c>
       <c r="J97">
-        <v>143944.4420971118</v>
+        <v>82908.85028245224</v>
       </c>
       <c r="K97">
-        <v>140.4336020459627</v>
+        <v>80.88668320239243</v>
       </c>
       <c r="L97">
-        <v>2.865991878489035</v>
+        <v>1.650748636783519</v>
       </c>
       <c r="M97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C98">
-        <v>0.7873938323333334</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E98">
-        <v>117028.0017049689</v>
+        <v>55958.11085639045</v>
       </c>
       <c r="F98">
-        <v>369691.4573859968</v>
+        <v>176771.6721953374</v>
       </c>
       <c r="G98">
-        <v>2653.651549870538</v>
+        <v>1166.411679180642</v>
       </c>
       <c r="H98">
-        <v>11.06484308251962</v>
+        <v>6.291849625474511</v>
       </c>
       <c r="I98">
-        <v>2.340560034099378</v>
+        <v>1.119162217127809</v>
       </c>
       <c r="J98">
-        <v>143944.4420971118</v>
+        <v>68828.47635336025</v>
       </c>
       <c r="K98">
-        <v>140.4336020459627</v>
+        <v>67.14973302766853</v>
       </c>
       <c r="L98">
-        <v>2.865991878489035</v>
+        <v>1.370402714850378</v>
       </c>
       <c r="M98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C99">
         <v>0.6060793402</v>
       </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E99">
-        <v>67405.56933532702</v>
+        <v>34848.32284841596</v>
       </c>
       <c r="F99">
-        <v>212934.1935302981</v>
+        <v>110085.851878146</v>
       </c>
       <c r="G99">
-        <v>1330.9005080398</v>
+        <v>700.7451988569662</v>
       </c>
       <c r="H99">
-        <v>8.902769351641602</v>
+        <v>5.283775875516542</v>
       </c>
       <c r="I99">
-        <v>1.34811138670654</v>
+        <v>0.6969664569683189</v>
       </c>
       <c r="J99">
-        <v>82908.85028245224</v>
+        <v>42863.43710355162</v>
       </c>
       <c r="K99">
-        <v>80.88668320239243</v>
+        <v>41.81798741809914</v>
       </c>
       <c r="L99">
-        <v>1.650748636783519</v>
+        <v>0.8534283146550847</v>
       </c>
       <c r="M99" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C100">
-        <v>0.6060793402</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E100">
-        <v>55958.11085639045</v>
+        <v>11160.59641453068</v>
       </c>
       <c r="F100">
-        <v>176771.6721953374</v>
+        <v>35256.32407350242</v>
       </c>
       <c r="G100">
-        <v>1166.411679180642</v>
+        <v>161.3367417997575</v>
       </c>
       <c r="H100">
-        <v>6.291849625474511</v>
+        <v>1.148783418018889</v>
       </c>
       <c r="I100">
-        <v>1.119162217127809</v>
+        <v>0.2232119282906136</v>
       </c>
       <c r="J100">
-        <v>68828.47635336025</v>
+        <v>13727.53358987274</v>
       </c>
       <c r="K100">
-        <v>67.14973302766853</v>
+        <v>13.39271569743682</v>
       </c>
       <c r="L100">
-        <v>1.370402714850378</v>
+        <v>0.2733207285191187</v>
       </c>
       <c r="M100" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C101">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E101">
-        <v>34848.32284841596</v>
+        <v>106492.2647280735</v>
       </c>
       <c r="F101">
-        <v>110085.851878146</v>
+        <v>336409.0642759843</v>
       </c>
       <c r="G101">
-        <v>700.7451988569662</v>
+        <v>2116.84753957842</v>
       </c>
       <c r="H101">
-        <v>5.283775875516542</v>
+        <v>8.563243673031241</v>
       </c>
       <c r="I101">
-        <v>0.6969664569683189</v>
+        <v>2.129845294561471</v>
       </c>
       <c r="J101">
-        <v>42863.43710355162</v>
+        <v>130985.4856155305</v>
       </c>
       <c r="K101">
-        <v>41.81798741809914</v>
+        <v>127.7907176736882</v>
       </c>
       <c r="L101">
-        <v>0.8534283146550847</v>
+        <v>2.60797383007527</v>
       </c>
       <c r="M101" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C102">
-        <v>0.6997836170333334</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D102" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E102">
-        <v>11160.59641453068</v>
+        <v>120788.2398253462</v>
       </c>
       <c r="F102">
-        <v>35256.32407350242</v>
+        <v>381570.0496082685</v>
       </c>
       <c r="G102">
-        <v>161.3367417997575</v>
+        <v>2741.51609845646</v>
       </c>
       <c r="H102">
-        <v>1.148783418018889</v>
+        <v>7.839537146565072</v>
       </c>
       <c r="I102">
-        <v>0.2232119282906136</v>
+        <v>2.415764796506924</v>
       </c>
       <c r="J102">
-        <v>13727.53358987274</v>
+        <v>148569.5349851758</v>
       </c>
       <c r="K102">
-        <v>13.39271569743682</v>
+        <v>144.9458877904154</v>
       </c>
       <c r="L102">
-        <v>0.2733207285191187</v>
+        <v>2.958079342661539</v>
       </c>
       <c r="M102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C103">
-        <v>0.7517421065333333</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E103">
-        <v>106492.2647280735</v>
+        <v>48847.55323703054</v>
       </c>
       <c r="F103">
-        <v>336409.0642759843</v>
+        <v>154309.4206757794</v>
       </c>
       <c r="G103">
-        <v>2116.84753957842</v>
+        <v>968.866583080207</v>
       </c>
       <c r="H103">
-        <v>8.563243673031241</v>
+        <v>6.763730971281797</v>
       </c>
       <c r="I103">
-        <v>2.129845294561471</v>
+        <v>0.9769510647406106</v>
       </c>
       <c r="J103">
-        <v>130985.4856155305</v>
+        <v>60082.49048154756</v>
       </c>
       <c r="K103">
-        <v>127.7907176736882</v>
+        <v>58.61706388443664</v>
       </c>
       <c r="L103">
-        <v>2.60797383007527</v>
+        <v>1.196266609886462</v>
       </c>
       <c r="M103" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C104">
-        <v>0.6385780525666667</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E104">
-        <v>120788.2398253462</v>
+        <v>49295.24071289711</v>
       </c>
       <c r="F104">
-        <v>381570.0496082685</v>
+        <v>155723.665412042</v>
       </c>
       <c r="G104">
-        <v>2741.51609845646</v>
+        <v>1046.965013303843</v>
       </c>
       <c r="H104">
-        <v>7.839537146565072</v>
+        <v>6.353690032809305</v>
       </c>
       <c r="I104">
-        <v>2.415764796506924</v>
+        <v>0.9859048142579421</v>
       </c>
       <c r="J104">
-        <v>148569.5349851758</v>
+        <v>60633.14607686346</v>
       </c>
       <c r="K104">
-        <v>144.9458877904154</v>
+        <v>59.15428885547652</v>
       </c>
       <c r="L104">
-        <v>2.958079342661539</v>
+        <v>1.207230384805644</v>
       </c>
       <c r="M104" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C105">
-        <v>0.6987738282666667</v>
+        <v>0.6532621078064516</v>
       </c>
       <c r="D105" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E105">
-        <v>48847.55323703054</v>
+        <v>58951.09615875148</v>
       </c>
       <c r="F105">
-        <v>154309.4206757794</v>
+        <v>186226.5127654959</v>
       </c>
       <c r="G105">
-        <v>968.866583080207</v>
+        <v>852.203828660816</v>
       </c>
       <c r="H105">
-        <v>6.763730971281797</v>
+        <v>2.927304488933064</v>
       </c>
       <c r="I105">
-        <v>0.9769510647406106</v>
+        <v>1.179021923175029</v>
       </c>
       <c r="J105">
-        <v>60082.49048154756</v>
+        <v>72509.84827526432</v>
       </c>
       <c r="K105">
-        <v>58.61706388443664</v>
+        <v>70.74131539050177</v>
       </c>
       <c r="L105">
-        <v>1.196266609886462</v>
+        <v>1.443700314091873</v>
       </c>
       <c r="M105" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C106">
         <v>0.6376565835333333</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E106">
-        <v>49295.24071289711</v>
+        <v>111754.0296499184</v>
       </c>
       <c r="F106">
-        <v>155723.665412042</v>
+        <v>353030.9796640922</v>
       </c>
       <c r="G106">
-        <v>1046.965013303843</v>
+        <v>2513.793028524879</v>
       </c>
       <c r="H106">
-        <v>6.353690032809305</v>
+        <v>9.575829690181015</v>
       </c>
       <c r="I106">
-        <v>0.9859048142579421</v>
+        <v>2.235080592998368</v>
       </c>
       <c r="J106">
-        <v>60633.14607686346</v>
+        <v>137457.4564693996</v>
       </c>
       <c r="K106">
-        <v>59.15428885547652</v>
+        <v>134.104835579902</v>
       </c>
       <c r="L106">
-        <v>1.207230384805644</v>
+        <v>2.736833379181675</v>
       </c>
       <c r="M106" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5211,37 +5202,37 @@
         <v>83</v>
       </c>
       <c r="C107">
-        <v>0.6532621078064516</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E107">
-        <v>58951.09615875148</v>
+        <v>111754.0296499184</v>
       </c>
       <c r="F107">
-        <v>186226.5127654959</v>
+        <v>353030.9796640922</v>
       </c>
       <c r="G107">
-        <v>852.203828660816</v>
+        <v>2513.793028524879</v>
       </c>
       <c r="H107">
-        <v>2.927304488933064</v>
+        <v>9.575829690181015</v>
       </c>
       <c r="I107">
-        <v>1.179021923175029</v>
+        <v>2.235080592998368</v>
       </c>
       <c r="J107">
-        <v>72509.84827526432</v>
+        <v>137457.4564693996</v>
       </c>
       <c r="K107">
-        <v>70.74131539050177</v>
+        <v>134.104835579902</v>
       </c>
       <c r="L107">
-        <v>1.443700314091873</v>
+        <v>2.736833379181675</v>
       </c>
       <c r="M107" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5252,242 +5243,242 @@
         <v>84</v>
       </c>
       <c r="C108">
-        <v>0.6376565835333333</v>
+        <v>0.7068521383999999</v>
       </c>
       <c r="D108" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E108">
-        <v>111754.0296499184</v>
+        <v>11652.84922805194</v>
       </c>
       <c r="F108">
-        <v>353030.9796640922</v>
+        <v>36811.35071141607</v>
       </c>
       <c r="G108">
-        <v>2513.793028524879</v>
+        <v>161.5571800795335</v>
       </c>
       <c r="H108">
-        <v>9.575829690181015</v>
+        <v>0.7283032182551276</v>
       </c>
       <c r="I108">
-        <v>2.235080592998368</v>
+        <v>0.2330569845610388</v>
       </c>
       <c r="J108">
-        <v>137457.4564693996</v>
+        <v>14333.00455050389</v>
       </c>
       <c r="K108">
-        <v>134.104835579902</v>
+        <v>13.98341907366233</v>
       </c>
       <c r="L108">
-        <v>2.736833379181675</v>
+        <v>0.2853758994624965</v>
       </c>
       <c r="M108" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C109">
-        <v>0.6376565835333333</v>
+        <v>0.6532621078064516</v>
       </c>
       <c r="D109" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E109">
-        <v>111754.0296499184</v>
+        <v>15801.50871884364</v>
       </c>
       <c r="F109">
-        <v>353030.9796640922</v>
+        <v>49916.96604282706</v>
       </c>
       <c r="G109">
-        <v>2513.793028524879</v>
+        <v>188.8572939606426</v>
       </c>
       <c r="H109">
-        <v>9.575829690181015</v>
+        <v>1.160819648754326</v>
       </c>
       <c r="I109">
-        <v>2.235080592998368</v>
+        <v>0.3160301743768728</v>
       </c>
       <c r="J109">
-        <v>137457.4564693996</v>
+        <v>19435.85572417768</v>
       </c>
       <c r="K109">
-        <v>134.104835579902</v>
+        <v>18.96181046261237</v>
       </c>
       <c r="L109">
-        <v>2.736833379181675</v>
+        <v>0.386975723726783</v>
       </c>
       <c r="M109" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C110">
-        <v>0.7068521383999999</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D110" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E110">
-        <v>11652.84922805194</v>
+        <v>12562.64959455429</v>
       </c>
       <c r="F110">
-        <v>36811.35071141607</v>
+        <v>39685.41006919699</v>
       </c>
       <c r="G110">
-        <v>161.5571800795335</v>
+        <v>186.390359743092</v>
       </c>
       <c r="H110">
-        <v>0.7283032182551276</v>
+        <v>0.04785045969585611</v>
       </c>
       <c r="I110">
-        <v>0.2330569845610388</v>
+        <v>0.2512529918910857</v>
       </c>
       <c r="J110">
-        <v>14333.00455050389</v>
+        <v>15452.05900130177</v>
       </c>
       <c r="K110">
-        <v>13.98341907366233</v>
+        <v>15.07517951346514</v>
       </c>
       <c r="L110">
-        <v>0.2853758994624965</v>
+        <v>0.3076567247645948</v>
       </c>
       <c r="M110" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C111">
-        <v>0.6532621078064516</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D111" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E111">
-        <v>15801.50871884364</v>
+        <v>8439.818709618816</v>
       </c>
       <c r="F111">
-        <v>49916.96604282706</v>
+        <v>26661.38730368583</v>
       </c>
       <c r="G111">
-        <v>188.8572939606426</v>
+        <v>121.9031667200459</v>
       </c>
       <c r="H111">
-        <v>1.160819648754326</v>
+        <v>0.9014048399940953</v>
       </c>
       <c r="I111">
-        <v>0.3160301743768728</v>
+        <v>0.1687963741923763</v>
       </c>
       <c r="J111">
-        <v>19435.85572417768</v>
+        <v>10380.97701283114</v>
       </c>
       <c r="K111">
-        <v>18.96181046261237</v>
+        <v>10.12778245154258</v>
       </c>
       <c r="L111">
-        <v>0.386975723726783</v>
+        <v>0.2066894377865832</v>
       </c>
       <c r="M111" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C112">
-        <v>0.6987738282666667</v>
+        <v>0.6259316506666667</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E112">
-        <v>12562.64959455429</v>
+        <v>2297.946321835643</v>
       </c>
       <c r="F112">
-        <v>39685.41006919699</v>
+        <v>7259.212430678794</v>
       </c>
       <c r="G112">
-        <v>186.390359743092</v>
+        <v>24.01300173754928</v>
       </c>
       <c r="H112">
-        <v>0.04785045969585611</v>
+        <v>0.7143108816408399</v>
       </c>
       <c r="I112">
-        <v>0.2512529918910857</v>
+        <v>0.04595892643671285</v>
       </c>
       <c r="J112">
-        <v>15452.05900130177</v>
+        <v>2826.47397585784</v>
       </c>
       <c r="K112">
-        <v>15.07517951346514</v>
+        <v>2.75753558620277</v>
       </c>
       <c r="L112">
-        <v>0.3076567247645948</v>
+        <v>0.05627623645311777</v>
       </c>
       <c r="M112" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C113">
-        <v>0.6987738282666667</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D113" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E113">
-        <v>8439.818709618816</v>
+        <v>38531.02862442385</v>
       </c>
       <c r="F113">
-        <v>26661.38730368583</v>
+        <v>121719.5194245549</v>
       </c>
       <c r="G113">
-        <v>121.9031667200459</v>
+        <v>548.1009495724127</v>
       </c>
       <c r="H113">
-        <v>0.9014048399940953</v>
+        <v>1.788692904272056</v>
       </c>
       <c r="I113">
-        <v>0.1687963741923763</v>
+        <v>0.7706205724884769</v>
       </c>
       <c r="J113">
-        <v>10380.97701283114</v>
+        <v>47393.16520804133</v>
       </c>
       <c r="K113">
-        <v>10.12778245154258</v>
+        <v>46.23723434930861</v>
       </c>
       <c r="L113">
-        <v>0.2066894377865832</v>
+        <v>0.9436170275369105</v>
       </c>
       <c r="M113" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5495,163 +5486,163 @@
         <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C114">
-        <v>0.6259316506666667</v>
+        <v>0.6570074339999999</v>
       </c>
       <c r="D114" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E114">
-        <v>2297.946321835643</v>
+        <v>1721.639039382894</v>
       </c>
       <c r="F114">
-        <v>7259.212430678794</v>
+        <v>5438.657725410563</v>
       </c>
       <c r="G114">
-        <v>24.01300173754928</v>
+        <v>25.29738137017428</v>
       </c>
       <c r="H114">
-        <v>0.7143108816408399</v>
+        <v>0.4224684435521334</v>
       </c>
       <c r="I114">
-        <v>0.04595892643671285</v>
+        <v>0.03443278078765788</v>
       </c>
       <c r="J114">
-        <v>2826.47397585784</v>
+        <v>2117.61601844096</v>
       </c>
       <c r="K114">
-        <v>2.75753558620277</v>
+        <v>2.065966847259473</v>
       </c>
       <c r="L114">
-        <v>0.05627623645311777</v>
+        <v>0.04216258871958108</v>
       </c>
       <c r="M114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C115">
-        <v>0.7873938323333334</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D115" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E115">
-        <v>38531.02862442385</v>
+        <v>971.3018174762531</v>
       </c>
       <c r="F115">
-        <v>121719.5194245549</v>
+        <v>3068.342441407483</v>
       </c>
       <c r="G115">
-        <v>548.1009495724127</v>
+        <v>10.50657922841989</v>
       </c>
       <c r="H115">
-        <v>1.788692904272056</v>
+        <v>0.07047907841842695</v>
       </c>
       <c r="I115">
-        <v>0.7706205724884769</v>
+        <v>0.01942603634952506</v>
       </c>
       <c r="J115">
-        <v>47393.16520804133</v>
+        <v>1194.701235495791</v>
       </c>
       <c r="K115">
-        <v>46.23723434930861</v>
+        <v>1.165562180971504</v>
       </c>
       <c r="L115">
-        <v>0.9436170275369105</v>
+        <v>0.02378698328513273</v>
       </c>
       <c r="M115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C116">
-        <v>0.6570074339999999</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D116" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E116">
-        <v>1721.639039382894</v>
+        <v>11828.23318816575</v>
       </c>
       <c r="F116">
-        <v>5438.657725410563</v>
+        <v>37365.38864141561</v>
       </c>
       <c r="G116">
-        <v>25.29738137017428</v>
+        <v>168.6157142604139</v>
       </c>
       <c r="H116">
-        <v>0.4224684435521334</v>
+        <v>1.910199925709169</v>
       </c>
       <c r="I116">
-        <v>0.03443278078765788</v>
+        <v>0.236564663763315</v>
       </c>
       <c r="J116">
-        <v>2117.61601844096</v>
+        <v>14548.72682144388</v>
       </c>
       <c r="K116">
-        <v>2.065966847259473</v>
+        <v>14.1938798257989</v>
       </c>
       <c r="L116">
-        <v>0.04216258871958108</v>
+        <v>0.2896710168530388</v>
       </c>
       <c r="M116" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C117">
-        <v>0.6060793402</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D117" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E117">
-        <v>971.3018174762531</v>
+        <v>5601.569557136672</v>
       </c>
       <c r="F117">
-        <v>3068.342441407483</v>
+        <v>17695.35823099475</v>
       </c>
       <c r="G117">
-        <v>10.50657922841989</v>
+        <v>64.58933581077071</v>
       </c>
       <c r="H117">
-        <v>0.07047907841842695</v>
+        <v>0.7086960192323654</v>
       </c>
       <c r="I117">
-        <v>0.01942603634952506</v>
+        <v>0.1120313911427334</v>
       </c>
       <c r="J117">
-        <v>1194.701235495791</v>
+        <v>6889.930555278106</v>
       </c>
       <c r="K117">
-        <v>1.165562180971504</v>
+        <v>6.721883468564005</v>
       </c>
       <c r="L117">
-        <v>0.02378698328513273</v>
+        <v>0.1371812952768164</v>
       </c>
       <c r="M117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5659,696 +5650,696 @@
         <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C118">
-        <v>0.6376565835333333</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D118" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E118">
-        <v>11828.23318816575</v>
+        <v>10346.75432576778</v>
       </c>
       <c r="F118">
-        <v>37365.38864141561</v>
+        <v>32685.39691510041</v>
       </c>
       <c r="G118">
-        <v>168.6157142604139</v>
+        <v>116.1451180066508</v>
       </c>
       <c r="H118">
-        <v>1.910199925709169</v>
+        <v>0.8520308285278103</v>
       </c>
       <c r="I118">
-        <v>0.236564663763315</v>
+        <v>0.2069350865153555</v>
       </c>
       <c r="J118">
-        <v>14548.72682144388</v>
+        <v>12726.50782069437</v>
       </c>
       <c r="K118">
-        <v>14.1938798257989</v>
+        <v>12.41610519092133</v>
       </c>
       <c r="L118">
-        <v>0.2896710168530388</v>
+        <v>0.2533899018555373</v>
       </c>
       <c r="M118" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C119">
-        <v>0.7873938323333334</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D119" t="s">
         <v>131</v>
       </c>
       <c r="E119">
-        <v>5601.569557136672</v>
+        <v>607.3608680769138</v>
       </c>
       <c r="F119">
-        <v>17695.35823099475</v>
+        <v>1918.652982254971</v>
       </c>
       <c r="G119">
-        <v>64.58933581077071</v>
+        <v>9.195443542684476</v>
       </c>
       <c r="H119">
-        <v>0.7086960192323654</v>
+        <v>0.3158276513999952</v>
       </c>
       <c r="I119">
-        <v>0.1120313911427334</v>
+        <v>0.01214721736153828</v>
       </c>
       <c r="J119">
-        <v>6889.930555278106</v>
+        <v>747.053867734604</v>
       </c>
       <c r="K119">
-        <v>6.721883468564005</v>
+        <v>0.7288330416922966</v>
       </c>
       <c r="L119">
-        <v>0.1371812952768164</v>
+        <v>0.01487414370800605</v>
       </c>
       <c r="M119" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B120" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C120">
-        <v>0.7119010822333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E120">
-        <v>91.88115541551889</v>
+        <v>55958.11085639045</v>
       </c>
       <c r="F120">
-        <v>290.2525699576242</v>
+        <v>176771.6721953374</v>
       </c>
       <c r="G120">
-        <v>1.391080692990956</v>
+        <v>1166.411679180642</v>
       </c>
       <c r="H120">
-        <v>0.04777820081606984</v>
+        <v>6.291849625474511</v>
       </c>
       <c r="I120">
-        <v>0.001837623108310378</v>
+        <v>1.119162217127809</v>
       </c>
       <c r="J120">
-        <v>113.0138211610883</v>
+        <v>68828.47635336025</v>
       </c>
       <c r="K120">
-        <v>0.1102573864986227</v>
+        <v>67.14973302766853</v>
       </c>
       <c r="L120">
-        <v>0.002250150744869851</v>
+        <v>1.370402714850378</v>
       </c>
       <c r="M120" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C121">
-        <v>0.7873938323333334</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D121" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E121">
-        <v>10346.75432576778</v>
+        <v>55958.11085639045</v>
       </c>
       <c r="F121">
-        <v>32685.39691510041</v>
+        <v>176771.6721953374</v>
       </c>
       <c r="G121">
-        <v>116.1451180066508</v>
+        <v>1166.411679180642</v>
       </c>
       <c r="H121">
-        <v>0.8520308285278103</v>
+        <v>6.291849625474511</v>
       </c>
       <c r="I121">
-        <v>0.2069350865153555</v>
+        <v>1.119162217127809</v>
       </c>
       <c r="J121">
-        <v>12726.50782069437</v>
+        <v>68828.47635336025</v>
       </c>
       <c r="K121">
-        <v>12.41610519092133</v>
+        <v>67.14973302766853</v>
       </c>
       <c r="L121">
-        <v>0.2533899018555373</v>
+        <v>1.370402714850378</v>
       </c>
       <c r="M121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C122">
-        <v>0.6987738282666667</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D122" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E122">
-        <v>607.3608680769138</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F122">
-        <v>1918.652982254971</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G122">
-        <v>9.195443542684476</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H122">
-        <v>0.3158276513999952</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I122">
-        <v>0.01214721736153828</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J122">
-        <v>747.053867734604</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K122">
-        <v>0.7288330416922966</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L122">
-        <v>0.01487414370800605</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M122" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C123">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D123" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E123">
-        <v>55958.11085639045</v>
+        <v>114219.1916240471</v>
       </c>
       <c r="F123">
-        <v>176771.6721953374</v>
+        <v>360818.4263403647</v>
       </c>
       <c r="G123">
-        <v>1166.411679180642</v>
+        <v>2563.752966236701</v>
       </c>
       <c r="H123">
-        <v>6.291849625474511</v>
+        <v>9.649549357976147</v>
       </c>
       <c r="I123">
-        <v>1.119162217127809</v>
+        <v>2.284383832480941</v>
       </c>
       <c r="J123">
-        <v>68828.47635336025</v>
+        <v>140489.6056975779</v>
       </c>
       <c r="K123">
-        <v>67.14973302766853</v>
+        <v>137.0630299488565</v>
       </c>
       <c r="L123">
-        <v>1.370402714850378</v>
+        <v>2.797204692833805</v>
       </c>
       <c r="M123" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C124">
-        <v>0.6060793402</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D124" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E124">
-        <v>55958.11085639045</v>
+        <v>9400.668876938233</v>
       </c>
       <c r="F124">
-        <v>176771.6721953374</v>
+        <v>29696.71298224788</v>
       </c>
       <c r="G124">
-        <v>1166.411679180642</v>
+        <v>104.1096280575871</v>
       </c>
       <c r="H124">
-        <v>6.291849625474511</v>
+        <v>0.8382516782151377</v>
       </c>
       <c r="I124">
-        <v>1.119162217127809</v>
+        <v>0.1880133775387646</v>
       </c>
       <c r="J124">
-        <v>68828.47635336025</v>
+        <v>11562.82271863403</v>
       </c>
       <c r="K124">
-        <v>67.14973302766853</v>
+        <v>11.28080265232588</v>
       </c>
       <c r="L124">
-        <v>1.370402714850378</v>
+        <v>0.2302204622923649</v>
       </c>
       <c r="M124" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C125">
-        <v>0.7517421065333333</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D125" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E125">
-        <v>114219.1916240471</v>
+        <v>111754.0296499184</v>
       </c>
       <c r="F125">
-        <v>360818.4263403647</v>
+        <v>353030.9796640922</v>
       </c>
       <c r="G125">
-        <v>2563.752966236701</v>
+        <v>2513.793028524879</v>
       </c>
       <c r="H125">
-        <v>9.649549357976147</v>
+        <v>9.575829690181015</v>
       </c>
       <c r="I125">
-        <v>2.284383832480941</v>
+        <v>2.235080592998368</v>
       </c>
       <c r="J125">
-        <v>140489.6056975779</v>
+        <v>137457.4564693996</v>
       </c>
       <c r="K125">
-        <v>137.0630299488565</v>
+        <v>134.104835579902</v>
       </c>
       <c r="L125">
-        <v>2.797204692833805</v>
+        <v>2.736833379181675</v>
       </c>
       <c r="M125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B126" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C126">
         <v>0.7517421065333333</v>
       </c>
       <c r="D126" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E126">
-        <v>114219.1916240471</v>
+        <v>106492.2647280735</v>
       </c>
       <c r="F126">
-        <v>360818.4263403647</v>
+        <v>336409.0642759843</v>
       </c>
       <c r="G126">
-        <v>2563.752966236701</v>
+        <v>2116.84753957842</v>
       </c>
       <c r="H126">
-        <v>9.649549357976147</v>
+        <v>8.563243673031241</v>
       </c>
       <c r="I126">
-        <v>2.284383832480941</v>
+        <v>2.129845294561471</v>
       </c>
       <c r="J126">
-        <v>140489.6056975779</v>
+        <v>130985.4856155305</v>
       </c>
       <c r="K126">
-        <v>137.0630299488565</v>
+        <v>127.7907176736882</v>
       </c>
       <c r="L126">
-        <v>2.797204692833805</v>
+        <v>2.60797383007527</v>
       </c>
       <c r="M126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C127">
-        <v>0.6385780525666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D127" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E127">
-        <v>9400.668876938233</v>
+        <v>8147.357014123172</v>
       </c>
       <c r="F127">
-        <v>29696.71298224788</v>
+        <v>25737.5008076151</v>
       </c>
       <c r="G127">
-        <v>104.1096280575871</v>
+        <v>120.042470069938</v>
       </c>
       <c r="H127">
-        <v>0.8382516782151377</v>
+        <v>0.8632957306902103</v>
       </c>
       <c r="I127">
-        <v>0.1880133775387646</v>
+        <v>0.1629471402824634</v>
       </c>
       <c r="J127">
-        <v>11562.82271863403</v>
+        <v>10021.2491273715</v>
       </c>
       <c r="K127">
-        <v>11.28080265232588</v>
+        <v>9.776828416947804</v>
       </c>
       <c r="L127">
-        <v>0.2302204622923649</v>
+        <v>0.1995271105499553</v>
       </c>
       <c r="M127" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B128" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C128">
-        <v>0.6376565835333333</v>
+        <v>0.6078310146</v>
       </c>
       <c r="D128" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E128">
-        <v>111754.0296499184</v>
+        <v>8686.398914026338</v>
       </c>
       <c r="F128">
-        <v>353030.9796640922</v>
+        <v>27440.3341694092</v>
       </c>
       <c r="G128">
-        <v>2513.793028524879</v>
+        <v>124.8009369955056</v>
       </c>
       <c r="H128">
-        <v>9.575829690181015</v>
+        <v>0.785483033151096</v>
       </c>
       <c r="I128">
-        <v>2.235080592998368</v>
+        <v>0.1737279782805267</v>
       </c>
       <c r="J128">
-        <v>137457.4564693996</v>
+        <v>10684.2706642524</v>
       </c>
       <c r="K128">
-        <v>134.104835579902</v>
+        <v>10.4236786968316</v>
       </c>
       <c r="L128">
-        <v>2.736833379181675</v>
+        <v>0.2127281366700328</v>
       </c>
       <c r="M128" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>0.7517421065333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D129" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E129">
-        <v>106492.2647280735</v>
+        <v>8150.479098893938</v>
       </c>
       <c r="F129">
-        <v>336409.0642759843</v>
+        <v>25747.36347340595</v>
       </c>
       <c r="G129">
-        <v>2116.84753957842</v>
+        <v>92.44907554445369</v>
       </c>
       <c r="H129">
-        <v>8.563243673031241</v>
+        <v>0.7883222510559735</v>
       </c>
       <c r="I129">
-        <v>2.129845294561471</v>
+        <v>0.1630095819778788</v>
       </c>
       <c r="J129">
-        <v>130985.4856155305</v>
+        <v>10025.08929163955</v>
       </c>
       <c r="K129">
-        <v>127.7907176736882</v>
+        <v>9.780574918672725</v>
       </c>
       <c r="L129">
-        <v>2.60797383007527</v>
+        <v>0.1996035697688311</v>
       </c>
       <c r="M129" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C130">
-        <v>0.6997836170333334</v>
+        <v>0.6148377121999999</v>
       </c>
       <c r="D130" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E130">
-        <v>35300.2990258531</v>
+        <v>16113.64964432811</v>
       </c>
       <c r="F130">
-        <v>111513.6446226699</v>
+        <v>50903.01922643249</v>
       </c>
       <c r="G130">
-        <v>710.6014238871344</v>
+        <v>254.8654992733647</v>
       </c>
       <c r="H130">
-        <v>5.873362771370457</v>
+        <v>1.066179234300694</v>
       </c>
       <c r="I130">
-        <v>0.7060059805170618</v>
+        <v>0.3222729928865622</v>
       </c>
       <c r="J130">
-        <v>43419.36780179931</v>
+        <v>19819.78906252357</v>
       </c>
       <c r="K130">
-        <v>42.36035883102372</v>
+        <v>19.33637957319373</v>
       </c>
       <c r="L130">
-        <v>0.8644971190004842</v>
+        <v>0.394619991289668</v>
       </c>
       <c r="M130" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C131">
-        <v>0.6987738282666667</v>
+        <v>0.6130860377999999</v>
       </c>
       <c r="D131" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E131">
-        <v>8147.357014123172</v>
+        <v>2026.084722656642</v>
       </c>
       <c r="F131">
-        <v>25737.5008076151</v>
+        <v>6400.401638872333</v>
       </c>
       <c r="G131">
-        <v>120.042470069938</v>
+        <v>22.54927669233611</v>
       </c>
       <c r="H131">
-        <v>0.8632957306902103</v>
+        <v>0.7139707245949517</v>
       </c>
       <c r="I131">
-        <v>0.1629471402824634</v>
+        <v>0.04052169445313285</v>
       </c>
       <c r="J131">
-        <v>10021.2491273715</v>
+        <v>2492.08420886767</v>
       </c>
       <c r="K131">
-        <v>9.776828416947804</v>
+        <v>2.431301667187971</v>
       </c>
       <c r="L131">
-        <v>0.1995271105499553</v>
+        <v>0.04961840137118308</v>
       </c>
       <c r="M131" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C132">
-        <v>0.6078310146</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D132" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E132">
-        <v>8686.398914026338</v>
+        <v>6515.686044874976</v>
       </c>
       <c r="F132">
-        <v>27440.3341694092</v>
+        <v>20583.05221576005</v>
       </c>
       <c r="G132">
-        <v>124.8009369955056</v>
+        <v>68.33825035147298</v>
       </c>
       <c r="H132">
-        <v>0.785483033151096</v>
+        <v>1.006664194881777</v>
       </c>
       <c r="I132">
-        <v>0.1737279782805267</v>
+        <v>0.1303137208974995</v>
       </c>
       <c r="J132">
-        <v>10684.2706642524</v>
+        <v>8014.293835196219</v>
       </c>
       <c r="K132">
-        <v>10.4236786968316</v>
+        <v>7.81882325384997</v>
       </c>
       <c r="L132">
-        <v>0.2127281366700328</v>
+        <v>0.1595678215071422</v>
       </c>
       <c r="M132" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B133" t="s">
         <v>14</v>
       </c>
       <c r="C133">
-        <v>0.6060793402</v>
+        <v>0.6078310146</v>
       </c>
       <c r="D133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E133">
-        <v>8150.479098893938</v>
+        <v>7427.12626204736</v>
       </c>
       <c r="F133">
-        <v>25747.36347340595</v>
+        <v>23462.2918618076</v>
       </c>
       <c r="G133">
-        <v>92.44907554445369</v>
+        <v>84.1499324453095</v>
       </c>
       <c r="H133">
-        <v>0.7883222510559735</v>
+        <v>0.6966785060684516</v>
       </c>
       <c r="I133">
-        <v>0.1630095819778788</v>
+        <v>0.1485425252409472</v>
       </c>
       <c r="J133">
-        <v>10025.08929163955</v>
+        <v>9135.365302318252</v>
       </c>
       <c r="K133">
-        <v>9.780574918672725</v>
+        <v>8.91255151445683</v>
       </c>
       <c r="L133">
-        <v>0.1996035697688311</v>
+        <v>0.1818888064174863</v>
       </c>
       <c r="M133" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B134" t="s">
         <v>105</v>
       </c>
       <c r="C134">
-        <v>0.6148377121999999</v>
+        <v>0.6441068667666667</v>
       </c>
       <c r="D134" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E134">
-        <v>16113.64964432811</v>
+        <v>1966.62536627345</v>
       </c>
       <c r="F134">
-        <v>50903.01922643249</v>
+        <v>6212.569532057826</v>
       </c>
       <c r="G134">
-        <v>254.8654992733647</v>
+        <v>23.13173826219864</v>
       </c>
       <c r="H134">
-        <v>1.066179234300694</v>
+        <v>0.5442505651161065</v>
       </c>
       <c r="I134">
-        <v>0.3222729928865622</v>
+        <v>0.03933250732546898</v>
       </c>
       <c r="J134">
-        <v>19819.78906252357</v>
+        <v>2418.949200516342</v>
       </c>
       <c r="K134">
-        <v>19.33637957319373</v>
+        <v>2.359950439528139</v>
       </c>
       <c r="L134">
-        <v>0.394619991289668</v>
+        <v>0.0481622538679212</v>
       </c>
       <c r="M134" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6359,365 +6350,365 @@
         <v>106</v>
       </c>
       <c r="C135">
-        <v>0.6130860377999999</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D135" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E135">
-        <v>2026.084722656642</v>
+        <v>162.6064309985131</v>
       </c>
       <c r="F135">
-        <v>6400.401638872333</v>
+        <v>513.6737155243028</v>
       </c>
       <c r="G135">
-        <v>22.54927669233611</v>
+        <v>2.461861365317489</v>
       </c>
       <c r="H135">
-        <v>0.7139707245949517</v>
+        <v>0.08455534411922684</v>
       </c>
       <c r="I135">
-        <v>0.04052169445313285</v>
+        <v>0.003252128619970263</v>
       </c>
       <c r="J135">
-        <v>2492.08420886767</v>
+        <v>200.0059101281711</v>
       </c>
       <c r="K135">
-        <v>2.431301667187971</v>
+        <v>0.1951277171982158</v>
       </c>
       <c r="L135">
-        <v>0.04961840137118308</v>
+        <v>0.003982198310167668</v>
       </c>
       <c r="M135" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B136" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C136">
-        <v>0.7873938323333334</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D136" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E136">
-        <v>6515.686044874976</v>
+        <v>1783.802363970648</v>
       </c>
       <c r="F136">
-        <v>20583.05221576005</v>
+        <v>5635.031667783277</v>
       </c>
       <c r="G136">
-        <v>68.33825035147298</v>
+        <v>32.58696227941154</v>
       </c>
       <c r="H136">
-        <v>1.006664194881777</v>
+        <v>0.08089774292929054</v>
       </c>
       <c r="I136">
-        <v>0.1303137208974995</v>
+        <v>0.03567604727941296</v>
       </c>
       <c r="J136">
-        <v>8014.293835196219</v>
+        <v>2194.076907683897</v>
       </c>
       <c r="K136">
-        <v>7.81882325384997</v>
+        <v>2.140562836764778</v>
       </c>
       <c r="L136">
-        <v>0.1595678215071422</v>
+        <v>0.0436849558523424</v>
       </c>
       <c r="M136" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C137">
-        <v>0.6078310146</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E137">
-        <v>7427.12626204736</v>
+        <v>519.3528033687573</v>
       </c>
       <c r="F137">
-        <v>23462.2918618076</v>
+        <v>1640.635505841904</v>
       </c>
       <c r="G137">
-        <v>84.1499324453095</v>
+        <v>7.863001443002985</v>
       </c>
       <c r="H137">
-        <v>0.6966785060684516</v>
+        <v>0.2700634577517538</v>
       </c>
       <c r="I137">
-        <v>0.1485425252409472</v>
+        <v>0.01038705606737514</v>
       </c>
       <c r="J137">
-        <v>9135.365302318252</v>
+        <v>638.8039481435716</v>
       </c>
       <c r="K137">
-        <v>8.91255151445683</v>
+        <v>0.6232233640425088</v>
       </c>
       <c r="L137">
-        <v>0.1818888064174863</v>
+        <v>0.01271884416413283</v>
       </c>
       <c r="M137" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C138">
-        <v>0.6441068667666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D138" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E138">
-        <v>1966.62536627345</v>
+        <v>65141.19545649693</v>
       </c>
       <c r="F138">
-        <v>6212.569532057826</v>
+        <v>205781.0364470738</v>
       </c>
       <c r="G138">
-        <v>23.13173826219864</v>
+        <v>1310.00523464944</v>
       </c>
       <c r="H138">
-        <v>0.5442505651161065</v>
+        <v>6.846526518104342</v>
       </c>
       <c r="I138">
-        <v>0.03933250732546898</v>
+        <v>1.302823909129939</v>
       </c>
       <c r="J138">
-        <v>2418.949200516342</v>
+        <v>80123.67041149124</v>
       </c>
       <c r="K138">
-        <v>2.359950439528139</v>
+        <v>78.16943454779633</v>
       </c>
       <c r="L138">
-        <v>0.0481622538679212</v>
+        <v>1.595294582608088</v>
       </c>
       <c r="M138" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C139">
-        <v>0.6987738282666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D139" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E139">
-        <v>1783.802363970648</v>
+        <v>49612.24801899566</v>
       </c>
       <c r="F139">
-        <v>5635.031667783277</v>
+        <v>156725.0914920073</v>
       </c>
       <c r="G139">
-        <v>32.58696227941154</v>
+        <v>1012.500926715771</v>
       </c>
       <c r="H139">
-        <v>0.08089774292929054</v>
+        <v>6.566480702102439</v>
       </c>
       <c r="I139">
-        <v>0.03567604727941296</v>
+        <v>0.9922449603799133</v>
       </c>
       <c r="J139">
-        <v>2194.076907683897</v>
+        <v>61023.06506336467</v>
       </c>
       <c r="K139">
-        <v>2.140562836764778</v>
+        <v>59.53469762279479</v>
       </c>
       <c r="L139">
-        <v>0.0436849558523424</v>
+        <v>1.214993829036628</v>
       </c>
       <c r="M139" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="C140">
-        <v>0.6987738282666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E140">
-        <v>519.3528033687573</v>
+        <v>49612.24801899566</v>
       </c>
       <c r="F140">
-        <v>1640.635505841904</v>
+        <v>156725.0914920073</v>
       </c>
       <c r="G140">
-        <v>7.863001443002985</v>
+        <v>1012.500926715771</v>
       </c>
       <c r="H140">
-        <v>0.2700634577517538</v>
+        <v>6.566480702102439</v>
       </c>
       <c r="I140">
-        <v>0.01038705606737514</v>
+        <v>0.9922449603799133</v>
       </c>
       <c r="J140">
-        <v>638.8039481435716</v>
+        <v>61023.06506336467</v>
       </c>
       <c r="K140">
-        <v>0.6232233640425088</v>
+        <v>59.53469762279479</v>
       </c>
       <c r="L140">
-        <v>0.01271884416413283</v>
+        <v>1.214993829036628</v>
       </c>
       <c r="M140" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B141" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C141">
         <v>0.6060793402</v>
       </c>
       <c r="D141" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E141">
-        <v>65141.19545649693</v>
+        <v>26776.62289742479</v>
       </c>
       <c r="F141">
-        <v>205781.0364470738</v>
+        <v>84587.35173296492</v>
       </c>
       <c r="G141">
-        <v>1310.00523464944</v>
+        <v>374.1524896696622</v>
       </c>
       <c r="H141">
-        <v>6.846526518104342</v>
+        <v>2.358691548933191</v>
       </c>
       <c r="I141">
-        <v>1.302823909129939</v>
+        <v>0.5355324579484957</v>
       </c>
       <c r="J141">
-        <v>80123.67041149124</v>
+        <v>32935.2461638325</v>
       </c>
       <c r="K141">
-        <v>78.16943454779633</v>
+        <v>32.13194747690975</v>
       </c>
       <c r="L141">
-        <v>1.595294582608088</v>
+        <v>0.6557540301410153</v>
       </c>
       <c r="M141" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="C142">
         <v>0.6060793402</v>
       </c>
       <c r="D142" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E142">
-        <v>49612.24801899566</v>
+        <v>20466.33671418775</v>
       </c>
       <c r="F142">
-        <v>156725.0914920073</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G142">
-        <v>1012.500926715771</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H142">
-        <v>6.566480702102439</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I142">
-        <v>0.9922449603799133</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J142">
-        <v>61023.06506336467</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K142">
-        <v>59.53469762279479</v>
+        <v>24.55960405702529</v>
       </c>
       <c r="L142">
-        <v>1.214993829036628</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M142" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C143">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D143" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E143">
-        <v>49612.24801899566</v>
+        <v>106492.2647280735</v>
       </c>
       <c r="F143">
-        <v>156725.0914920073</v>
+        <v>336409.0642759843</v>
       </c>
       <c r="G143">
-        <v>1012.500926715771</v>
+        <v>2116.84753957842</v>
       </c>
       <c r="H143">
-        <v>6.566480702102439</v>
+        <v>8.563243673031241</v>
       </c>
       <c r="I143">
-        <v>0.9922449603799133</v>
+        <v>2.129845294561471</v>
       </c>
       <c r="J143">
-        <v>61023.06506336467</v>
+        <v>130985.4856155305</v>
       </c>
       <c r="K143">
-        <v>59.53469762279479</v>
+        <v>127.7907176736882</v>
       </c>
       <c r="L143">
-        <v>1.214993829036628</v>
+        <v>2.60797383007527</v>
       </c>
       <c r="M143" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6728,37 +6719,37 @@
         <v>105</v>
       </c>
       <c r="C144">
-        <v>0.6060793402</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D144" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E144">
-        <v>26776.62289742479</v>
+        <v>30129.0054901742</v>
       </c>
       <c r="F144">
-        <v>84587.35173296492</v>
+        <v>95177.5283434603</v>
       </c>
       <c r="G144">
-        <v>374.1524896696622</v>
+        <v>622.8068203146464</v>
       </c>
       <c r="H144">
-        <v>2.358691548933191</v>
+        <v>4.717477824016408</v>
       </c>
       <c r="I144">
-        <v>0.5355324579484957</v>
+        <v>0.6025801098034841</v>
       </c>
       <c r="J144">
-        <v>32935.2461638325</v>
+        <v>37058.67675291427</v>
       </c>
       <c r="K144">
-        <v>32.13194747690975</v>
+        <v>36.15480658820904</v>
       </c>
       <c r="L144">
-        <v>0.6557540301410153</v>
+        <v>0.7378531956777356</v>
       </c>
       <c r="M144" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6769,529 +6760,529 @@
         <v>106</v>
       </c>
       <c r="C145">
-        <v>0.6060793402</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D145" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E145">
-        <v>20466.33671418775</v>
+        <v>35374.00815159539</v>
       </c>
       <c r="F145">
-        <v>64653.15768011908</v>
+        <v>111746.4917508898</v>
       </c>
       <c r="G145">
-        <v>292.753316034753</v>
+        <v>735.0127434412911</v>
       </c>
       <c r="H145">
-        <v>1.094093164581334</v>
+        <v>5.716251814829103</v>
       </c>
       <c r="I145">
-        <v>0.4093267342837549</v>
+        <v>0.7074801630319076</v>
       </c>
       <c r="J145">
-        <v>25173.59415845093</v>
+        <v>43510.03002646234</v>
       </c>
       <c r="K145">
-        <v>24.55960405702529</v>
+        <v>42.44880978191447</v>
       </c>
       <c r="L145">
-        <v>0.5012164093270468</v>
+        <v>0.8663022404472343</v>
       </c>
       <c r="M145" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B146" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C146">
-        <v>0.7517421065333333</v>
+        <v>0.7192953415806452</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E146">
-        <v>106492.2647280735</v>
+        <v>7456.311131142342</v>
       </c>
       <c r="F146">
-        <v>336409.0642759843</v>
+        <v>23554.48686327866</v>
       </c>
       <c r="G146">
-        <v>2116.84753957842</v>
+        <v>79.32996385006757</v>
       </c>
       <c r="H146">
-        <v>8.563243673031241</v>
+        <v>0.9853054421750811</v>
       </c>
       <c r="I146">
-        <v>2.129845294561471</v>
+        <v>0.1491262226228469</v>
       </c>
       <c r="J146">
-        <v>130985.4856155305</v>
+        <v>9171.262691305081</v>
       </c>
       <c r="K146">
-        <v>127.7907176736882</v>
+        <v>8.94757335737081</v>
       </c>
       <c r="L146">
-        <v>2.60797383007527</v>
+        <v>0.1826035379055267</v>
       </c>
       <c r="M146" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B147" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C147">
-        <v>0.6376565835333333</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D147" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E147">
-        <v>30129.0054901742</v>
+        <v>10900.73325589083</v>
       </c>
       <c r="F147">
-        <v>95177.5283434603</v>
+        <v>34435.41635535912</v>
       </c>
       <c r="G147">
-        <v>622.8068203146464</v>
+        <v>121.114451173051</v>
       </c>
       <c r="H147">
-        <v>4.717477824016408</v>
+        <v>1.023741734157675</v>
       </c>
       <c r="I147">
-        <v>0.6025801098034841</v>
+        <v>0.2180146651178165</v>
       </c>
       <c r="J147">
-        <v>37058.67675291427</v>
+        <v>13407.90190474572</v>
       </c>
       <c r="K147">
-        <v>36.15480658820904</v>
+        <v>13.08087990706899</v>
       </c>
       <c r="L147">
-        <v>0.7378531956777356</v>
+        <v>0.2669567327973263</v>
       </c>
       <c r="M147" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B148" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C148">
-        <v>0.7192953415806452</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D148" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E148">
-        <v>7456.311131142342</v>
+        <v>3198.583429773164</v>
       </c>
       <c r="F148">
-        <v>23554.48686327866</v>
+        <v>10104.32505465342</v>
       </c>
       <c r="G148">
-        <v>79.32996385006757</v>
+        <v>35.72443413283514</v>
       </c>
       <c r="H148">
-        <v>0.9853054421750811</v>
+        <v>0.5902187145907087</v>
       </c>
       <c r="I148">
-        <v>0.1491262226228469</v>
+        <v>0.06397166859546327</v>
       </c>
       <c r="J148">
-        <v>9171.262691305081</v>
+        <v>3934.257618620992</v>
       </c>
       <c r="K148">
-        <v>8.94757335737081</v>
+        <v>3.838300115727797</v>
       </c>
       <c r="L148">
-        <v>0.1826035379055267</v>
+        <v>0.07833265542301625</v>
       </c>
       <c r="M148" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C149">
-        <v>0.6987738282666667</v>
+        <v>0.8131851525</v>
       </c>
       <c r="D149" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E149">
-        <v>10900.73325589083</v>
+        <v>9645.729369285775</v>
       </c>
       <c r="F149">
-        <v>34435.41635535912</v>
+        <v>30470.85907757376</v>
       </c>
       <c r="G149">
-        <v>121.114451173051</v>
+        <v>111.3397010786446</v>
       </c>
       <c r="H149">
-        <v>1.023741734157675</v>
+        <v>0.8099653801601707</v>
       </c>
       <c r="I149">
-        <v>0.2180146651178165</v>
+        <v>0.1929145873857155</v>
       </c>
       <c r="J149">
-        <v>13407.90190474572</v>
+        <v>11864.2471242215</v>
       </c>
       <c r="K149">
-        <v>13.08087990706899</v>
+        <v>11.57487524314293</v>
       </c>
       <c r="L149">
-        <v>0.2669567327973263</v>
+        <v>0.2362219437376108</v>
       </c>
       <c r="M149" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B150" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C150">
         <v>0.6060793402</v>
       </c>
       <c r="D150" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E150">
-        <v>3198.583429773164</v>
+        <v>20466.33671418775</v>
       </c>
       <c r="F150">
-        <v>10104.32505465342</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G150">
-        <v>35.72443413283514</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H150">
-        <v>0.5902187145907087</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I150">
-        <v>0.06397166859546327</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J150">
-        <v>3934.257618620992</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K150">
-        <v>3.838300115727797</v>
+        <v>24.55960405702529</v>
       </c>
       <c r="L150">
-        <v>0.07833265542301625</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M150" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C151">
-        <v>0.8131851525</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D151" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E151">
-        <v>9645.729369285775</v>
+        <v>145152.1821008488</v>
       </c>
       <c r="F151">
-        <v>30470.85907757376</v>
+        <v>458535.7432565812</v>
       </c>
       <c r="G151">
-        <v>111.3397010786446</v>
+        <v>2871.452189972635</v>
       </c>
       <c r="H151">
-        <v>0.8099653801601707</v>
+        <v>18.03767642532059</v>
       </c>
       <c r="I151">
-        <v>0.1929145873857155</v>
+        <v>2.903043642016975</v>
       </c>
       <c r="J151">
-        <v>11864.2471242215</v>
+        <v>178537.183984044</v>
       </c>
       <c r="K151">
-        <v>11.57487524314293</v>
+        <v>174.1826185210185</v>
       </c>
       <c r="L151">
-        <v>0.2362219437376108</v>
+        <v>3.554747316755479</v>
       </c>
       <c r="M151" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B152" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C152">
         <v>0.6060793402</v>
       </c>
       <c r="D152" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E152">
-        <v>20466.33671418775</v>
+        <v>4094.66511250274</v>
       </c>
       <c r="F152">
-        <v>64653.15768011908</v>
+        <v>12935.04709039616</v>
       </c>
       <c r="G152">
-        <v>292.753316034753</v>
+        <v>47.54434088141971</v>
       </c>
       <c r="H152">
-        <v>1.094093164581334</v>
+        <v>0.5820121121570897</v>
       </c>
       <c r="I152">
-        <v>0.4093267342837549</v>
+        <v>0.0818933022500548</v>
       </c>
       <c r="J152">
-        <v>25173.59415845093</v>
+        <v>5036.438088378371</v>
       </c>
       <c r="K152">
-        <v>24.55960405702529</v>
+        <v>4.913598135003288</v>
       </c>
       <c r="L152">
-        <v>0.5012164093270468</v>
+        <v>0.1002775129592508</v>
       </c>
       <c r="M152" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B153" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C153">
-        <v>0.7517421065333333</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D153" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E153">
-        <v>145152.1821008488</v>
+        <v>6848.234473360048</v>
       </c>
       <c r="F153">
-        <v>458535.7432565812</v>
+        <v>21633.57270134439</v>
       </c>
       <c r="G153">
-        <v>2871.452189972635</v>
+        <v>76.22897998676181</v>
       </c>
       <c r="H153">
-        <v>18.03767642532059</v>
+        <v>0.5546328814788248</v>
       </c>
       <c r="I153">
-        <v>2.903043642016975</v>
+        <v>0.1369646894672009</v>
       </c>
       <c r="J153">
-        <v>178537.183984044</v>
+        <v>8423.328402232859</v>
       </c>
       <c r="K153">
-        <v>174.1826185210185</v>
+        <v>8.217881368032057</v>
       </c>
       <c r="L153">
-        <v>3.554747316755479</v>
+        <v>0.1677118646537155</v>
       </c>
       <c r="M153" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B154" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C154">
-        <v>0.6060793402</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D154" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E154">
-        <v>4094.66511250274</v>
+        <v>9454.061924988418</v>
       </c>
       <c r="F154">
-        <v>12935.04709039616</v>
+        <v>29865.38162103842</v>
       </c>
       <c r="G154">
-        <v>47.54434088141971</v>
+        <v>146.6473770438191</v>
       </c>
       <c r="H154">
-        <v>0.5820121121570897</v>
+        <v>0.3117500111940109</v>
       </c>
       <c r="I154">
-        <v>0.0818933022500548</v>
+        <v>0.1890812384997684</v>
       </c>
       <c r="J154">
-        <v>5036.438088378371</v>
+        <v>11628.49616773576</v>
       </c>
       <c r="K154">
-        <v>4.913598135003288</v>
+        <v>11.3448743099861</v>
       </c>
       <c r="L154">
-        <v>0.1002775129592508</v>
+        <v>0.2315280471425735</v>
       </c>
       <c r="M154" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B155" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C155">
-        <v>0.6385780525666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D155" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E155">
-        <v>6848.234473360048</v>
+        <v>20466.33671418775</v>
       </c>
       <c r="F155">
-        <v>21633.57270134439</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G155">
-        <v>76.22897998676181</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H155">
-        <v>0.5546328814788248</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I155">
-        <v>0.1369646894672009</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J155">
-        <v>8423.328402232859</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K155">
-        <v>8.217881368032057</v>
+        <v>24.55960405702529</v>
       </c>
       <c r="L155">
-        <v>0.1677118646537155</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M155" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C156">
-        <v>0.7873938323333334</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D156" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E156">
-        <v>9454.061924988418</v>
+        <v>86828.49040872183</v>
       </c>
       <c r="F156">
-        <v>29865.38162103842</v>
+        <v>274291.2012011523</v>
       </c>
       <c r="G156">
-        <v>146.6473770438191</v>
+        <v>1314.633026537286</v>
       </c>
       <c r="H156">
-        <v>0.3117500111940109</v>
+        <v>3.793712871365774</v>
       </c>
       <c r="I156">
-        <v>0.1890812384997684</v>
+        <v>1.736569808174437</v>
       </c>
       <c r="J156">
-        <v>11628.49616773576</v>
+        <v>106799.0432027278</v>
       </c>
       <c r="K156">
-        <v>11.3448743099861</v>
+        <v>104.1941884904662</v>
       </c>
       <c r="L156">
-        <v>0.2315280471425735</v>
+        <v>2.126412010009514</v>
       </c>
       <c r="M156" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B157" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C157">
-        <v>0.6060793402</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D157" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E157">
-        <v>20466.33671418775</v>
+        <v>145152.1821008488</v>
       </c>
       <c r="F157">
-        <v>64653.15768011908</v>
+        <v>458535.7432565812</v>
       </c>
       <c r="G157">
-        <v>292.753316034753</v>
+        <v>2871.452189972635</v>
       </c>
       <c r="H157">
-        <v>1.094093164581334</v>
+        <v>18.03767642532059</v>
       </c>
       <c r="I157">
-        <v>0.4093267342837549</v>
+        <v>2.903043642016975</v>
       </c>
       <c r="J157">
-        <v>25173.59415845093</v>
+        <v>178537.183984044</v>
       </c>
       <c r="K157">
-        <v>24.55960405702529</v>
+        <v>174.1826185210185</v>
       </c>
       <c r="L157">
-        <v>0.5012164093270468</v>
+        <v>3.554747316755479</v>
       </c>
       <c r="M157" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7299,81 +7290,81 @@
         <v>114</v>
       </c>
       <c r="B158" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C158">
-        <v>0.6376565835333333</v>
+        <v>0.6104585262</v>
       </c>
       <c r="D158" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E158">
-        <v>86828.49040872183</v>
+        <v>4921.624932057842</v>
       </c>
       <c r="F158">
-        <v>274291.2012011523</v>
+        <v>15547.41316037072</v>
       </c>
       <c r="G158">
-        <v>1314.633026537286</v>
+        <v>51.57877078157519</v>
       </c>
       <c r="H158">
-        <v>3.793712871365774</v>
+        <v>1.023699805827114</v>
       </c>
       <c r="I158">
-        <v>1.736569808174437</v>
+        <v>0.09843249864115686</v>
       </c>
       <c r="J158">
-        <v>106799.0432027278</v>
+        <v>6053.598666431147</v>
       </c>
       <c r="K158">
-        <v>104.1941884904662</v>
+        <v>5.90594991846941</v>
       </c>
       <c r="L158">
-        <v>2.126412010009514</v>
+        <v>0.1205295901728451</v>
       </c>
       <c r="M158" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B159" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C159">
-        <v>0.7517421065333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D159" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="E159">
-        <v>145152.1821008488</v>
+        <v>20466.33671418775</v>
       </c>
       <c r="F159">
-        <v>458535.7432565812</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G159">
-        <v>2871.452189972635</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H159">
-        <v>18.03767642532059</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I159">
-        <v>2.903043642016975</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J159">
-        <v>178537.183984044</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K159">
-        <v>174.1826185210185</v>
+        <v>24.55960405702529</v>
       </c>
       <c r="L159">
-        <v>3.554747316755479</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M159" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7381,163 +7372,163 @@
         <v>115</v>
       </c>
       <c r="B160" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C160">
-        <v>0.6104585262</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D160" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E160">
-        <v>4921.624932057842</v>
+        <v>7395.457362195919</v>
       </c>
       <c r="F160">
-        <v>15547.41316037072</v>
+        <v>23362.24980717691</v>
       </c>
       <c r="G160">
-        <v>51.57877078157519</v>
+        <v>84.82690699474438</v>
       </c>
       <c r="H160">
-        <v>1.023699805827114</v>
+        <v>0.6903361436993305</v>
       </c>
       <c r="I160">
-        <v>0.09843249864115686</v>
+        <v>0.1479091472439184</v>
       </c>
       <c r="J160">
-        <v>6053.598666431147</v>
+        <v>9096.41255550098</v>
       </c>
       <c r="K160">
-        <v>5.90594991846941</v>
+        <v>8.874548834635103</v>
       </c>
       <c r="L160">
-        <v>0.1205295901728451</v>
+        <v>0.1811132415231654</v>
       </c>
       <c r="M160" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B161" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C161">
-        <v>0.6060793402</v>
+        <v>0.6122102006</v>
       </c>
       <c r="D161" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E161">
-        <v>20466.33671418775</v>
+        <v>27340.01065406952</v>
       </c>
       <c r="F161">
-        <v>64653.15768011908</v>
+        <v>86367.09365620562</v>
       </c>
       <c r="G161">
-        <v>292.753316034753</v>
+        <v>360.6526079535899</v>
       </c>
       <c r="H161">
-        <v>1.094093164581334</v>
+        <v>4.478409855951822</v>
       </c>
       <c r="I161">
-        <v>0.4093267342837549</v>
+        <v>0.5468002130813903</v>
       </c>
       <c r="J161">
-        <v>25173.59415845093</v>
+        <v>33628.21310450551</v>
       </c>
       <c r="K161">
-        <v>24.55960405702529</v>
+        <v>32.80801278488342</v>
       </c>
       <c r="L161">
-        <v>0.5012164093270468</v>
+        <v>0.6695512813241515</v>
       </c>
       <c r="M161" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B162" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C162">
         <v>0.6060793402</v>
       </c>
       <c r="D162" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E162">
-        <v>7395.457362195919</v>
+        <v>24058.50779562063</v>
       </c>
       <c r="F162">
-        <v>23362.24980717691</v>
+        <v>76000.82612636556</v>
       </c>
       <c r="G162">
-        <v>84.82690699474438</v>
+        <v>497.0575173213799</v>
       </c>
       <c r="H162">
-        <v>0.6903361436993305</v>
+        <v>4.04124220233196</v>
       </c>
       <c r="I162">
-        <v>0.1479091472439184</v>
+        <v>0.4811701559124125</v>
       </c>
       <c r="J162">
-        <v>9096.41255550098</v>
+        <v>29591.96458861337</v>
       </c>
       <c r="K162">
-        <v>8.874548834635103</v>
+        <v>28.87020935474476</v>
       </c>
       <c r="L162">
-        <v>0.1811132415231654</v>
+        <v>0.589187946015199</v>
       </c>
       <c r="M162" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B163" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C163">
-        <v>0.6122102006</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D163" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="E163">
-        <v>27340.01065406952</v>
+        <v>20466.33671418775</v>
       </c>
       <c r="F163">
-        <v>86367.09365620562</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="G163">
-        <v>360.6526079535899</v>
+        <v>292.753316034753</v>
       </c>
       <c r="H163">
-        <v>4.478409855951822</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="I163">
-        <v>0.5468002130813903</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="J163">
-        <v>33628.21310450551</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="K163">
-        <v>32.80801278488342</v>
+        <v>24.55960405702529</v>
       </c>
       <c r="L163">
-        <v>0.6695512813241515</v>
+        <v>0.5012164093270468</v>
       </c>
       <c r="M163" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7545,122 +7536,122 @@
         <v>118</v>
       </c>
       <c r="B164" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C164">
-        <v>0.6060793402</v>
+        <v>0.6104585262</v>
       </c>
       <c r="D164" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E164">
-        <v>24058.50779562063</v>
+        <v>24238.95218202574</v>
       </c>
       <c r="F164">
-        <v>76000.82612636556</v>
+        <v>76570.8499430193</v>
       </c>
       <c r="G164">
-        <v>497.0575173213799</v>
+        <v>466.6219864227239</v>
       </c>
       <c r="H164">
-        <v>4.04124220233196</v>
+        <v>0.7509173994418101</v>
       </c>
       <c r="I164">
-        <v>0.4811701559124125</v>
+        <v>0.4847790436405146</v>
       </c>
       <c r="J164">
-        <v>29591.96458861337</v>
+        <v>29813.91118389165</v>
       </c>
       <c r="K164">
-        <v>28.87020935474476</v>
+        <v>29.08674261843088</v>
       </c>
       <c r="L164">
-        <v>0.589187946015199</v>
+        <v>0.5936069922128751</v>
       </c>
       <c r="M164" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B165" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C165">
-        <v>0.6060793402</v>
+        <v>0.661614779</v>
       </c>
       <c r="D165" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E165">
-        <v>20466.33671418775</v>
+        <v>4220.169447082537</v>
       </c>
       <c r="F165">
-        <v>64653.15768011908</v>
+        <v>13331.51528333373</v>
       </c>
       <c r="G165">
-        <v>292.753316034753</v>
+        <v>48.94093796212715</v>
       </c>
       <c r="H165">
-        <v>1.094093164581334</v>
+        <v>0.1502741618300776</v>
       </c>
       <c r="I165">
-        <v>0.4093267342837549</v>
+        <v>0.08440338894165074</v>
       </c>
       <c r="J165">
-        <v>25173.59415845093</v>
+        <v>5190.808419911519</v>
       </c>
       <c r="K165">
-        <v>24.55960405702529</v>
+        <v>5.064203336499045</v>
       </c>
       <c r="L165">
-        <v>0.5012164093270468</v>
+        <v>0.1033510884999805</v>
       </c>
       <c r="M165" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B166" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C166">
-        <v>0.6104585262</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D166" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E166">
-        <v>24238.95218202574</v>
+        <v>24058.50779562063</v>
       </c>
       <c r="F166">
-        <v>76570.8499430193</v>
+        <v>76000.82612636556</v>
       </c>
       <c r="G166">
-        <v>466.6219864227239</v>
+        <v>497.0575173213799</v>
       </c>
       <c r="H166">
-        <v>0.7509173994418101</v>
+        <v>4.04124220233196</v>
       </c>
       <c r="I166">
-        <v>0.4847790436405146</v>
+        <v>0.4811701559124125</v>
       </c>
       <c r="J166">
-        <v>29813.91118389165</v>
+        <v>29591.96458861337</v>
       </c>
       <c r="K166">
-        <v>29.08674261843088</v>
+        <v>28.87020935474476</v>
       </c>
       <c r="L166">
-        <v>0.5936069922128751</v>
+        <v>0.589187946015199</v>
       </c>
       <c r="M166" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7668,122 +7659,40 @@
         <v>120</v>
       </c>
       <c r="B167" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C167">
-        <v>0.661614779</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D167" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E167">
-        <v>4220.169447082537</v>
+        <v>6852.037840429583</v>
       </c>
       <c r="F167">
-        <v>13331.51528333373</v>
+        <v>21645.58753791705</v>
       </c>
       <c r="G167">
-        <v>48.94093796212715</v>
+        <v>80.45347725019113</v>
       </c>
       <c r="H167">
-        <v>0.1502741618300776</v>
+        <v>0.7268112463285873</v>
       </c>
       <c r="I167">
-        <v>0.08440338894165074</v>
+        <v>0.1370407568085917</v>
       </c>
       <c r="J167">
-        <v>5190.808419911519</v>
+        <v>8428.006543728388</v>
       </c>
       <c r="K167">
-        <v>5.064203336499045</v>
+        <v>8.222445408515499</v>
       </c>
       <c r="L167">
-        <v>0.1033510884999805</v>
+        <v>0.167805008337051</v>
       </c>
       <c r="M167" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
-      <c r="A168" t="s">
-        <v>118</v>
-      </c>
-      <c r="B168" t="s">
-        <v>118</v>
-      </c>
-      <c r="C168">
-        <v>0.6060793402</v>
-      </c>
-      <c r="D168" t="s">
-        <v>127</v>
-      </c>
-      <c r="E168">
-        <v>24058.50779562063</v>
-      </c>
-      <c r="F168">
-        <v>76000.82612636556</v>
-      </c>
-      <c r="G168">
-        <v>497.0575173213799</v>
-      </c>
-      <c r="H168">
-        <v>4.04124220233196</v>
-      </c>
-      <c r="I168">
-        <v>0.4811701559124125</v>
-      </c>
-      <c r="J168">
-        <v>29591.96458861337</v>
-      </c>
-      <c r="K168">
-        <v>28.87020935474476</v>
-      </c>
-      <c r="L168">
-        <v>0.589187946015199</v>
-      </c>
-      <c r="M168" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
-      <c r="A169" t="s">
-        <v>121</v>
-      </c>
-      <c r="B169" t="s">
-        <v>121</v>
-      </c>
-      <c r="C169">
-        <v>0.6385780525666667</v>
-      </c>
-      <c r="D169" t="s">
-        <v>131</v>
-      </c>
-      <c r="E169">
-        <v>6852.037840429583</v>
-      </c>
-      <c r="F169">
-        <v>21645.58753791705</v>
-      </c>
-      <c r="G169">
-        <v>80.45347725019113</v>
-      </c>
-      <c r="H169">
-        <v>0.7268112463285873</v>
-      </c>
-      <c r="I169">
-        <v>0.1370407568085917</v>
-      </c>
-      <c r="J169">
-        <v>8428.006543728388</v>
-      </c>
-      <c r="K169">
-        <v>8.222445408515499</v>
-      </c>
-      <c r="L169">
-        <v>0.167805008337051</v>
-      </c>
-      <c r="M169" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
